--- a/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
@@ -3691,15 +3691,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3747,7 +3747,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3761,7 +3783,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3775,11 +3797,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3793,7 +3823,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3801,7 +3831,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3809,29 +3839,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3846,7 +3854,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3860,31 +3875,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3966,6 +3966,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3978,7 +3990,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3990,19 +4014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4014,13 +4032,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4032,31 +4110,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4068,85 +4134,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4178,8 +4178,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4188,6 +4188,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4222,205 +4272,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4441,13 +4441,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4462,19 +4462,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4495,13 +4495,13 @@
     <xf numFmtId="179" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4516,16 +4516,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4534,7 +4534,13 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4543,10 +4549,14 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4558,10 +4568,10 @@
     <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4579,13 +4589,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4600,92 +4610,62 @@
     <xf numFmtId="10" fontId="5" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4694,55 +4674,22 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4817,8 +4764,8 @@
     <mruColors>
       <color rgb="00C00000"/>
       <color rgb="00FFC000"/>
+      <color rgb="00FF0000"/>
       <color rgb="0092D050"/>
-      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5154,11 +5101,11 @@
   <dimension ref="A1:AN531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AA129" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection pane="bottomRight" activeCell="AN147" sqref="AN147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -13210,40 +13157,62 @@
       <c r="F147" s="3">
         <v>99.725</v>
       </c>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="23"/>
-      <c r="M147" s="28"/>
-      <c r="N147" s="28"/>
-      <c r="O147" s="18"/>
-      <c r="P147" s="18"/>
-      <c r="Q147" s="18"/>
-      <c r="R147" s="18"/>
-      <c r="S147" s="18"/>
-      <c r="T147" s="18"/>
-      <c r="U147" s="18"/>
-      <c r="V147" s="18"/>
-      <c r="W147" s="18"/>
-      <c r="X147" s="18"/>
-      <c r="Y147" s="18"/>
-      <c r="Z147" s="28"/>
-      <c r="AA147" s="23"/>
-      <c r="AB147" s="23"/>
-      <c r="AC147" s="23"/>
-      <c r="AD147" s="23"/>
-      <c r="AE147" s="23"/>
-      <c r="AF147" s="23"/>
-      <c r="AG147" s="28"/>
-      <c r="AH147" s="28"/>
-      <c r="AI147" s="28"/>
-      <c r="AJ147" s="28"/>
-      <c r="AK147" s="28"/>
-      <c r="AL147" s="28"/>
-      <c r="AM147" s="28"/>
-      <c r="AN147" s="37"/>
+      <c r="G147" s="41">
+        <v>45.36</v>
+      </c>
+      <c r="H147" s="41">
+        <v>130.46</v>
+      </c>
+      <c r="I147" s="41">
+        <v>112.52</v>
+      </c>
+      <c r="J147" s="43">
+        <f>(C147-G147)/G147</f>
+        <v>1.50176366843034</v>
+      </c>
+      <c r="K147" s="43">
+        <f>(H147-C147)/H147</f>
+        <v>0.130154836731565</v>
+      </c>
+      <c r="L147" s="43">
+        <f>(H147-I147)/I147</f>
+        <v>0.159438322076075</v>
+      </c>
+      <c r="M147" s="46"/>
+      <c r="N147" s="46"/>
+      <c r="O147" s="41">
+        <v>97.52</v>
+      </c>
+      <c r="P147" s="41"/>
+      <c r="Q147" s="41"/>
+      <c r="R147" s="41"/>
+      <c r="S147" s="41"/>
+      <c r="T147" s="41"/>
+      <c r="U147" s="41"/>
+      <c r="V147" s="41"/>
+      <c r="W147" s="41"/>
+      <c r="X147" s="41"/>
+      <c r="Y147" s="41"/>
+      <c r="Z147" s="46"/>
+      <c r="AA147" s="43">
+        <f>(H147-O147)/H147</f>
+        <v>0.252491185037559</v>
+      </c>
+      <c r="AB147" s="49"/>
+      <c r="AC147" s="49"/>
+      <c r="AD147" s="49"/>
+      <c r="AE147" s="49"/>
+      <c r="AF147" s="49"/>
+      <c r="AG147" s="46"/>
+      <c r="AH147" s="46"/>
+      <c r="AI147" s="46"/>
+      <c r="AJ147" s="46"/>
+      <c r="AK147" s="46"/>
+      <c r="AL147" s="46"/>
+      <c r="AM147" s="46"/>
+      <c r="AN147" s="52">
+        <v>44659</v>
+      </c>
     </row>
     <row r="148" spans="1:40">
       <c r="A148" s="2" t="s">
@@ -13871,7 +13840,7 @@
         <f>(C159-G159)/G159</f>
         <v>0.407343412526998</v>
       </c>
-      <c r="K159" s="42">
+      <c r="K159" s="44">
         <f>(H159-C159)/H159</f>
         <v>0.410956427409149</v>
       </c>
@@ -14685,52 +14654,52 @@
       <c r="F174" s="3">
         <v>10.642</v>
       </c>
-      <c r="G174" s="41">
+      <c r="G174" s="42">
         <v>8.91</v>
       </c>
-      <c r="H174" s="41">
+      <c r="H174" s="42">
         <v>13.44</v>
       </c>
-      <c r="I174" s="41">
+      <c r="I174" s="42">
         <v>9.96</v>
       </c>
-      <c r="J174" s="43">
+      <c r="J174" s="45">
         <f>(C174-G174)/G174</f>
         <v>0.42648709315376</v>
       </c>
-      <c r="K174" s="43">
+      <c r="K174" s="45">
         <f>(H174-C174)/H174</f>
         <v>0.0543154761904761</v>
       </c>
-      <c r="L174" s="43">
+      <c r="L174" s="45">
         <f>(H174-I174)/I174</f>
         <v>0.349397590361446</v>
       </c>
-      <c r="M174" s="44">
+      <c r="M174" s="47">
         <v>1</v>
       </c>
-      <c r="N174" s="44" t="s">
+      <c r="N174" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="O174" s="41">
+      <c r="O174" s="42">
         <v>10.86</v>
       </c>
-      <c r="P174" s="45">
+      <c r="P174" s="48">
         <v>12.7</v>
       </c>
-      <c r="Q174" s="45">
+      <c r="Q174" s="48">
         <v>11.6</v>
       </c>
-      <c r="R174" s="45"/>
-      <c r="S174" s="45"/>
-      <c r="T174" s="45"/>
-      <c r="U174" s="45"/>
-      <c r="V174" s="45"/>
-      <c r="W174" s="45"/>
-      <c r="X174" s="45"/>
-      <c r="Y174" s="45"/>
-      <c r="Z174" s="46"/>
-      <c r="AA174" s="43">
+      <c r="R174" s="48"/>
+      <c r="S174" s="48"/>
+      <c r="T174" s="48"/>
+      <c r="U174" s="48"/>
+      <c r="V174" s="48"/>
+      <c r="W174" s="48"/>
+      <c r="X174" s="48"/>
+      <c r="Y174" s="48"/>
+      <c r="Z174" s="50"/>
+      <c r="AA174" s="45">
         <f>(H174-O174)/H174</f>
         <v>0.191964285714286</v>
       </c>
@@ -14738,17 +14707,17 @@
         <f>(P174-Q174)/P174</f>
         <v>0.0866141732283464</v>
       </c>
-      <c r="AC174" s="47"/>
-      <c r="AD174" s="47"/>
-      <c r="AE174" s="47"/>
-      <c r="AF174" s="47"/>
-      <c r="AG174" s="46"/>
-      <c r="AH174" s="46"/>
-      <c r="AI174" s="46"/>
-      <c r="AJ174" s="46"/>
-      <c r="AK174" s="46"/>
-      <c r="AL174" s="46"/>
-      <c r="AM174" s="46"/>
+      <c r="AC174" s="51"/>
+      <c r="AD174" s="51"/>
+      <c r="AE174" s="51"/>
+      <c r="AF174" s="51"/>
+      <c r="AG174" s="50"/>
+      <c r="AH174" s="50"/>
+      <c r="AI174" s="50"/>
+      <c r="AJ174" s="50"/>
+      <c r="AK174" s="50"/>
+      <c r="AL174" s="50"/>
+      <c r="AM174" s="50"/>
       <c r="AN174" s="36">
         <v>44656</v>
       </c>
@@ -16899,10 +16868,10 @@
         <f>(H214-I214)/I214</f>
         <v>0.373770491803279</v>
       </c>
-      <c r="M214" s="52">
+      <c r="M214" s="56">
         <v>1</v>
       </c>
-      <c r="N214" s="52"/>
+      <c r="N214" s="56"/>
       <c r="O214" s="17">
         <v>7.09</v>
       </c>
@@ -16916,7 +16885,7 @@
       <c r="W214" s="17"/>
       <c r="X214" s="17"/>
       <c r="Y214" s="17"/>
-      <c r="Z214" s="52"/>
+      <c r="Z214" s="56"/>
       <c r="AA214" s="22">
         <f>(H214-O214)/H214</f>
         <v>0.153937947494034</v>
@@ -16938,13 +16907,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AF214" s="22"/>
-      <c r="AG214" s="52"/>
-      <c r="AH214" s="52"/>
-      <c r="AI214" s="52"/>
-      <c r="AJ214" s="52"/>
-      <c r="AK214" s="52"/>
-      <c r="AL214" s="52"/>
-      <c r="AM214" s="52"/>
+      <c r="AG214" s="56"/>
+      <c r="AH214" s="56"/>
+      <c r="AI214" s="56"/>
+      <c r="AJ214" s="56"/>
+      <c r="AK214" s="56"/>
+      <c r="AL214" s="56"/>
+      <c r="AM214" s="56"/>
       <c r="AN214" s="36">
         <v>44656</v>
       </c>
@@ -17292,78 +17261,78 @@
       <c r="F221" s="3">
         <v>7.113</v>
       </c>
-      <c r="G221" s="48">
+      <c r="G221" s="53">
         <v>5.65</v>
       </c>
-      <c r="H221" s="48">
+      <c r="H221" s="53">
         <v>12.66</v>
       </c>
-      <c r="I221" s="48">
+      <c r="I221" s="53">
         <v>7.2</v>
       </c>
-      <c r="J221" s="50">
+      <c r="J221" s="43">
         <f>(C221-G221)/G221</f>
         <v>0.711504424778761</v>
       </c>
-      <c r="K221" s="50">
+      <c r="K221" s="43">
         <f>(H221-C221)/H221</f>
         <v>0.236176935229068</v>
       </c>
-      <c r="L221" s="50">
+      <c r="L221" s="43">
         <f>(H221-I221)/I221</f>
         <v>0.758333333333333</v>
       </c>
       <c r="M221" s="7">
         <v>3</v>
       </c>
-      <c r="N221" s="53"/>
-      <c r="O221" s="48">
+      <c r="N221" s="57"/>
+      <c r="O221" s="53">
         <v>8.46</v>
       </c>
-      <c r="P221" s="48">
+      <c r="P221" s="53">
         <v>10.1</v>
       </c>
-      <c r="Q221" s="48">
+      <c r="Q221" s="53">
         <v>8.66</v>
       </c>
-      <c r="R221" s="57"/>
-      <c r="S221" s="57"/>
-      <c r="T221" s="57"/>
-      <c r="U221" s="57"/>
-      <c r="V221" s="57"/>
-      <c r="W221" s="57"/>
-      <c r="X221" s="57"/>
-      <c r="Y221" s="57"/>
-      <c r="Z221" s="53"/>
-      <c r="AA221" s="50">
+      <c r="R221" s="61"/>
+      <c r="S221" s="61"/>
+      <c r="T221" s="61"/>
+      <c r="U221" s="61"/>
+      <c r="V221" s="61"/>
+      <c r="W221" s="61"/>
+      <c r="X221" s="61"/>
+      <c r="Y221" s="61"/>
+      <c r="Z221" s="57"/>
+      <c r="AA221" s="43">
         <f>(H221-O221)/H221</f>
         <v>0.33175355450237</v>
       </c>
-      <c r="AB221" s="50">
+      <c r="AB221" s="43">
         <f>(P221-Q221)/P221</f>
         <v>0.142574257425743</v>
       </c>
-      <c r="AC221" s="50" t="e">
+      <c r="AC221" s="43" t="e">
         <f>(R221-S221)/R221</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD221" s="50" t="e">
+      <c r="AD221" s="43" t="e">
         <f>(T221-U221)/T221</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE221" s="50" t="e">
+      <c r="AE221" s="43" t="e">
         <f>(V221-W221)/V221</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF221" s="61"/>
-      <c r="AG221" s="53"/>
-      <c r="AH221" s="53"/>
-      <c r="AI221" s="53"/>
-      <c r="AJ221" s="53"/>
-      <c r="AK221" s="53"/>
-      <c r="AL221" s="53"/>
-      <c r="AM221" s="53"/>
-      <c r="AN221" s="63"/>
+      <c r="AF221" s="65"/>
+      <c r="AG221" s="57"/>
+      <c r="AH221" s="57"/>
+      <c r="AI221" s="57"/>
+      <c r="AJ221" s="57"/>
+      <c r="AK221" s="57"/>
+      <c r="AL221" s="57"/>
+      <c r="AM221" s="57"/>
+      <c r="AN221" s="67"/>
     </row>
     <row r="222" spans="1:40">
       <c r="A222" s="2" t="s">
@@ -17675,10 +17644,10 @@
         <f>(H227-I227)/I227</f>
         <v>0.848818897637795</v>
       </c>
-      <c r="M227" s="52">
+      <c r="M227" s="56">
         <v>3</v>
       </c>
-      <c r="N227" s="54"/>
+      <c r="N227" s="58"/>
       <c r="O227" s="17">
         <v>7.83</v>
       </c>
@@ -17688,15 +17657,15 @@
       <c r="Q227" s="17">
         <v>9.26</v>
       </c>
-      <c r="R227" s="58"/>
-      <c r="S227" s="58"/>
-      <c r="T227" s="58"/>
-      <c r="U227" s="58"/>
-      <c r="V227" s="58"/>
-      <c r="W227" s="58"/>
-      <c r="X227" s="58"/>
-      <c r="Y227" s="58"/>
-      <c r="Z227" s="54"/>
+      <c r="R227" s="62"/>
+      <c r="S227" s="62"/>
+      <c r="T227" s="62"/>
+      <c r="U227" s="62"/>
+      <c r="V227" s="62"/>
+      <c r="W227" s="62"/>
+      <c r="X227" s="62"/>
+      <c r="Y227" s="62"/>
+      <c r="Z227" s="58"/>
       <c r="AA227" s="22">
         <f>(H227-O227)/H227</f>
         <v>0.333049403747871</v>
@@ -17717,15 +17686,15 @@
         <f>(V227-W227)/V227</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF227" s="62"/>
-      <c r="AG227" s="54"/>
-      <c r="AH227" s="54"/>
-      <c r="AI227" s="54"/>
-      <c r="AJ227" s="54"/>
-      <c r="AK227" s="54"/>
-      <c r="AL227" s="54"/>
-      <c r="AM227" s="54"/>
-      <c r="AN227" s="64">
+      <c r="AF227" s="66"/>
+      <c r="AG227" s="58"/>
+      <c r="AH227" s="58"/>
+      <c r="AI227" s="58"/>
+      <c r="AJ227" s="58"/>
+      <c r="AK227" s="58"/>
+      <c r="AL227" s="58"/>
+      <c r="AM227" s="58"/>
+      <c r="AN227" s="68">
         <v>44649</v>
       </c>
     </row>
@@ -18774,64 +18743,64 @@
       <c r="F247" s="3">
         <v>2.322</v>
       </c>
-      <c r="G247" s="49">
+      <c r="G247" s="54">
         <v>1.81</v>
       </c>
-      <c r="H247" s="49">
+      <c r="H247" s="54">
         <v>3.59</v>
       </c>
-      <c r="I247" s="49">
+      <c r="I247" s="54">
         <v>2.06</v>
       </c>
-      <c r="J247" s="51">
+      <c r="J247" s="55">
         <f>(C247-G247)/G247</f>
         <v>0.856353591160221</v>
       </c>
-      <c r="K247" s="51">
+      <c r="K247" s="55">
         <f>(H247-C247)/H247</f>
         <v>0.064066852367688</v>
       </c>
-      <c r="L247" s="51">
+      <c r="L247" s="55">
         <f>(H247-I247)/I247</f>
         <v>0.742718446601942</v>
       </c>
-      <c r="M247" s="55">
+      <c r="M247" s="59">
         <v>1</v>
       </c>
-      <c r="N247" s="55" t="s">
+      <c r="N247" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="O247" s="49">
+      <c r="O247" s="54">
         <v>2.49</v>
       </c>
-      <c r="P247" s="56"/>
-      <c r="Q247" s="56"/>
-      <c r="R247" s="56"/>
-      <c r="S247" s="56"/>
-      <c r="T247" s="56"/>
-      <c r="U247" s="56"/>
-      <c r="V247" s="56"/>
-      <c r="W247" s="56"/>
-      <c r="X247" s="56"/>
-      <c r="Y247" s="56"/>
-      <c r="Z247" s="59"/>
-      <c r="AA247" s="51">
+      <c r="P247" s="60"/>
+      <c r="Q247" s="60"/>
+      <c r="R247" s="60"/>
+      <c r="S247" s="60"/>
+      <c r="T247" s="60"/>
+      <c r="U247" s="60"/>
+      <c r="V247" s="60"/>
+      <c r="W247" s="60"/>
+      <c r="X247" s="60"/>
+      <c r="Y247" s="60"/>
+      <c r="Z247" s="63"/>
+      <c r="AA247" s="55">
         <f>(H247-O247)/H247</f>
         <v>0.306406685236769</v>
       </c>
-      <c r="AB247" s="60"/>
-      <c r="AC247" s="60"/>
-      <c r="AD247" s="60"/>
-      <c r="AE247" s="60"/>
-      <c r="AF247" s="60"/>
-      <c r="AG247" s="59"/>
-      <c r="AH247" s="59"/>
-      <c r="AI247" s="59"/>
-      <c r="AJ247" s="59"/>
-      <c r="AK247" s="59"/>
-      <c r="AL247" s="59"/>
-      <c r="AM247" s="59"/>
-      <c r="AN247" s="65">
+      <c r="AB247" s="64"/>
+      <c r="AC247" s="64"/>
+      <c r="AD247" s="64"/>
+      <c r="AE247" s="64"/>
+      <c r="AF247" s="64"/>
+      <c r="AG247" s="63"/>
+      <c r="AH247" s="63"/>
+      <c r="AI247" s="63"/>
+      <c r="AJ247" s="63"/>
+      <c r="AK247" s="63"/>
+      <c r="AL247" s="63"/>
+      <c r="AM247" s="63"/>
+      <c r="AN247" s="69">
         <v>44643</v>
       </c>
     </row>
@@ -18929,10 +18898,10 @@
         <f>(H249-I249)/I249</f>
         <v>0.360215053763441</v>
       </c>
-      <c r="M249" s="52">
+      <c r="M249" s="56">
         <v>4</v>
       </c>
-      <c r="N249" s="54"/>
+      <c r="N249" s="58"/>
       <c r="O249" s="17">
         <v>9.8</v>
       </c>
@@ -18942,15 +18911,15 @@
       <c r="Q249" s="17">
         <v>11.3</v>
       </c>
-      <c r="R249" s="58"/>
-      <c r="S249" s="58"/>
-      <c r="T249" s="58"/>
-      <c r="U249" s="58"/>
-      <c r="V249" s="58"/>
-      <c r="W249" s="58"/>
-      <c r="X249" s="58"/>
-      <c r="Y249" s="58"/>
-      <c r="Z249" s="54"/>
+      <c r="R249" s="62"/>
+      <c r="S249" s="62"/>
+      <c r="T249" s="62"/>
+      <c r="U249" s="62"/>
+      <c r="V249" s="62"/>
+      <c r="W249" s="62"/>
+      <c r="X249" s="62"/>
+      <c r="Y249" s="62"/>
+      <c r="Z249" s="58"/>
       <c r="AA249" s="22">
         <f>(H249-O249)/H249</f>
         <v>0.225296442687747</v>
@@ -18971,14 +18940,14 @@
         <f>(V249-W249)/V249</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF249" s="62"/>
-      <c r="AG249" s="54"/>
-      <c r="AH249" s="54"/>
-      <c r="AI249" s="54"/>
-      <c r="AJ249" s="54"/>
-      <c r="AK249" s="54"/>
-      <c r="AL249" s="54"/>
-      <c r="AM249" s="54"/>
+      <c r="AF249" s="66"/>
+      <c r="AG249" s="58"/>
+      <c r="AH249" s="58"/>
+      <c r="AI249" s="58"/>
+      <c r="AJ249" s="58"/>
+      <c r="AK249" s="58"/>
+      <c r="AL249" s="58"/>
+      <c r="AM249" s="58"/>
       <c r="AN249" s="36">
         <v>44650</v>
       </c>
@@ -21994,78 +21963,78 @@
       <c r="F305" s="14">
         <v>4.343</v>
       </c>
-      <c r="G305" s="48">
+      <c r="G305" s="53">
         <v>3.35</v>
       </c>
-      <c r="H305" s="48">
+      <c r="H305" s="53">
         <v>9.24</v>
       </c>
-      <c r="I305" s="48">
+      <c r="I305" s="53">
         <v>3.73</v>
       </c>
-      <c r="J305" s="50">
+      <c r="J305" s="43">
         <f>(C305-G305)/G305</f>
         <v>1.0089552238806</v>
       </c>
-      <c r="K305" s="50">
+      <c r="K305" s="43">
         <f>(H305-C305)/H305</f>
         <v>0.271645021645022</v>
       </c>
-      <c r="L305" s="66">
+      <c r="L305" s="70">
         <f>(H305-I305)/I305</f>
         <v>1.47721179624665</v>
       </c>
       <c r="M305" s="7">
         <v>2</v>
       </c>
-      <c r="N305" s="53"/>
-      <c r="O305" s="48">
+      <c r="N305" s="57"/>
+      <c r="O305" s="53">
         <v>6.13</v>
       </c>
-      <c r="P305" s="48">
+      <c r="P305" s="53">
         <v>9.23</v>
       </c>
-      <c r="Q305" s="48">
+      <c r="Q305" s="53">
         <v>6.69</v>
       </c>
-      <c r="R305" s="57"/>
-      <c r="S305" s="57"/>
-      <c r="T305" s="57"/>
-      <c r="U305" s="57"/>
-      <c r="V305" s="57"/>
-      <c r="W305" s="57"/>
-      <c r="X305" s="57"/>
-      <c r="Y305" s="57"/>
-      <c r="Z305" s="53"/>
-      <c r="AA305" s="50">
+      <c r="R305" s="61"/>
+      <c r="S305" s="61"/>
+      <c r="T305" s="61"/>
+      <c r="U305" s="61"/>
+      <c r="V305" s="61"/>
+      <c r="W305" s="61"/>
+      <c r="X305" s="61"/>
+      <c r="Y305" s="61"/>
+      <c r="Z305" s="57"/>
+      <c r="AA305" s="43">
         <f>(H305-O305)/H305</f>
         <v>0.336580086580087</v>
       </c>
-      <c r="AB305" s="50">
+      <c r="AB305" s="43">
         <f>(P305-Q305)/P305</f>
         <v>0.275189599133261</v>
       </c>
-      <c r="AC305" s="50" t="e">
+      <c r="AC305" s="43" t="e">
         <f>(R305-S305)/R305</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD305" s="50" t="e">
+      <c r="AD305" s="43" t="e">
         <f>(T305-U305)/T305</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE305" s="50" t="e">
+      <c r="AE305" s="43" t="e">
         <f>(V305-W305)/V305</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF305" s="61"/>
-      <c r="AG305" s="53"/>
-      <c r="AH305" s="53"/>
-      <c r="AI305" s="53"/>
-      <c r="AJ305" s="53"/>
-      <c r="AK305" s="53"/>
-      <c r="AL305" s="53"/>
-      <c r="AM305" s="53"/>
-      <c r="AN305" s="67">
+      <c r="AF305" s="65"/>
+      <c r="AG305" s="57"/>
+      <c r="AH305" s="57"/>
+      <c r="AI305" s="57"/>
+      <c r="AJ305" s="57"/>
+      <c r="AK305" s="57"/>
+      <c r="AL305" s="57"/>
+      <c r="AM305" s="57"/>
+      <c r="AN305" s="52">
         <v>44649</v>
       </c>
     </row>
@@ -23143,76 +23112,76 @@
       <c r="F325" s="3">
         <v>4.313</v>
       </c>
-      <c r="G325" s="68">
+      <c r="G325" s="47">
         <v>3.55</v>
       </c>
-      <c r="H325" s="68">
+      <c r="H325" s="47">
         <v>6.71</v>
       </c>
-      <c r="I325" s="68">
+      <c r="I325" s="47">
         <v>3.78</v>
       </c>
-      <c r="J325" s="72">
+      <c r="J325" s="22">
         <f>(C325-G325)/G325</f>
         <v>0.552112676056338</v>
       </c>
-      <c r="K325" s="72">
+      <c r="K325" s="22">
         <f>(H325-C325)/H325</f>
         <v>0.178837555886736</v>
       </c>
-      <c r="L325" s="72">
+      <c r="L325" s="22">
         <f>(H325-I325)/I325</f>
         <v>0.775132275132275</v>
       </c>
-      <c r="M325" s="68">
+      <c r="M325" s="47">
         <v>3</v>
       </c>
-      <c r="N325" s="75"/>
-      <c r="O325" s="76">
+      <c r="N325" s="50"/>
+      <c r="O325" s="75">
         <v>4.48</v>
       </c>
-      <c r="P325" s="76">
+      <c r="P325" s="75">
         <v>6</v>
       </c>
-      <c r="Q325" s="76">
+      <c r="Q325" s="75">
         <v>4.64</v>
       </c>
-      <c r="R325" s="76">
+      <c r="R325" s="75">
         <v>5.82</v>
       </c>
-      <c r="S325" s="76">
+      <c r="S325" s="75">
         <v>5.03</v>
       </c>
-      <c r="T325" s="83"/>
-      <c r="U325" s="83"/>
-      <c r="V325" s="75"/>
-      <c r="W325" s="75"/>
-      <c r="X325" s="75"/>
-      <c r="Y325" s="75"/>
-      <c r="Z325" s="75"/>
-      <c r="AA325" s="72">
+      <c r="T325" s="81"/>
+      <c r="U325" s="81"/>
+      <c r="V325" s="50"/>
+      <c r="W325" s="50"/>
+      <c r="X325" s="50"/>
+      <c r="Y325" s="50"/>
+      <c r="Z325" s="50"/>
+      <c r="AA325" s="22">
         <f>(H325-O325)/H325</f>
         <v>0.332339791356185</v>
       </c>
-      <c r="AB325" s="72">
+      <c r="AB325" s="22">
         <f>(P325-Q325)/P325</f>
         <v>0.226666666666667</v>
       </c>
-      <c r="AC325" s="72">
+      <c r="AC325" s="22">
         <f>(R325-S325)/R325</f>
         <v>0.13573883161512</v>
       </c>
-      <c r="AD325" s="75"/>
-      <c r="AE325" s="75"/>
-      <c r="AF325" s="75"/>
-      <c r="AG325" s="75"/>
-      <c r="AH325" s="75"/>
-      <c r="AI325" s="75"/>
-      <c r="AJ325" s="75"/>
-      <c r="AK325" s="75"/>
-      <c r="AL325" s="75"/>
-      <c r="AM325" s="75"/>
-      <c r="AN325" s="85">
+      <c r="AD325" s="50"/>
+      <c r="AE325" s="50"/>
+      <c r="AF325" s="50"/>
+      <c r="AG325" s="50"/>
+      <c r="AH325" s="50"/>
+      <c r="AI325" s="50"/>
+      <c r="AJ325" s="50"/>
+      <c r="AK325" s="50"/>
+      <c r="AL325" s="50"/>
+      <c r="AM325" s="50"/>
+      <c r="AN325" s="68">
         <v>44650</v>
       </c>
     </row>
@@ -23235,65 +23204,65 @@
       <c r="F326" s="3">
         <v>4.305</v>
       </c>
-      <c r="G326" s="69">
+      <c r="G326" s="71">
         <v>3.28</v>
       </c>
-      <c r="H326" s="69">
+      <c r="H326" s="71">
         <v>7.4</v>
       </c>
-      <c r="I326" s="69">
+      <c r="I326" s="71">
         <v>4.16</v>
       </c>
-      <c r="J326" s="73">
+      <c r="J326" s="24">
         <f>(C326-G326)/G326</f>
         <v>0.807926829268293</v>
       </c>
-      <c r="K326" s="73">
+      <c r="K326" s="24">
         <f>(H326-C326)/H326</f>
         <v>0.198648648648649</v>
       </c>
-      <c r="L326" s="73">
+      <c r="L326" s="24">
         <f>(H326-I326)/I326</f>
         <v>0.778846153846154</v>
       </c>
-      <c r="M326" s="69">
+      <c r="M326" s="71">
         <v>3</v>
       </c>
-      <c r="N326" s="77"/>
-      <c r="O326" s="78">
+      <c r="N326" s="76"/>
+      <c r="O326" s="77">
         <v>4.82</v>
       </c>
-      <c r="P326" s="79"/>
-      <c r="Q326" s="79"/>
-      <c r="R326" s="79"/>
-      <c r="S326" s="79"/>
-      <c r="T326" s="79"/>
-      <c r="U326" s="79"/>
-      <c r="V326" s="77"/>
-      <c r="W326" s="77"/>
-      <c r="X326" s="77"/>
-      <c r="Y326" s="77"/>
-      <c r="Z326" s="77"/>
-      <c r="AA326" s="73">
+      <c r="P326" s="78"/>
+      <c r="Q326" s="78"/>
+      <c r="R326" s="78"/>
+      <c r="S326" s="78"/>
+      <c r="T326" s="78"/>
+      <c r="U326" s="78"/>
+      <c r="V326" s="76"/>
+      <c r="W326" s="76"/>
+      <c r="X326" s="76"/>
+      <c r="Y326" s="76"/>
+      <c r="Z326" s="76"/>
+      <c r="AA326" s="24">
         <f>(H326-O326)/H326</f>
         <v>0.348648648648649</v>
       </c>
-      <c r="AB326" s="73" t="e">
+      <c r="AB326" s="24" t="e">
         <f>(P326-Q326)/P326</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC326" s="77"/>
-      <c r="AD326" s="77"/>
-      <c r="AE326" s="77"/>
-      <c r="AF326" s="77"/>
-      <c r="AG326" s="77"/>
-      <c r="AH326" s="77"/>
-      <c r="AI326" s="77"/>
-      <c r="AJ326" s="77"/>
-      <c r="AK326" s="77"/>
-      <c r="AL326" s="77"/>
-      <c r="AM326" s="77"/>
-      <c r="AN326" s="86">
+      <c r="AC326" s="76"/>
+      <c r="AD326" s="76"/>
+      <c r="AE326" s="76"/>
+      <c r="AF326" s="76"/>
+      <c r="AG326" s="76"/>
+      <c r="AH326" s="76"/>
+      <c r="AI326" s="76"/>
+      <c r="AJ326" s="76"/>
+      <c r="AK326" s="76"/>
+      <c r="AL326" s="76"/>
+      <c r="AM326" s="76"/>
+      <c r="AN326" s="83">
         <v>44645</v>
       </c>
     </row>
@@ -24666,74 +24635,74 @@
       <c r="F352" s="3">
         <v>10.325</v>
       </c>
-      <c r="G352" s="70">
+      <c r="G352" s="72">
         <v>7.81</v>
       </c>
-      <c r="H352" s="70">
+      <c r="H352" s="72">
         <v>12.44</v>
       </c>
-      <c r="I352" s="70">
+      <c r="I352" s="72">
         <v>11.06</v>
       </c>
-      <c r="J352" s="42">
+      <c r="J352" s="44">
         <f>(C352-G352)/G352</f>
         <v>0.47247119078105</v>
       </c>
-      <c r="K352" s="42">
+      <c r="K352" s="44">
         <f>(H352-C352)/H352</f>
         <v>0.0755627009646302</v>
       </c>
-      <c r="L352" s="42">
+      <c r="L352" s="44">
         <f>(H352-I352)/I352</f>
         <v>0.124773960216998</v>
       </c>
-      <c r="M352" s="80"/>
-      <c r="N352" s="80"/>
-      <c r="O352" s="70">
+      <c r="M352" s="79"/>
+      <c r="N352" s="79"/>
+      <c r="O352" s="72">
         <v>9.93</v>
       </c>
-      <c r="P352" s="70">
+      <c r="P352" s="72">
         <v>12.29</v>
       </c>
-      <c r="Q352" s="70">
+      <c r="Q352" s="72">
         <v>10.27</v>
       </c>
-      <c r="R352" s="70">
+      <c r="R352" s="72">
         <v>11.75</v>
       </c>
-      <c r="S352" s="70">
+      <c r="S352" s="72">
         <v>10.8</v>
       </c>
-      <c r="T352" s="70"/>
-      <c r="U352" s="70"/>
-      <c r="V352" s="70"/>
-      <c r="W352" s="70"/>
-      <c r="X352" s="70"/>
-      <c r="Y352" s="70"/>
-      <c r="Z352" s="80"/>
-      <c r="AA352" s="42">
+      <c r="T352" s="72"/>
+      <c r="U352" s="72"/>
+      <c r="V352" s="72"/>
+      <c r="W352" s="72"/>
+      <c r="X352" s="72"/>
+      <c r="Y352" s="72"/>
+      <c r="Z352" s="79"/>
+      <c r="AA352" s="44">
         <f>(H352-O352)/H352</f>
         <v>0.201768488745981</v>
       </c>
-      <c r="AB352" s="42">
+      <c r="AB352" s="44">
         <f>(P352-Q352)/P352</f>
         <v>0.164361269324654</v>
       </c>
-      <c r="AC352" s="42">
+      <c r="AC352" s="44">
         <f>(R352-S352)/R352</f>
         <v>0.0808510638297872</v>
       </c>
-      <c r="AD352" s="42"/>
-      <c r="AE352" s="42"/>
-      <c r="AF352" s="42"/>
-      <c r="AG352" s="80"/>
-      <c r="AH352" s="80"/>
-      <c r="AI352" s="80"/>
-      <c r="AJ352" s="80"/>
-      <c r="AK352" s="80"/>
-      <c r="AL352" s="80"/>
-      <c r="AM352" s="80"/>
-      <c r="AN352" s="87">
+      <c r="AD352" s="44"/>
+      <c r="AE352" s="44"/>
+      <c r="AF352" s="44"/>
+      <c r="AG352" s="79"/>
+      <c r="AH352" s="79"/>
+      <c r="AI352" s="79"/>
+      <c r="AJ352" s="79"/>
+      <c r="AK352" s="79"/>
+      <c r="AL352" s="79"/>
+      <c r="AM352" s="79"/>
+      <c r="AN352" s="84">
         <v>44656</v>
       </c>
     </row>
@@ -24864,69 +24833,69 @@
       <c r="F355" s="3">
         <v>4.228</v>
       </c>
-      <c r="G355" s="68">
+      <c r="G355" s="47">
         <v>3.47</v>
       </c>
-      <c r="H355" s="68">
+      <c r="H355" s="47">
         <v>4.89</v>
       </c>
-      <c r="I355" s="68">
+      <c r="I355" s="47">
         <v>4.37</v>
       </c>
-      <c r="J355" s="72">
+      <c r="J355" s="22">
         <f>(C355-G355)/G355</f>
         <v>0.39193083573487</v>
       </c>
-      <c r="K355" s="72">
+      <c r="K355" s="22">
         <f>(H355-C355)/H355</f>
         <v>0.0122699386503067</v>
       </c>
-      <c r="L355" s="72">
+      <c r="L355" s="22">
         <f>(H355-I355)/I355</f>
         <v>0.118993135011442</v>
       </c>
-      <c r="M355" s="68">
+      <c r="M355" s="47">
         <v>5</v>
       </c>
-      <c r="N355" s="75"/>
-      <c r="O355" s="76">
+      <c r="N355" s="50"/>
+      <c r="O355" s="75">
         <v>4.06</v>
       </c>
-      <c r="P355" s="76">
+      <c r="P355" s="75">
         <v>4.8</v>
       </c>
-      <c r="Q355" s="76">
+      <c r="Q355" s="75">
         <v>4.08</v>
       </c>
-      <c r="R355" s="83"/>
-      <c r="S355" s="83"/>
-      <c r="T355" s="83"/>
-      <c r="U355" s="83"/>
-      <c r="V355" s="75"/>
-      <c r="W355" s="75"/>
-      <c r="X355" s="75"/>
-      <c r="Y355" s="75"/>
-      <c r="Z355" s="75"/>
-      <c r="AA355" s="72">
+      <c r="R355" s="81"/>
+      <c r="S355" s="81"/>
+      <c r="T355" s="81"/>
+      <c r="U355" s="81"/>
+      <c r="V355" s="50"/>
+      <c r="W355" s="50"/>
+      <c r="X355" s="50"/>
+      <c r="Y355" s="50"/>
+      <c r="Z355" s="50"/>
+      <c r="AA355" s="22">
         <f>(H355-O355)/H355</f>
         <v>0.169734151329243</v>
       </c>
-      <c r="AB355" s="72">
+      <c r="AB355" s="22">
         <f>(P355-Q355)/P355</f>
         <v>0.15</v>
       </c>
-      <c r="AC355" s="75"/>
-      <c r="AD355" s="75"/>
-      <c r="AE355" s="75"/>
-      <c r="AF355" s="75"/>
-      <c r="AG355" s="75"/>
-      <c r="AH355" s="75"/>
-      <c r="AI355" s="75"/>
-      <c r="AJ355" s="75"/>
-      <c r="AK355" s="75"/>
-      <c r="AL355" s="75"/>
-      <c r="AM355" s="75"/>
-      <c r="AN355" s="85">
+      <c r="AC355" s="50"/>
+      <c r="AD355" s="50"/>
+      <c r="AE355" s="50"/>
+      <c r="AF355" s="50"/>
+      <c r="AG355" s="50"/>
+      <c r="AH355" s="50"/>
+      <c r="AI355" s="50"/>
+      <c r="AJ355" s="50"/>
+      <c r="AK355" s="50"/>
+      <c r="AL355" s="50"/>
+      <c r="AM355" s="50"/>
+      <c r="AN355" s="68">
         <v>44649</v>
       </c>
     </row>
@@ -26137,13 +26106,13 @@
       <c r="F378" s="3">
         <v>3.893</v>
       </c>
-      <c r="G378" s="71">
+      <c r="G378" s="73">
         <v>3.59</v>
       </c>
-      <c r="H378" s="71">
+      <c r="H378" s="73">
         <v>4.24</v>
       </c>
-      <c r="I378" s="71">
+      <c r="I378" s="73">
         <v>3.73</v>
       </c>
       <c r="J378" s="74">
@@ -26158,34 +26127,34 @@
         <f>(H378-I378)/I378</f>
         <v>0.136729222520107</v>
       </c>
-      <c r="M378" s="81"/>
-      <c r="N378" s="81"/>
-      <c r="O378" s="82"/>
-      <c r="P378" s="82"/>
-      <c r="Q378" s="82"/>
-      <c r="R378" s="82"/>
-      <c r="S378" s="82"/>
-      <c r="T378" s="82"/>
-      <c r="U378" s="82"/>
-      <c r="V378" s="82"/>
-      <c r="W378" s="82"/>
-      <c r="X378" s="82"/>
-      <c r="Y378" s="82"/>
-      <c r="Z378" s="81"/>
-      <c r="AA378" s="84"/>
-      <c r="AB378" s="84"/>
-      <c r="AC378" s="84"/>
-      <c r="AD378" s="84"/>
-      <c r="AE378" s="84"/>
-      <c r="AF378" s="84"/>
-      <c r="AG378" s="81"/>
-      <c r="AH378" s="81"/>
-      <c r="AI378" s="81"/>
-      <c r="AJ378" s="81"/>
-      <c r="AK378" s="81"/>
-      <c r="AL378" s="81"/>
-      <c r="AM378" s="81"/>
-      <c r="AN378" s="88">
+      <c r="M378" s="76"/>
+      <c r="N378" s="76"/>
+      <c r="O378" s="80"/>
+      <c r="P378" s="80"/>
+      <c r="Q378" s="80"/>
+      <c r="R378" s="80"/>
+      <c r="S378" s="80"/>
+      <c r="T378" s="80"/>
+      <c r="U378" s="80"/>
+      <c r="V378" s="80"/>
+      <c r="W378" s="80"/>
+      <c r="X378" s="80"/>
+      <c r="Y378" s="80"/>
+      <c r="Z378" s="76"/>
+      <c r="AA378" s="82"/>
+      <c r="AB378" s="82"/>
+      <c r="AC378" s="82"/>
+      <c r="AD378" s="82"/>
+      <c r="AE378" s="82"/>
+      <c r="AF378" s="82"/>
+      <c r="AG378" s="76"/>
+      <c r="AH378" s="76"/>
+      <c r="AI378" s="76"/>
+      <c r="AJ378" s="76"/>
+      <c r="AK378" s="76"/>
+      <c r="AL378" s="76"/>
+      <c r="AM378" s="76"/>
+      <c r="AN378" s="83">
         <v>44643</v>
       </c>
     </row>
@@ -26694,78 +26663,78 @@
       <c r="F388" s="3">
         <v>8.189</v>
       </c>
-      <c r="G388" s="89">
+      <c r="G388" s="85">
         <v>2.01</v>
       </c>
-      <c r="H388" s="89">
+      <c r="H388" s="85">
         <v>13.54</v>
       </c>
-      <c r="I388" s="89">
+      <c r="I388" s="85">
         <v>6.9</v>
       </c>
-      <c r="J388" s="73">
+      <c r="J388" s="24">
         <f>(C388-G388)/G388</f>
         <v>3.69651741293532</v>
       </c>
-      <c r="K388" s="91">
+      <c r="K388" s="44">
         <f>(H388-C388)/H388</f>
         <v>0.302806499261448</v>
       </c>
-      <c r="L388" s="73">
+      <c r="L388" s="24">
         <f>(H388-I388)/I388</f>
         <v>0.96231884057971</v>
       </c>
-      <c r="M388" s="93">
+      <c r="M388" s="87">
         <v>2</v>
       </c>
-      <c r="N388" s="94"/>
-      <c r="O388" s="78">
+      <c r="N388" s="88"/>
+      <c r="O388" s="77">
         <v>6.41</v>
       </c>
-      <c r="P388" s="95">
+      <c r="P388" s="19">
         <v>10.39</v>
       </c>
-      <c r="Q388" s="95">
+      <c r="Q388" s="19">
         <v>8</v>
       </c>
-      <c r="R388" s="99"/>
-      <c r="S388" s="99"/>
-      <c r="T388" s="100"/>
-      <c r="U388" s="100"/>
-      <c r="V388" s="99"/>
-      <c r="W388" s="99"/>
-      <c r="X388" s="99"/>
-      <c r="Y388" s="99"/>
-      <c r="Z388" s="94"/>
-      <c r="AA388" s="73">
+      <c r="R388" s="90"/>
+      <c r="S388" s="90"/>
+      <c r="T388" s="91"/>
+      <c r="U388" s="91"/>
+      <c r="V388" s="90"/>
+      <c r="W388" s="90"/>
+      <c r="X388" s="90"/>
+      <c r="Y388" s="90"/>
+      <c r="Z388" s="88"/>
+      <c r="AA388" s="24">
         <f>(H388-O388)/H388</f>
         <v>0.52658788774003</v>
       </c>
-      <c r="AB388" s="73">
+      <c r="AB388" s="24">
         <f>(P388-Q388)/P388</f>
         <v>0.230028873917228</v>
       </c>
-      <c r="AC388" s="73" t="e">
+      <c r="AC388" s="24" t="e">
         <f>(R388-S388)/R388</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD388" s="73" t="e">
+      <c r="AD388" s="24" t="e">
         <f>(T388-U388)/T388</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE388" s="73" t="e">
+      <c r="AE388" s="24" t="e">
         <f>(V388-W388)/V388</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF388" s="103"/>
-      <c r="AG388" s="94"/>
-      <c r="AH388" s="94"/>
-      <c r="AI388" s="94"/>
-      <c r="AJ388" s="94"/>
-      <c r="AK388" s="94"/>
-      <c r="AL388" s="94"/>
-      <c r="AM388" s="94"/>
-      <c r="AN388" s="105"/>
+      <c r="AF388" s="92"/>
+      <c r="AG388" s="88"/>
+      <c r="AH388" s="88"/>
+      <c r="AI388" s="88"/>
+      <c r="AJ388" s="88"/>
+      <c r="AK388" s="88"/>
+      <c r="AL388" s="88"/>
+      <c r="AM388" s="88"/>
+      <c r="AN388" s="93"/>
     </row>
     <row r="389" spans="1:40">
       <c r="A389" s="2" t="s">
@@ -29250,82 +29219,82 @@
       <c r="F434" s="3">
         <v>38.067</v>
       </c>
-      <c r="G434" s="90">
+      <c r="G434" s="86">
         <v>14.74</v>
       </c>
-      <c r="H434" s="90">
+      <c r="H434" s="86">
         <v>55.9</v>
       </c>
-      <c r="I434" s="90">
+      <c r="I434" s="86">
         <v>36.4</v>
       </c>
-      <c r="J434" s="92">
+      <c r="J434" s="43">
         <f>(C434-G434)/G434</f>
         <v>2.1146540027137</v>
       </c>
-      <c r="K434" s="92">
+      <c r="K434" s="43">
         <f>(H434-C434)/H434</f>
         <v>0.17871198568873</v>
       </c>
-      <c r="L434" s="92">
+      <c r="L434" s="43">
         <f>(H434-I434)/I434</f>
         <v>0.535714285714286</v>
       </c>
-      <c r="M434" s="96">
+      <c r="M434" s="7">
         <v>4</v>
       </c>
-      <c r="N434" s="97"/>
-      <c r="O434" s="98">
+      <c r="N434" s="57"/>
+      <c r="O434" s="89">
         <v>38.25</v>
       </c>
-      <c r="P434" s="98">
+      <c r="P434" s="89">
         <v>51.51</v>
       </c>
-      <c r="Q434" s="98">
+      <c r="Q434" s="89">
         <v>40.5</v>
       </c>
-      <c r="R434" s="101">
+      <c r="R434" s="53">
         <v>52.02</v>
       </c>
-      <c r="S434" s="101">
+      <c r="S434" s="53">
         <v>41</v>
       </c>
-      <c r="T434" s="102"/>
-      <c r="U434" s="102"/>
-      <c r="V434" s="102"/>
-      <c r="W434" s="102"/>
-      <c r="X434" s="102"/>
-      <c r="Y434" s="102"/>
-      <c r="Z434" s="97"/>
-      <c r="AA434" s="92">
+      <c r="T434" s="61"/>
+      <c r="U434" s="61"/>
+      <c r="V434" s="61"/>
+      <c r="W434" s="61"/>
+      <c r="X434" s="61"/>
+      <c r="Y434" s="61"/>
+      <c r="Z434" s="57"/>
+      <c r="AA434" s="43">
         <f>(H434-O434)/H434</f>
         <v>0.315742397137746</v>
       </c>
-      <c r="AB434" s="92">
+      <c r="AB434" s="43">
         <f>(P434-Q434)/P434</f>
         <v>0.213744903902155</v>
       </c>
-      <c r="AC434" s="92">
+      <c r="AC434" s="43">
         <f>(R434-S434)/R434</f>
         <v>0.211841599384852</v>
       </c>
-      <c r="AD434" s="92" t="e">
+      <c r="AD434" s="43" t="e">
         <f>(T434-U434)/T434</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE434" s="92" t="e">
+      <c r="AE434" s="43" t="e">
         <f>(V434-W434)/V434</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF434" s="104"/>
-      <c r="AG434" s="97"/>
-      <c r="AH434" s="97"/>
-      <c r="AI434" s="97"/>
-      <c r="AJ434" s="97"/>
-      <c r="AK434" s="97"/>
-      <c r="AL434" s="97"/>
-      <c r="AM434" s="97"/>
-      <c r="AN434" s="106">
+      <c r="AF434" s="65"/>
+      <c r="AG434" s="57"/>
+      <c r="AH434" s="57"/>
+      <c r="AI434" s="57"/>
+      <c r="AJ434" s="57"/>
+      <c r="AK434" s="57"/>
+      <c r="AL434" s="57"/>
+      <c r="AM434" s="57"/>
+      <c r="AN434" s="52">
         <v>44636</v>
       </c>
     </row>
@@ -32048,72 +32017,72 @@
       <c r="F485" s="3">
         <v>5.085</v>
       </c>
-      <c r="G485" s="95">
+      <c r="G485" s="19">
         <v>3.92</v>
       </c>
-      <c r="H485" s="95">
+      <c r="H485" s="19">
         <v>6.29</v>
       </c>
-      <c r="I485" s="95">
+      <c r="I485" s="19">
         <v>5.34</v>
       </c>
-      <c r="J485" s="73">
+      <c r="J485" s="24">
         <f>(C485-G485)/G485</f>
         <v>0.510204081632653</v>
       </c>
-      <c r="K485" s="73">
+      <c r="K485" s="24">
         <f>(H485-C485)/H485</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="L485" s="73">
+      <c r="L485" s="24">
         <f>(H485-I485)/I485</f>
         <v>0.177902621722846</v>
       </c>
-      <c r="M485" s="93">
+      <c r="M485" s="87">
         <v>3</v>
       </c>
-      <c r="N485" s="94"/>
-      <c r="O485" s="99"/>
-      <c r="P485" s="99"/>
-      <c r="Q485" s="99"/>
-      <c r="R485" s="99"/>
-      <c r="S485" s="99"/>
-      <c r="T485" s="99"/>
-      <c r="U485" s="99"/>
-      <c r="V485" s="99"/>
-      <c r="W485" s="99"/>
-      <c r="X485" s="99"/>
-      <c r="Y485" s="99"/>
-      <c r="Z485" s="94"/>
-      <c r="AA485" s="73">
+      <c r="N485" s="88"/>
+      <c r="O485" s="90"/>
+      <c r="P485" s="90"/>
+      <c r="Q485" s="90"/>
+      <c r="R485" s="90"/>
+      <c r="S485" s="90"/>
+      <c r="T485" s="90"/>
+      <c r="U485" s="90"/>
+      <c r="V485" s="90"/>
+      <c r="W485" s="90"/>
+      <c r="X485" s="90"/>
+      <c r="Y485" s="90"/>
+      <c r="Z485" s="88"/>
+      <c r="AA485" s="24">
         <f>(H485-O485)/H485</f>
         <v>1</v>
       </c>
-      <c r="AB485" s="73" t="e">
+      <c r="AB485" s="24" t="e">
         <f>(P485-Q485)/P485</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC485" s="73" t="e">
+      <c r="AC485" s="24" t="e">
         <f>(R485-S485)/R485</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD485" s="73" t="e">
+      <c r="AD485" s="24" t="e">
         <f>(T485-U485)/T485</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE485" s="73" t="e">
+      <c r="AE485" s="24" t="e">
         <f>(V485-W485)/V485</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF485" s="103"/>
-      <c r="AG485" s="94"/>
-      <c r="AH485" s="94"/>
-      <c r="AI485" s="94"/>
-      <c r="AJ485" s="94"/>
-      <c r="AK485" s="94"/>
-      <c r="AL485" s="94"/>
-      <c r="AM485" s="94"/>
-      <c r="AN485" s="105"/>
+      <c r="AF485" s="92"/>
+      <c r="AG485" s="88"/>
+      <c r="AH485" s="88"/>
+      <c r="AI485" s="88"/>
+      <c r="AJ485" s="88"/>
+      <c r="AK485" s="88"/>
+      <c r="AL485" s="88"/>
+      <c r="AM485" s="88"/>
+      <c r="AN485" s="93"/>
     </row>
     <row r="486" spans="1:40">
       <c r="A486" s="2" t="s">
@@ -33862,67 +33831,67 @@
       <c r="F518" s="3">
         <v>8.409</v>
       </c>
-      <c r="G518" s="48">
+      <c r="G518" s="53">
         <v>6.23</v>
       </c>
-      <c r="H518" s="48">
+      <c r="H518" s="53">
         <v>11.38</v>
       </c>
-      <c r="I518" s="48">
+      <c r="I518" s="53">
         <v>8.36</v>
       </c>
-      <c r="J518" s="50">
+      <c r="J518" s="43">
         <f>(C518-G518)/G518</f>
         <v>0.57784911717496</v>
       </c>
-      <c r="K518" s="50">
+      <c r="K518" s="43">
         <f>(H518-C518)/H518</f>
         <v>0.136203866432337</v>
       </c>
-      <c r="L518" s="50">
+      <c r="L518" s="43">
         <f>(H518-I518)/I518</f>
         <v>0.361244019138756</v>
       </c>
-      <c r="M518" s="109"/>
-      <c r="N518" s="109"/>
-      <c r="O518" s="48">
+      <c r="M518" s="94"/>
+      <c r="N518" s="94"/>
+      <c r="O518" s="53">
         <v>8.33</v>
       </c>
-      <c r="P518" s="48">
+      <c r="P518" s="53">
         <v>10.05</v>
       </c>
-      <c r="Q518" s="48">
+      <c r="Q518" s="53">
         <v>8.9</v>
       </c>
-      <c r="R518" s="48"/>
-      <c r="S518" s="48"/>
-      <c r="T518" s="48"/>
-      <c r="U518" s="48"/>
-      <c r="V518" s="48"/>
-      <c r="W518" s="48"/>
-      <c r="X518" s="48"/>
-      <c r="Y518" s="48"/>
-      <c r="Z518" s="109"/>
-      <c r="AA518" s="50">
+      <c r="R518" s="53"/>
+      <c r="S518" s="53"/>
+      <c r="T518" s="53"/>
+      <c r="U518" s="53"/>
+      <c r="V518" s="53"/>
+      <c r="W518" s="53"/>
+      <c r="X518" s="53"/>
+      <c r="Y518" s="53"/>
+      <c r="Z518" s="94"/>
+      <c r="AA518" s="43">
         <f>(H518-O518)/H518</f>
         <v>0.268014059753954</v>
       </c>
-      <c r="AB518" s="50">
+      <c r="AB518" s="43">
         <f>(P518-Q518)/P518</f>
         <v>0.114427860696517</v>
       </c>
-      <c r="AC518" s="50"/>
-      <c r="AD518" s="50"/>
-      <c r="AE518" s="50"/>
-      <c r="AF518" s="50"/>
-      <c r="AG518" s="109"/>
-      <c r="AH518" s="109"/>
-      <c r="AI518" s="109"/>
-      <c r="AJ518" s="109"/>
-      <c r="AK518" s="109"/>
-      <c r="AL518" s="109"/>
-      <c r="AM518" s="109"/>
-      <c r="AN518" s="67">
+      <c r="AC518" s="43"/>
+      <c r="AD518" s="43"/>
+      <c r="AE518" s="43"/>
+      <c r="AF518" s="43"/>
+      <c r="AG518" s="94"/>
+      <c r="AH518" s="94"/>
+      <c r="AI518" s="94"/>
+      <c r="AJ518" s="94"/>
+      <c r="AK518" s="94"/>
+      <c r="AL518" s="94"/>
+      <c r="AM518" s="94"/>
+      <c r="AN518" s="52">
         <v>44656</v>
       </c>
     </row>
@@ -34161,59 +34130,59 @@
       <c r="F523" s="3">
         <v>3.13</v>
       </c>
-      <c r="G523" s="107">
+      <c r="G523" s="73">
         <v>2.14</v>
       </c>
-      <c r="H523" s="107">
+      <c r="H523" s="73">
         <v>4.82</v>
       </c>
-      <c r="I523" s="107">
+      <c r="I523" s="73">
         <v>3.4</v>
       </c>
-      <c r="J523" s="108">
+      <c r="J523" s="74">
         <f>(C523-G523)/G523</f>
         <v>0.635514018691589</v>
       </c>
-      <c r="K523" s="108">
+      <c r="K523" s="74">
         <f>(H523-C523)/H523</f>
         <v>0.273858921161826</v>
       </c>
-      <c r="L523" s="108">
+      <c r="L523" s="74">
         <f>(H523-I523)/I523</f>
         <v>0.41764705882353</v>
       </c>
-      <c r="M523" s="69">
+      <c r="M523" s="71">
         <v>1</v>
       </c>
-      <c r="N523" s="69" t="s">
+      <c r="N523" s="71" t="s">
         <v>387</v>
       </c>
-      <c r="O523" s="110"/>
-      <c r="P523" s="110"/>
-      <c r="Q523" s="110"/>
-      <c r="R523" s="110"/>
-      <c r="S523" s="110"/>
-      <c r="T523" s="110"/>
-      <c r="U523" s="110"/>
-      <c r="V523" s="110"/>
-      <c r="W523" s="110"/>
-      <c r="X523" s="110"/>
-      <c r="Y523" s="110"/>
-      <c r="Z523" s="77"/>
-      <c r="AA523" s="111"/>
-      <c r="AB523" s="111"/>
-      <c r="AC523" s="111"/>
-      <c r="AD523" s="111"/>
-      <c r="AE523" s="111"/>
-      <c r="AF523" s="111"/>
-      <c r="AG523" s="77"/>
-      <c r="AH523" s="77"/>
-      <c r="AI523" s="77"/>
-      <c r="AJ523" s="77"/>
-      <c r="AK523" s="77"/>
-      <c r="AL523" s="77"/>
-      <c r="AM523" s="77"/>
-      <c r="AN523" s="86">
+      <c r="O523" s="80"/>
+      <c r="P523" s="80"/>
+      <c r="Q523" s="80"/>
+      <c r="R523" s="80"/>
+      <c r="S523" s="80"/>
+      <c r="T523" s="80"/>
+      <c r="U523" s="80"/>
+      <c r="V523" s="80"/>
+      <c r="W523" s="80"/>
+      <c r="X523" s="80"/>
+      <c r="Y523" s="80"/>
+      <c r="Z523" s="76"/>
+      <c r="AA523" s="82"/>
+      <c r="AB523" s="82"/>
+      <c r="AC523" s="82"/>
+      <c r="AD523" s="82"/>
+      <c r="AE523" s="82"/>
+      <c r="AF523" s="82"/>
+      <c r="AG523" s="76"/>
+      <c r="AH523" s="76"/>
+      <c r="AI523" s="76"/>
+      <c r="AJ523" s="76"/>
+      <c r="AK523" s="76"/>
+      <c r="AL523" s="76"/>
+      <c r="AM523" s="76"/>
+      <c r="AN523" s="83">
         <v>44643</v>
       </c>
     </row>
@@ -34560,60 +34529,60 @@
       <c r="F530" s="3">
         <v>4.733</v>
       </c>
-      <c r="G530" s="48">
+      <c r="G530" s="53">
         <v>4</v>
       </c>
-      <c r="H530" s="48">
+      <c r="H530" s="53">
         <v>6.19</v>
       </c>
-      <c r="I530" s="48">
+      <c r="I530" s="53">
         <v>4.87</v>
       </c>
-      <c r="J530" s="50">
+      <c r="J530" s="43">
         <f>(C530-G530)/G530</f>
         <v>0.2775</v>
       </c>
-      <c r="K530" s="50">
+      <c r="K530" s="43">
         <f>(H530-C530)/H530</f>
         <v>0.174474959612278</v>
       </c>
-      <c r="L530" s="50">
+      <c r="L530" s="43">
         <f>(H530-I530)/I530</f>
         <v>0.271047227926078</v>
       </c>
-      <c r="M530" s="109"/>
-      <c r="N530" s="109"/>
-      <c r="O530" s="48">
+      <c r="M530" s="94"/>
+      <c r="N530" s="94"/>
+      <c r="O530" s="53">
         <v>4.66</v>
       </c>
-      <c r="P530" s="48"/>
-      <c r="Q530" s="48"/>
-      <c r="R530" s="48"/>
-      <c r="S530" s="48"/>
-      <c r="T530" s="48"/>
-      <c r="U530" s="48"/>
-      <c r="V530" s="48"/>
-      <c r="W530" s="48"/>
-      <c r="X530" s="48"/>
-      <c r="Y530" s="48"/>
-      <c r="Z530" s="109"/>
-      <c r="AA530" s="50">
+      <c r="P530" s="53"/>
+      <c r="Q530" s="53"/>
+      <c r="R530" s="53"/>
+      <c r="S530" s="53"/>
+      <c r="T530" s="53"/>
+      <c r="U530" s="53"/>
+      <c r="V530" s="53"/>
+      <c r="W530" s="53"/>
+      <c r="X530" s="53"/>
+      <c r="Y530" s="53"/>
+      <c r="Z530" s="94"/>
+      <c r="AA530" s="43">
         <f>(H530-O530)/H530</f>
         <v>0.247172859450727</v>
       </c>
-      <c r="AB530" s="50"/>
-      <c r="AC530" s="50"/>
-      <c r="AD530" s="50"/>
-      <c r="AE530" s="50"/>
-      <c r="AF530" s="50"/>
-      <c r="AG530" s="109"/>
-      <c r="AH530" s="109"/>
-      <c r="AI530" s="109"/>
-      <c r="AJ530" s="109"/>
-      <c r="AK530" s="109"/>
-      <c r="AL530" s="109"/>
-      <c r="AM530" s="109"/>
-      <c r="AN530" s="67">
+      <c r="AB530" s="43"/>
+      <c r="AC530" s="43"/>
+      <c r="AD530" s="43"/>
+      <c r="AE530" s="43"/>
+      <c r="AF530" s="43"/>
+      <c r="AG530" s="94"/>
+      <c r="AH530" s="94"/>
+      <c r="AI530" s="94"/>
+      <c r="AJ530" s="94"/>
+      <c r="AK530" s="94"/>
+      <c r="AL530" s="94"/>
+      <c r="AM530" s="94"/>
+      <c r="AN530" s="52">
         <v>44656</v>
       </c>
     </row>

--- a/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
@@ -5101,11 +5101,11 @@
   <dimension ref="A1:AN531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AA129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C366" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN147" sqref="AN147"/>
+      <selection pane="bottomRight" activeCell="K388" sqref="K388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -26652,7 +26652,7 @@
         <v>815</v>
       </c>
       <c r="C388" s="3">
-        <v>9.44</v>
+        <v>9.95</v>
       </c>
       <c r="D388" s="3">
         <v>9.185</v>
@@ -26674,11 +26674,11 @@
       </c>
       <c r="J388" s="24">
         <f>(C388-G388)/G388</f>
-        <v>3.69651741293532</v>
+        <v>3.95024875621891</v>
       </c>
       <c r="K388" s="44">
         <f>(H388-C388)/H388</f>
-        <v>0.302806499261448</v>
+        <v>0.265140324963072</v>
       </c>
       <c r="L388" s="24">
         <f>(H388-I388)/I388</f>
@@ -26697,8 +26697,12 @@
       <c r="Q388" s="19">
         <v>8</v>
       </c>
-      <c r="R388" s="90"/>
-      <c r="S388" s="90"/>
+      <c r="R388" s="90">
+        <v>10.36</v>
+      </c>
+      <c r="S388" s="90">
+        <v>9.19</v>
+      </c>
       <c r="T388" s="91"/>
       <c r="U388" s="91"/>
       <c r="V388" s="90"/>
@@ -26714,9 +26718,9 @@
         <f>(P388-Q388)/P388</f>
         <v>0.230028873917228</v>
       </c>
-      <c r="AC388" s="24" t="e">
+      <c r="AC388" s="24">
         <f>(R388-S388)/R388</f>
-        <v>#DIV/0!</v>
+        <v>0.112934362934363</v>
       </c>
       <c r="AD388" s="24" t="e">
         <f>(T388-U388)/T388</f>

--- a/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
@@ -5105,7 +5105,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K388" sqref="K388"/>
+      <selection pane="bottomRight" activeCell="J388" sqref="J388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
@@ -5105,7 +5105,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J388" sqref="J388"/>
+      <selection pane="bottomRight" activeCell="D371" sqref="D371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$571</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$A$1:$A$531</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$C$1:$L$531</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3693,13 +3693,13 @@
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3753,23 +3753,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3783,10 +3768,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3797,9 +3789,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3814,39 +3852,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3868,25 +3875,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3966,18 +3966,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3990,7 +3978,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4002,7 +4014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4014,61 +4044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4092,13 +4068,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4116,19 +4128,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4140,13 +4146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4193,17 +4193,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4217,17 +4217,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4257,163 +4272,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4447,7 +4447,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4492,7 +4492,7 @@
     <xf numFmtId="10" fontId="2" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4516,16 +4516,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4565,7 +4565,7 @@
     <xf numFmtId="10" fontId="4" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4610,13 +4610,13 @@
     <xf numFmtId="10" fontId="5" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4656,10 +4656,10 @@
     <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4686,7 +4686,7 @@
     <xf numFmtId="10" fontId="5" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4742,18 +4742,10 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
@@ -5101,11 +5093,11 @@
   <dimension ref="A1:AN531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C366" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D371" sqref="D371"/>
+      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -22843,7 +22835,7 @@
         <v>7.03</v>
       </c>
       <c r="Q320" s="17">
-        <v>6.21</v>
+        <v>6.19</v>
       </c>
       <c r="R320" s="17"/>
       <c r="S320" s="17"/>
@@ -22860,7 +22852,7 @@
       </c>
       <c r="AB320" s="22">
         <f>(P320-Q320)/P320</f>
-        <v>0.116642958748222</v>
+        <v>0.119487908961593</v>
       </c>
       <c r="AC320" s="22"/>
       <c r="AD320" s="22"/>
@@ -34686,7 +34678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:B571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34706,7 +34698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -34714,7 +34706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -34722,7 +34714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -34730,7 +34722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -34738,7 +34730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -34746,7 +34738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
@@ -34754,7 +34746,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
@@ -34762,7 +34754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -34770,7 +34762,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>63</v>
       </c>
@@ -34778,7 +34770,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -34786,7 +34778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
@@ -34794,7 +34786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -34802,7 +34794,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
@@ -34810,7 +34802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:2">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -34818,7 +34810,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:2">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
@@ -34826,7 +34818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
@@ -34834,7 +34826,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
@@ -34842,7 +34834,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:2">
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
@@ -34850,7 +34842,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
@@ -34858,7 +34850,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
@@ -34866,7 +34858,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
@@ -34874,7 +34866,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
@@ -34882,7 +34874,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:2">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -34890,7 +34882,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:2">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -34898,7 +34890,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:2">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
@@ -34906,7 +34898,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
@@ -34914,7 +34906,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:2">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
@@ -34922,7 +34914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:2">
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>101</v>
       </c>
@@ -34930,7 +34922,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:2">
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>103</v>
       </c>
@@ -34938,7 +34930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>105</v>
       </c>
@@ -34946,7 +34938,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:2">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -34954,7 +34946,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:2">
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>109</v>
       </c>
@@ -34962,7 +34954,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:2">
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -34970,7 +34962,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:2">
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
@@ -34978,7 +34970,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:2">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
@@ -34986,7 +34978,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:2">
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -34994,7 +34986,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:2">
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
@@ -35002,7 +34994,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:2">
+    <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
         <v>121</v>
       </c>
@@ -35010,7 +35002,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:2">
+    <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
         <v>123</v>
       </c>
@@ -35018,7 +35010,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:2">
+    <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
         <v>125</v>
       </c>
@@ -35026,7 +35018,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:2">
+    <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -35034,7 +35026,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:2">
+    <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
         <v>129</v>
       </c>
@@ -35042,7 +35034,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:2">
+    <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
         <v>131</v>
       </c>
@@ -35050,7 +35042,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:2">
+    <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -35058,7 +35050,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:2">
+    <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -35066,7 +35058,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:2">
+    <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
         <v>137</v>
       </c>
@@ -35074,7 +35066,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:2">
+    <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
         <v>139</v>
       </c>
@@ -35082,7 +35074,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:2">
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
         <v>141</v>
       </c>
@@ -35090,7 +35082,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:2">
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -35098,7 +35090,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:2">
+    <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
         <v>145</v>
       </c>
@@ -35106,7 +35098,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:2">
+    <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
         <v>147</v>
       </c>
@@ -35114,7 +35106,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:2">
+    <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
         <v>149</v>
       </c>
@@ -35122,7 +35114,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:2">
+    <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
         <v>151</v>
       </c>
@@ -35130,7 +35122,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:2">
+    <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
         <v>153</v>
       </c>
@@ -35146,7 +35138,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:2">
+    <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
         <v>157</v>
       </c>
@@ -35154,7 +35146,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:2">
+    <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
         <v>159</v>
       </c>
@@ -35162,7 +35154,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:2">
+    <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
         <v>161</v>
       </c>
@@ -35170,7 +35162,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:2">
+    <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
         <v>163</v>
       </c>
@@ -35178,7 +35170,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:2">
+    <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
         <v>165</v>
       </c>
@@ -35186,7 +35178,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:2">
+    <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
         <v>167</v>
       </c>
@@ -35194,7 +35186,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:2">
+    <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
         <v>169</v>
       </c>
@@ -35202,7 +35194,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:2">
+    <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
         <v>171</v>
       </c>
@@ -35210,7 +35202,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:2">
+    <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
         <v>173</v>
       </c>
@@ -35218,7 +35210,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:2">
+    <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
         <v>175</v>
       </c>
@@ -35226,7 +35218,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:2">
+    <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
         <v>177</v>
       </c>
@@ -35234,7 +35226,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:2">
+    <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
         <v>179</v>
       </c>
@@ -35242,7 +35234,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:2">
+    <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
         <v>181</v>
       </c>
@@ -35250,7 +35242,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:2">
+    <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
         <v>183</v>
       </c>
@@ -35258,7 +35250,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:2">
+    <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
         <v>185</v>
       </c>
@@ -35266,7 +35258,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:2">
+    <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
         <v>187</v>
       </c>
@@ -35274,7 +35266,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:2">
+    <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
         <v>189</v>
       </c>
@@ -35282,7 +35274,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:2">
+    <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
         <v>191</v>
       </c>
@@ -35290,7 +35282,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:2">
+    <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
         <v>193</v>
       </c>
@@ -35298,7 +35290,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:2">
+    <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
         <v>195</v>
       </c>
@@ -35306,7 +35298,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:2">
+    <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
         <v>197</v>
       </c>
@@ -35314,7 +35306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:2">
+    <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
         <v>199</v>
       </c>
@@ -35322,7 +35314,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:2">
+    <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
         <v>201</v>
       </c>
@@ -35330,7 +35322,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:2">
+    <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
         <v>203</v>
       </c>
@@ -35338,7 +35330,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:2">
+    <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
         <v>205</v>
       </c>
@@ -35346,7 +35338,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:2">
+    <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
         <v>207</v>
       </c>
@@ -35354,7 +35346,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:2">
+    <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
         <v>209</v>
       </c>
@@ -35362,7 +35354,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:2">
+    <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
         <v>211</v>
       </c>
@@ -35370,7 +35362,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:2">
+    <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
         <v>213</v>
       </c>
@@ -35378,7 +35370,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:2">
+    <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
         <v>215</v>
       </c>
@@ -35386,7 +35378,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:2">
+    <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
         <v>217</v>
       </c>
@@ -35394,7 +35386,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:2">
+    <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
         <v>219</v>
       </c>
@@ -35402,7 +35394,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:2">
+    <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
         <v>221</v>
       </c>
@@ -35410,7 +35402,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:2">
+    <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
         <v>223</v>
       </c>
@@ -35418,7 +35410,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:2">
+    <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
         <v>225</v>
       </c>
@@ -35426,7 +35418,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:2">
+    <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
         <v>227</v>
       </c>
@@ -35434,7 +35426,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:2">
+    <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
         <v>229</v>
       </c>
@@ -35442,7 +35434,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:2">
+    <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -35450,7 +35442,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:2">
+    <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
         <v>233</v>
       </c>
@@ -35458,7 +35450,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:2">
+    <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
         <v>235</v>
       </c>
@@ -35466,7 +35458,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:2">
+    <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
         <v>237</v>
       </c>
@@ -35474,7 +35466,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:2">
+    <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
         <v>239</v>
       </c>
@@ -35482,7 +35474,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:2">
+    <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
         <v>241</v>
       </c>
@@ -35490,7 +35482,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:2">
+    <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
         <v>243</v>
       </c>
@@ -35498,7 +35490,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:2">
+    <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
         <v>245</v>
       </c>
@@ -35506,7 +35498,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:2">
+    <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
         <v>247</v>
       </c>
@@ -35514,7 +35506,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:2">
+    <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
         <v>249</v>
       </c>
@@ -35522,7 +35514,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:2">
+    <row r="104" spans="1:2">
       <c r="A104" s="2" t="s">
         <v>251</v>
       </c>
@@ -35530,7 +35522,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:2">
+    <row r="105" spans="1:2">
       <c r="A105" s="2" t="s">
         <v>253</v>
       </c>
@@ -35538,7 +35530,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:2">
+    <row r="106" spans="1:2">
       <c r="A106" s="2" t="s">
         <v>255</v>
       </c>
@@ -35546,7 +35538,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:2">
+    <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
         <v>257</v>
       </c>
@@ -35554,7 +35546,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:2">
+    <row r="108" spans="1:2">
       <c r="A108" s="2" t="s">
         <v>259</v>
       </c>
@@ -35562,7 +35554,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:2">
+    <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
         <v>261</v>
       </c>
@@ -35570,7 +35562,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:2">
+    <row r="110" spans="1:2">
       <c r="A110" s="2" t="s">
         <v>263</v>
       </c>
@@ -35578,7 +35570,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:2">
+    <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
         <v>265</v>
       </c>
@@ -35586,7 +35578,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:2">
+    <row r="112" spans="1:2">
       <c r="A112" s="2" t="s">
         <v>267</v>
       </c>
@@ -35594,7 +35586,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:2">
+    <row r="113" spans="1:2">
       <c r="A113" s="2" t="s">
         <v>269</v>
       </c>
@@ -35602,7 +35594,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:2">
+    <row r="114" spans="1:2">
       <c r="A114" s="2" t="s">
         <v>271</v>
       </c>
@@ -35610,7 +35602,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:2">
+    <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
         <v>273</v>
       </c>
@@ -35618,7 +35610,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:2">
+    <row r="116" spans="1:2">
       <c r="A116" s="2" t="s">
         <v>275</v>
       </c>
@@ -35626,7 +35618,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:2">
+    <row r="117" spans="1:2">
       <c r="A117" s="2" t="s">
         <v>277</v>
       </c>
@@ -35634,7 +35626,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:2">
+    <row r="118" spans="1:2">
       <c r="A118" s="2" t="s">
         <v>279</v>
       </c>
@@ -35642,7 +35634,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:2">
+    <row r="119" spans="1:2">
       <c r="A119" s="2" t="s">
         <v>281</v>
       </c>
@@ -35650,7 +35642,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:2">
+    <row r="120" spans="1:2">
       <c r="A120" s="2" t="s">
         <v>283</v>
       </c>
@@ -35658,7 +35650,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:2">
+    <row r="121" spans="1:2">
       <c r="A121" s="2" t="s">
         <v>285</v>
       </c>
@@ -35666,7 +35658,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:2">
+    <row r="122" spans="1:2">
       <c r="A122" s="2" t="s">
         <v>287</v>
       </c>
@@ -35674,7 +35666,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:2">
+    <row r="123" spans="1:2">
       <c r="A123" s="2" t="s">
         <v>289</v>
       </c>
@@ -35682,7 +35674,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:2">
+    <row r="124" spans="1:2">
       <c r="A124" s="2" t="s">
         <v>291</v>
       </c>
@@ -35690,7 +35682,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:2">
+    <row r="125" spans="1:2">
       <c r="A125" s="2" t="s">
         <v>293</v>
       </c>
@@ -35698,7 +35690,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:2">
+    <row r="126" spans="1:2">
       <c r="A126" s="2" t="s">
         <v>295</v>
       </c>
@@ -35706,7 +35698,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:2">
+    <row r="127" spans="1:2">
       <c r="A127" s="2" t="s">
         <v>297</v>
       </c>
@@ -35714,7 +35706,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:2">
+    <row r="128" spans="1:2">
       <c r="A128" s="2" t="s">
         <v>299</v>
       </c>
@@ -35722,7 +35714,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:2">
+    <row r="129" spans="1:2">
       <c r="A129" s="2" t="s">
         <v>301</v>
       </c>
@@ -35730,7 +35722,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:2">
+    <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
         <v>303</v>
       </c>
@@ -35738,7 +35730,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:2">
+    <row r="131" spans="1:2">
       <c r="A131" s="2" t="s">
         <v>305</v>
       </c>
@@ -35746,7 +35738,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:2">
+    <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
         <v>307</v>
       </c>
@@ -35762,7 +35754,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:2">
+    <row r="134" spans="1:2">
       <c r="A134" s="2" t="s">
         <v>311</v>
       </c>
@@ -35770,7 +35762,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:2">
+    <row r="135" spans="1:2">
       <c r="A135" s="2" t="s">
         <v>313</v>
       </c>
@@ -35778,7 +35770,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:2">
+    <row r="136" spans="1:2">
       <c r="A136" s="2" t="s">
         <v>315</v>
       </c>
@@ -35786,7 +35778,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:2">
+    <row r="137" spans="1:2">
       <c r="A137" s="2" t="s">
         <v>317</v>
       </c>
@@ -35794,7 +35786,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:2">
+    <row r="138" spans="1:2">
       <c r="A138" s="2" t="s">
         <v>319</v>
       </c>
@@ -35802,7 +35794,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:2">
+    <row r="139" spans="1:2">
       <c r="A139" s="2" t="s">
         <v>321</v>
       </c>
@@ -35810,7 +35802,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:2">
+    <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
         <v>323</v>
       </c>
@@ -35818,7 +35810,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:2">
+    <row r="141" spans="1:2">
       <c r="A141" s="2" t="s">
         <v>325</v>
       </c>
@@ -35826,7 +35818,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:2">
+    <row r="142" spans="1:2">
       <c r="A142" s="2" t="s">
         <v>327</v>
       </c>
@@ -35834,7 +35826,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:2">
+    <row r="143" spans="1:2">
       <c r="A143" s="2" t="s">
         <v>329</v>
       </c>
@@ -35842,7 +35834,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:2">
+    <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
         <v>331</v>
       </c>
@@ -35850,7 +35842,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:2">
+    <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
         <v>333</v>
       </c>
@@ -35858,7 +35850,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:2">
+    <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
         <v>335</v>
       </c>
@@ -35866,7 +35858,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:2">
+    <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
         <v>337</v>
       </c>
@@ -35874,7 +35866,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:2">
+    <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
         <v>339</v>
       </c>
@@ -35882,7 +35874,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:2">
+    <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
         <v>341</v>
       </c>
@@ -35890,7 +35882,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:2">
+    <row r="150" spans="1:2">
       <c r="A150" s="2" t="s">
         <v>343</v>
       </c>
@@ -35898,7 +35890,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:2">
+    <row r="151" spans="1:2">
       <c r="A151" s="2" t="s">
         <v>345</v>
       </c>
@@ -35906,7 +35898,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:2">
+    <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
         <v>347</v>
       </c>
@@ -35914,7 +35906,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:2">
+    <row r="153" spans="1:2">
       <c r="A153" s="2" t="s">
         <v>349</v>
       </c>
@@ -35922,7 +35914,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:2">
+    <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
         <v>351</v>
       </c>
@@ -35930,7 +35922,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:2">
+    <row r="155" spans="1:2">
       <c r="A155" s="2" t="s">
         <v>353</v>
       </c>
@@ -35946,7 +35938,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:2">
+    <row r="157" spans="1:2">
       <c r="A157" s="2" t="s">
         <v>357</v>
       </c>
@@ -35954,7 +35946,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:2">
+    <row r="158" spans="1:2">
       <c r="A158" s="2" t="s">
         <v>359</v>
       </c>
@@ -35962,7 +35954,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:2">
+    <row r="159" spans="1:2">
       <c r="A159" s="2" t="s">
         <v>361</v>
       </c>
@@ -35970,7 +35962,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:2">
+    <row r="160" spans="1:2">
       <c r="A160" s="2" t="s">
         <v>363</v>
       </c>
@@ -35978,7 +35970,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:2">
+    <row r="161" spans="1:2">
       <c r="A161" s="2" t="s">
         <v>365</v>
       </c>
@@ -35986,7 +35978,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:2">
+    <row r="162" spans="1:2">
       <c r="A162" s="2" t="s">
         <v>367</v>
       </c>
@@ -35994,7 +35986,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:2">
+    <row r="163" spans="1:2">
       <c r="A163" s="2" t="s">
         <v>369</v>
       </c>
@@ -36002,7 +35994,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:2">
+    <row r="164" spans="1:2">
       <c r="A164" s="2" t="s">
         <v>371</v>
       </c>
@@ -36010,7 +36002,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:2">
+    <row r="165" spans="1:2">
       <c r="A165" s="2" t="s">
         <v>373</v>
       </c>
@@ -36018,7 +36010,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:2">
+    <row r="166" spans="1:2">
       <c r="A166" s="2" t="s">
         <v>375</v>
       </c>
@@ -36026,7 +36018,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:2">
+    <row r="167" spans="1:2">
       <c r="A167" s="2" t="s">
         <v>377</v>
       </c>
@@ -36034,7 +36026,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:2">
+    <row r="168" spans="1:2">
       <c r="A168" s="2" t="s">
         <v>379</v>
       </c>
@@ -36042,7 +36034,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:2">
+    <row r="169" spans="1:2">
       <c r="A169" s="2" t="s">
         <v>381</v>
       </c>
@@ -36050,7 +36042,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:2">
+    <row r="170" spans="1:2">
       <c r="A170" s="2" t="s">
         <v>383</v>
       </c>
@@ -36066,7 +36058,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:2">
+    <row r="172" spans="1:2">
       <c r="A172" s="2" t="s">
         <v>388</v>
       </c>
@@ -36074,7 +36066,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:2">
+    <row r="173" spans="1:2">
       <c r="A173" s="2" t="s">
         <v>390</v>
       </c>
@@ -36082,7 +36074,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:2">
+    <row r="174" spans="1:2">
       <c r="A174" s="2" t="s">
         <v>392</v>
       </c>
@@ -36090,7 +36082,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:2">
+    <row r="175" spans="1:2">
       <c r="A175" s="2" t="s">
         <v>394</v>
       </c>
@@ -36098,7 +36090,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:2">
+    <row r="176" spans="1:2">
       <c r="A176" s="2" t="s">
         <v>396</v>
       </c>
@@ -36106,7 +36098,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:2">
+    <row r="177" spans="1:2">
       <c r="A177" s="2" t="s">
         <v>398</v>
       </c>
@@ -36114,7 +36106,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:2">
+    <row r="178" spans="1:2">
       <c r="A178" s="2" t="s">
         <v>400</v>
       </c>
@@ -36122,7 +36114,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:2">
+    <row r="179" spans="1:2">
       <c r="A179" s="2" t="s">
         <v>402</v>
       </c>
@@ -36130,7 +36122,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:2">
+    <row r="180" spans="1:2">
       <c r="A180" s="2" t="s">
         <v>404</v>
       </c>
@@ -36138,7 +36130,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:2">
+    <row r="181" spans="1:2">
       <c r="A181" s="2" t="s">
         <v>406</v>
       </c>
@@ -36146,7 +36138,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:2">
+    <row r="182" spans="1:2">
       <c r="A182" s="2" t="s">
         <v>408</v>
       </c>
@@ -36154,7 +36146,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:2">
+    <row r="183" spans="1:2">
       <c r="A183" s="2" t="s">
         <v>410</v>
       </c>
@@ -36162,7 +36154,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:2">
+    <row r="184" spans="1:2">
       <c r="A184" s="2" t="s">
         <v>412</v>
       </c>
@@ -36170,7 +36162,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:2">
+    <row r="185" spans="1:2">
       <c r="A185" s="2" t="s">
         <v>414</v>
       </c>
@@ -36178,7 +36170,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:2">
+    <row r="186" spans="1:2">
       <c r="A186" s="2" t="s">
         <v>416</v>
       </c>
@@ -36186,7 +36178,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:2">
+    <row r="187" spans="1:2">
       <c r="A187" s="2" t="s">
         <v>418</v>
       </c>
@@ -36194,7 +36186,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:2">
+    <row r="188" spans="1:2">
       <c r="A188" s="2" t="s">
         <v>420</v>
       </c>
@@ -36202,7 +36194,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:2">
+    <row r="189" spans="1:2">
       <c r="A189" s="2" t="s">
         <v>422</v>
       </c>
@@ -36210,7 +36202,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:2">
+    <row r="190" spans="1:2">
       <c r="A190" s="2" t="s">
         <v>424</v>
       </c>
@@ -36218,7 +36210,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:2">
+    <row r="191" spans="1:2">
       <c r="A191" s="2" t="s">
         <v>426</v>
       </c>
@@ -36226,7 +36218,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:2">
+    <row r="192" spans="1:2">
       <c r="A192" s="2" t="s">
         <v>428</v>
       </c>
@@ -36234,7 +36226,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:2">
+    <row r="193" spans="1:2">
       <c r="A193" s="2" t="s">
         <v>430</v>
       </c>
@@ -36242,7 +36234,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:2">
+    <row r="194" spans="1:2">
       <c r="A194" s="2" t="s">
         <v>432</v>
       </c>
@@ -36250,7 +36242,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:2">
+    <row r="195" spans="1:2">
       <c r="A195" s="2" t="s">
         <v>434</v>
       </c>
@@ -36258,7 +36250,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:2">
+    <row r="196" spans="1:2">
       <c r="A196" s="2" t="s">
         <v>436</v>
       </c>
@@ -36266,7 +36258,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:2">
+    <row r="197" spans="1:2">
       <c r="A197" s="2" t="s">
         <v>438</v>
       </c>
@@ -36274,7 +36266,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:2">
+    <row r="198" spans="1:2">
       <c r="A198" s="2" t="s">
         <v>440</v>
       </c>
@@ -36282,7 +36274,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:2">
+    <row r="199" spans="1:2">
       <c r="A199" s="2" t="s">
         <v>442</v>
       </c>
@@ -36290,7 +36282,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:2">
+    <row r="200" spans="1:2">
       <c r="A200" s="2" t="s">
         <v>444</v>
       </c>
@@ -36298,7 +36290,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:2">
+    <row r="201" spans="1:2">
       <c r="A201" s="2" t="s">
         <v>446</v>
       </c>
@@ -36306,7 +36298,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:2">
+    <row r="202" spans="1:2">
       <c r="A202" s="2" t="s">
         <v>448</v>
       </c>
@@ -36314,7 +36306,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:2">
+    <row r="203" spans="1:2">
       <c r="A203" s="2" t="s">
         <v>450</v>
       </c>
@@ -36322,7 +36314,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:2">
+    <row r="204" spans="1:2">
       <c r="A204" s="2" t="s">
         <v>452</v>
       </c>
@@ -36330,7 +36322,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:2">
+    <row r="205" spans="1:2">
       <c r="A205" s="2" t="s">
         <v>454</v>
       </c>
@@ -36338,7 +36330,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:2">
+    <row r="206" spans="1:2">
       <c r="A206" s="2" t="s">
         <v>456</v>
       </c>
@@ -36346,7 +36338,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:2">
+    <row r="207" spans="1:2">
       <c r="A207" s="2" t="s">
         <v>458</v>
       </c>
@@ -36354,7 +36346,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:2">
+    <row r="208" spans="1:2">
       <c r="A208" s="2" t="s">
         <v>460</v>
       </c>
@@ -36362,7 +36354,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:2">
+    <row r="209" spans="1:2">
       <c r="A209" s="2" t="s">
         <v>462</v>
       </c>
@@ -36370,7 +36362,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:2">
+    <row r="210" spans="1:2">
       <c r="A210" s="2" t="s">
         <v>464</v>
       </c>
@@ -36386,7 +36378,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:2">
+    <row r="212" spans="1:2">
       <c r="A212" s="2" t="s">
         <v>468</v>
       </c>
@@ -36394,7 +36386,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:2">
+    <row r="213" spans="1:2">
       <c r="A213" s="2" t="s">
         <v>470</v>
       </c>
@@ -36402,7 +36394,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:2">
+    <row r="214" spans="1:2">
       <c r="A214" s="2" t="s">
         <v>472</v>
       </c>
@@ -36410,7 +36402,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:2">
+    <row r="215" spans="1:2">
       <c r="A215" s="2" t="s">
         <v>474</v>
       </c>
@@ -36418,7 +36410,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:2">
+    <row r="216" spans="1:2">
       <c r="A216" s="2" t="s">
         <v>476</v>
       </c>
@@ -36426,7 +36418,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:2">
+    <row r="217" spans="1:2">
       <c r="A217" s="2" t="s">
         <v>478</v>
       </c>
@@ -36442,7 +36434,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:2">
+    <row r="219" spans="1:2">
       <c r="A219" s="2" t="s">
         <v>482</v>
       </c>
@@ -36450,7 +36442,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:2">
+    <row r="220" spans="1:2">
       <c r="A220" s="2" t="s">
         <v>484</v>
       </c>
@@ -36458,7 +36450,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:2">
+    <row r="221" spans="1:2">
       <c r="A221" s="2" t="s">
         <v>486</v>
       </c>
@@ -36466,7 +36458,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:2">
+    <row r="222" spans="1:2">
       <c r="A222" s="2" t="s">
         <v>488</v>
       </c>
@@ -36474,7 +36466,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:2">
+    <row r="223" spans="1:2">
       <c r="A223" s="2" t="s">
         <v>490</v>
       </c>
@@ -36490,7 +36482,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:2">
+    <row r="225" spans="1:2">
       <c r="A225" s="2" t="s">
         <v>494</v>
       </c>
@@ -36498,7 +36490,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:2">
+    <row r="226" spans="1:2">
       <c r="A226" s="2" t="s">
         <v>496</v>
       </c>
@@ -36506,7 +36498,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:2">
+    <row r="227" spans="1:2">
       <c r="A227" s="2" t="s">
         <v>498</v>
       </c>
@@ -36514,7 +36506,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:2">
+    <row r="228" spans="1:2">
       <c r="A228" s="2" t="s">
         <v>500</v>
       </c>
@@ -36522,7 +36514,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:2">
+    <row r="229" spans="1:2">
       <c r="A229" s="2" t="s">
         <v>502</v>
       </c>
@@ -36530,7 +36522,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:2">
+    <row r="230" spans="1:2">
       <c r="A230" s="2" t="s">
         <v>504</v>
       </c>
@@ -36538,7 +36530,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:2">
+    <row r="231" spans="1:2">
       <c r="A231" s="2" t="s">
         <v>506</v>
       </c>
@@ -36546,7 +36538,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:2">
+    <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
         <v>508</v>
       </c>
@@ -36554,7 +36546,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:2">
+    <row r="233" spans="1:2">
       <c r="A233" s="2" t="s">
         <v>510</v>
       </c>
@@ -36562,7 +36554,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:2">
+    <row r="234" spans="1:2">
       <c r="A234" s="2" t="s">
         <v>512</v>
       </c>
@@ -36570,7 +36562,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:2">
+    <row r="235" spans="1:2">
       <c r="A235" s="2" t="s">
         <v>514</v>
       </c>
@@ -36578,7 +36570,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:2">
+    <row r="236" spans="1:2">
       <c r="A236" s="2" t="s">
         <v>516</v>
       </c>
@@ -36586,7 +36578,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:2">
+    <row r="237" spans="1:2">
       <c r="A237" s="2" t="s">
         <v>518</v>
       </c>
@@ -36594,7 +36586,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:2">
+    <row r="238" spans="1:2">
       <c r="A238" s="2" t="s">
         <v>520</v>
       </c>
@@ -36602,7 +36594,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:2">
+    <row r="239" spans="1:2">
       <c r="A239" s="2" t="s">
         <v>522</v>
       </c>
@@ -36610,7 +36602,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:2">
+    <row r="240" spans="1:2">
       <c r="A240" s="2" t="s">
         <v>524</v>
       </c>
@@ -36618,7 +36610,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:2">
+    <row r="241" spans="1:2">
       <c r="A241" s="2" t="s">
         <v>526</v>
       </c>
@@ -36626,7 +36618,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:2">
+    <row r="242" spans="1:2">
       <c r="A242" s="2" t="s">
         <v>528</v>
       </c>
@@ -36634,7 +36626,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:2">
+    <row r="243" spans="1:2">
       <c r="A243" s="2" t="s">
         <v>530</v>
       </c>
@@ -36650,7 +36642,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:2">
+    <row r="245" spans="1:2">
       <c r="A245" s="2" t="s">
         <v>534</v>
       </c>
@@ -36666,7 +36658,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:2">
+    <row r="247" spans="1:2">
       <c r="A247" s="2" t="s">
         <v>538</v>
       </c>
@@ -36674,7 +36666,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:2">
+    <row r="248" spans="1:2">
       <c r="A248" s="2" t="s">
         <v>540</v>
       </c>
@@ -36682,7 +36674,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:2">
+    <row r="249" spans="1:2">
       <c r="A249" s="2" t="s">
         <v>542</v>
       </c>
@@ -36690,7 +36682,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:2">
+    <row r="250" spans="1:2">
       <c r="A250" s="2" t="s">
         <v>544</v>
       </c>
@@ -36698,7 +36690,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:2">
+    <row r="251" spans="1:2">
       <c r="A251" s="2" t="s">
         <v>546</v>
       </c>
@@ -36706,7 +36698,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:2">
+    <row r="252" spans="1:2">
       <c r="A252" s="2" t="s">
         <v>548</v>
       </c>
@@ -36714,7 +36706,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:2">
+    <row r="253" spans="1:2">
       <c r="A253" s="2" t="s">
         <v>550</v>
       </c>
@@ -36722,7 +36714,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:2">
+    <row r="254" spans="1:2">
       <c r="A254" s="2" t="s">
         <v>552</v>
       </c>
@@ -36730,7 +36722,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:2">
+    <row r="255" spans="1:2">
       <c r="A255" s="2" t="s">
         <v>554</v>
       </c>
@@ -36738,7 +36730,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:2">
+    <row r="256" spans="1:2">
       <c r="A256" s="2" t="s">
         <v>556</v>
       </c>
@@ -36746,7 +36738,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:2">
+    <row r="257" spans="1:2">
       <c r="A257" s="2" t="s">
         <v>558</v>
       </c>
@@ -36754,7 +36746,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:2">
+    <row r="258" spans="1:2">
       <c r="A258" s="2" t="s">
         <v>560</v>
       </c>
@@ -36762,7 +36754,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:2">
+    <row r="259" spans="1:2">
       <c r="A259" s="2" t="s">
         <v>562</v>
       </c>
@@ -36770,7 +36762,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:2">
+    <row r="260" spans="1:2">
       <c r="A260" s="2" t="s">
         <v>564</v>
       </c>
@@ -36778,7 +36770,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:2">
+    <row r="261" spans="1:2">
       <c r="A261" s="2" t="s">
         <v>566</v>
       </c>
@@ -36786,7 +36778,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:2">
+    <row r="262" spans="1:2">
       <c r="A262" s="2" t="s">
         <v>568</v>
       </c>
@@ -36794,7 +36786,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:2">
+    <row r="263" spans="1:2">
       <c r="A263" s="2" t="s">
         <v>570</v>
       </c>
@@ -36802,7 +36794,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:2">
+    <row r="264" spans="1:2">
       <c r="A264" s="2" t="s">
         <v>572</v>
       </c>
@@ -36810,7 +36802,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:2">
+    <row r="265" spans="1:2">
       <c r="A265" s="2" t="s">
         <v>574</v>
       </c>
@@ -36818,7 +36810,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="1:2">
+    <row r="266" spans="1:2">
       <c r="A266" s="2" t="s">
         <v>576</v>
       </c>
@@ -36826,7 +36818,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:2">
+    <row r="267" spans="1:2">
       <c r="A267" s="2" t="s">
         <v>578</v>
       </c>
@@ -36834,7 +36826,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:2">
+    <row r="268" spans="1:2">
       <c r="A268" s="2" t="s">
         <v>580</v>
       </c>
@@ -36842,7 +36834,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:2">
+    <row r="269" spans="1:2">
       <c r="A269" s="2" t="s">
         <v>582</v>
       </c>
@@ -36850,7 +36842,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:2">
+    <row r="270" spans="1:2">
       <c r="A270" s="2" t="s">
         <v>584</v>
       </c>
@@ -36858,7 +36850,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:2">
+    <row r="271" spans="1:2">
       <c r="A271" s="2" t="s">
         <v>586</v>
       </c>
@@ -36866,7 +36858,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:2">
+    <row r="272" spans="1:2">
       <c r="A272" s="2" t="s">
         <v>588</v>
       </c>
@@ -36874,7 +36866,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:2">
+    <row r="273" spans="1:2">
       <c r="A273" s="2" t="s">
         <v>590</v>
       </c>
@@ -36882,7 +36874,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:2">
+    <row r="274" spans="1:2">
       <c r="A274" s="2" t="s">
         <v>592</v>
       </c>
@@ -36890,7 +36882,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:2">
+    <row r="275" spans="1:2">
       <c r="A275" s="2" t="s">
         <v>594</v>
       </c>
@@ -36898,7 +36890,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:2">
+    <row r="276" spans="1:2">
       <c r="A276" s="2" t="s">
         <v>596</v>
       </c>
@@ -36906,7 +36898,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:2">
+    <row r="277" spans="1:2">
       <c r="A277" s="2" t="s">
         <v>598</v>
       </c>
@@ -36914,7 +36906,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:2">
+    <row r="278" spans="1:2">
       <c r="A278" s="2" t="s">
         <v>600</v>
       </c>
@@ -36922,7 +36914,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:2">
+    <row r="279" spans="1:2">
       <c r="A279" s="2" t="s">
         <v>602</v>
       </c>
@@ -36930,7 +36922,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:2">
+    <row r="280" spans="1:2">
       <c r="A280" s="2" t="s">
         <v>604</v>
       </c>
@@ -36938,7 +36930,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:2">
+    <row r="281" spans="1:2">
       <c r="A281" s="2" t="s">
         <v>606</v>
       </c>
@@ -36946,7 +36938,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:2">
+    <row r="282" spans="1:2">
       <c r="A282" s="2" t="s">
         <v>608</v>
       </c>
@@ -36954,7 +36946,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:2">
+    <row r="283" spans="1:2">
       <c r="A283" s="2" t="s">
         <v>610</v>
       </c>
@@ -36962,7 +36954,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:2">
+    <row r="284" spans="1:2">
       <c r="A284" s="2" t="s">
         <v>612</v>
       </c>
@@ -36970,7 +36962,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:2">
+    <row r="285" spans="1:2">
       <c r="A285" s="2" t="s">
         <v>614</v>
       </c>
@@ -36978,7 +36970,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:2">
+    <row r="286" spans="1:2">
       <c r="A286" s="2" t="s">
         <v>616</v>
       </c>
@@ -36986,7 +36978,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:2">
+    <row r="287" spans="1:2">
       <c r="A287" s="2" t="s">
         <v>618</v>
       </c>
@@ -36994,7 +36986,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:2">
+    <row r="288" spans="1:2">
       <c r="A288" s="2" t="s">
         <v>620</v>
       </c>
@@ -37002,7 +36994,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="1:2">
+    <row r="289" spans="1:2">
       <c r="A289" s="2" t="s">
         <v>622</v>
       </c>
@@ -37010,7 +37002,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:2">
+    <row r="290" spans="1:2">
       <c r="A290" s="2" t="s">
         <v>624</v>
       </c>
@@ -37018,7 +37010,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:2">
+    <row r="291" spans="1:2">
       <c r="A291" s="2" t="s">
         <v>626</v>
       </c>
@@ -37026,7 +37018,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:2">
+    <row r="292" spans="1:2">
       <c r="A292" s="2" t="s">
         <v>628</v>
       </c>
@@ -37034,7 +37026,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:2">
+    <row r="293" spans="1:2">
       <c r="A293" s="2" t="s">
         <v>630</v>
       </c>
@@ -37042,7 +37034,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:2">
+    <row r="294" spans="1:2">
       <c r="A294" s="2" t="s">
         <v>632</v>
       </c>
@@ -37050,7 +37042,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:2">
+    <row r="295" spans="1:2">
       <c r="A295" s="2" t="s">
         <v>634</v>
       </c>
@@ -37058,7 +37050,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:2">
+    <row r="296" spans="1:2">
       <c r="A296" s="2" t="s">
         <v>636</v>
       </c>
@@ -37066,7 +37058,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:2">
+    <row r="297" spans="1:2">
       <c r="A297" s="2" t="s">
         <v>638</v>
       </c>
@@ -37074,7 +37066,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:2">
+    <row r="298" spans="1:2">
       <c r="A298" s="2" t="s">
         <v>640</v>
       </c>
@@ -37090,7 +37082,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:2">
+    <row r="300" spans="1:2">
       <c r="A300" s="2" t="s">
         <v>644</v>
       </c>
@@ -37098,7 +37090,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:2">
+    <row r="301" spans="1:2">
       <c r="A301" s="2" t="s">
         <v>646</v>
       </c>
@@ -37114,7 +37106,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:2">
+    <row r="303" spans="1:2">
       <c r="A303" s="2" t="s">
         <v>650</v>
       </c>
@@ -37122,7 +37114,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:2">
+    <row r="304" spans="1:2">
       <c r="A304" s="2" t="s">
         <v>652</v>
       </c>
@@ -37130,7 +37122,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:2">
+    <row r="305" spans="1:2">
       <c r="A305" s="2" t="s">
         <v>654</v>
       </c>
@@ -37138,7 +37130,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:2">
+    <row r="306" spans="1:2">
       <c r="A306" s="2" t="s">
         <v>656</v>
       </c>
@@ -37146,7 +37138,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:2">
+    <row r="307" spans="1:2">
       <c r="A307" s="2" t="s">
         <v>658</v>
       </c>
@@ -37154,7 +37146,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:2">
+    <row r="308" spans="1:2">
       <c r="A308" s="2" t="s">
         <v>660</v>
       </c>
@@ -37162,7 +37154,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:2">
+    <row r="309" spans="1:2">
       <c r="A309" s="2" t="s">
         <v>662</v>
       </c>
@@ -37170,7 +37162,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:2">
+    <row r="310" spans="1:2">
       <c r="A310" s="2" t="s">
         <v>664</v>
       </c>
@@ -37178,7 +37170,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:2">
+    <row r="311" spans="1:2">
       <c r="A311" s="2" t="s">
         <v>666</v>
       </c>
@@ -37186,7 +37178,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:2">
+    <row r="312" spans="1:2">
       <c r="A312" s="2" t="s">
         <v>668</v>
       </c>
@@ -37194,7 +37186,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:2">
+    <row r="313" spans="1:2">
       <c r="A313" s="2" t="s">
         <v>670</v>
       </c>
@@ -37202,7 +37194,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:2">
+    <row r="314" spans="1:2">
       <c r="A314" s="2" t="s">
         <v>672</v>
       </c>
@@ -37210,7 +37202,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="1:2">
+    <row r="315" spans="1:2">
       <c r="A315" s="2" t="s">
         <v>674</v>
       </c>
@@ -37218,7 +37210,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="316" hidden="1" spans="1:2">
+    <row r="316" spans="1:2">
       <c r="A316" s="2" t="s">
         <v>676</v>
       </c>
@@ -37234,7 +37226,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:2">
+    <row r="318" spans="1:2">
       <c r="A318" s="2" t="s">
         <v>680</v>
       </c>
@@ -37242,7 +37234,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="1:2">
+    <row r="319" spans="1:2">
       <c r="A319" s="2" t="s">
         <v>682</v>
       </c>
@@ -37250,7 +37242,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:2">
+    <row r="320" spans="1:2">
       <c r="A320" s="2" t="s">
         <v>684</v>
       </c>
@@ -37258,7 +37250,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:2">
+    <row r="321" spans="1:2">
       <c r="A321" s="2" t="s">
         <v>686</v>
       </c>
@@ -37266,7 +37258,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:2">
+    <row r="322" spans="1:2">
       <c r="A322" s="2" t="s">
         <v>688</v>
       </c>
@@ -37274,7 +37266,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:2">
+    <row r="323" spans="1:2">
       <c r="A323" s="2" t="s">
         <v>690</v>
       </c>
@@ -37282,7 +37274,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:2">
+    <row r="324" spans="1:2">
       <c r="A324" s="2" t="s">
         <v>692</v>
       </c>
@@ -37290,7 +37282,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:2">
+    <row r="325" spans="1:2">
       <c r="A325" s="2" t="s">
         <v>694</v>
       </c>
@@ -37298,7 +37290,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:2">
+    <row r="326" spans="1:2">
       <c r="A326" s="2" t="s">
         <v>696</v>
       </c>
@@ -37306,7 +37298,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:2">
+    <row r="327" spans="1:2">
       <c r="A327" s="2" t="s">
         <v>698</v>
       </c>
@@ -37314,7 +37306,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:2">
+    <row r="328" spans="1:2">
       <c r="A328" s="2" t="s">
         <v>700</v>
       </c>
@@ -37322,7 +37314,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:2">
+    <row r="329" spans="1:2">
       <c r="A329" s="2" t="s">
         <v>702</v>
       </c>
@@ -37330,7 +37322,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:2">
+    <row r="330" spans="1:2">
       <c r="A330" s="2" t="s">
         <v>704</v>
       </c>
@@ -37338,7 +37330,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:2">
+    <row r="331" spans="1:2">
       <c r="A331" s="2" t="s">
         <v>706</v>
       </c>
@@ -37346,7 +37338,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:2">
+    <row r="332" spans="1:2">
       <c r="A332" s="2" t="s">
         <v>708</v>
       </c>
@@ -37354,7 +37346,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:2">
+    <row r="333" spans="1:2">
       <c r="A333" s="2" t="s">
         <v>710</v>
       </c>
@@ -37362,7 +37354,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="1:2">
+    <row r="334" spans="1:2">
       <c r="A334" s="2" t="s">
         <v>712</v>
       </c>
@@ -37370,7 +37362,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:2">
+    <row r="335" spans="1:2">
       <c r="A335" s="2" t="s">
         <v>714</v>
       </c>
@@ -37378,7 +37370,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:2">
+    <row r="336" spans="1:2">
       <c r="A336" s="2" t="s">
         <v>716</v>
       </c>
@@ -37386,7 +37378,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:2">
+    <row r="337" spans="1:2">
       <c r="A337" s="2" t="s">
         <v>718</v>
       </c>
@@ -37394,7 +37386,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:2">
+    <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
         <v>720</v>
       </c>
@@ -37402,7 +37394,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:2">
+    <row r="339" spans="1:2">
       <c r="A339" s="2" t="s">
         <v>722</v>
       </c>
@@ -37410,7 +37402,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:2">
+    <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
         <v>724</v>
       </c>
@@ -37418,7 +37410,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:2">
+    <row r="341" spans="1:2">
       <c r="A341" s="2" t="s">
         <v>726</v>
       </c>
@@ -37426,7 +37418,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:2">
+    <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
         <v>728</v>
       </c>
@@ -37434,7 +37426,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:2">
+    <row r="343" spans="1:2">
       <c r="A343" s="2" t="s">
         <v>730</v>
       </c>
@@ -37442,7 +37434,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="1:2">
+    <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
         <v>732</v>
       </c>
@@ -37450,7 +37442,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="1:2">
+    <row r="345" spans="1:2">
       <c r="A345" s="2" t="s">
         <v>734</v>
       </c>
@@ -37458,7 +37450,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:2">
+    <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
         <v>736</v>
       </c>
@@ -37466,7 +37458,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:2">
+    <row r="347" spans="1:2">
       <c r="A347" s="2" t="s">
         <v>738</v>
       </c>
@@ -37474,7 +37466,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:2">
+    <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
         <v>740</v>
       </c>
@@ -37490,7 +37482,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:2">
+    <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
         <v>744</v>
       </c>
@@ -37498,7 +37490,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="1:2">
+    <row r="351" spans="1:2">
       <c r="A351" s="2" t="s">
         <v>746</v>
       </c>
@@ -37506,7 +37498,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:2">
+    <row r="352" spans="1:2">
       <c r="A352" s="2" t="s">
         <v>748</v>
       </c>
@@ -37514,7 +37506,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:2">
+    <row r="353" spans="1:2">
       <c r="A353" s="2" t="s">
         <v>750</v>
       </c>
@@ -37522,7 +37514,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:2">
+    <row r="354" spans="1:2">
       <c r="A354" s="2" t="s">
         <v>752</v>
       </c>
@@ -37530,7 +37522,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:2">
+    <row r="355" spans="1:2">
       <c r="A355" s="2" t="s">
         <v>754</v>
       </c>
@@ -37538,7 +37530,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="1:2">
+    <row r="356" spans="1:2">
       <c r="A356" s="2" t="s">
         <v>756</v>
       </c>
@@ -37546,7 +37538,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="1:2">
+    <row r="357" spans="1:2">
       <c r="A357" s="2" t="s">
         <v>758</v>
       </c>
@@ -37554,7 +37546,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="1:2">
+    <row r="358" spans="1:2">
       <c r="A358" s="2" t="s">
         <v>760</v>
       </c>
@@ -37562,7 +37554,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:2">
+    <row r="359" spans="1:2">
       <c r="A359" s="2" t="s">
         <v>762</v>
       </c>
@@ -37570,7 +37562,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="1:2">
+    <row r="360" spans="1:2">
       <c r="A360" s="2" t="s">
         <v>764</v>
       </c>
@@ -37578,7 +37570,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:2">
+    <row r="361" spans="1:2">
       <c r="A361" s="2" t="s">
         <v>766</v>
       </c>
@@ -37586,7 +37578,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="362" hidden="1" spans="1:2">
+    <row r="362" spans="1:2">
       <c r="A362" s="2" t="s">
         <v>768</v>
       </c>
@@ -37594,7 +37586,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:2">
+    <row r="363" spans="1:2">
       <c r="A363" s="2" t="s">
         <v>770</v>
       </c>
@@ -37602,7 +37594,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="1:2">
+    <row r="364" spans="1:2">
       <c r="A364" s="2" t="s">
         <v>772</v>
       </c>
@@ -37610,7 +37602,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="365" hidden="1" spans="1:2">
+    <row r="365" spans="1:2">
       <c r="A365" s="2" t="s">
         <v>774</v>
       </c>
@@ -37618,7 +37610,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="1:2">
+    <row r="366" spans="1:2">
       <c r="A366" s="2" t="s">
         <v>776</v>
       </c>
@@ -37626,7 +37618,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:2">
+    <row r="367" spans="1:2">
       <c r="A367" s="2" t="s">
         <v>778</v>
       </c>
@@ -37634,7 +37626,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:2">
+    <row r="368" spans="1:2">
       <c r="A368" s="2" t="s">
         <v>780</v>
       </c>
@@ -37642,7 +37634,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:2">
+    <row r="369" spans="1:2">
       <c r="A369" s="2" t="s">
         <v>782</v>
       </c>
@@ -37650,7 +37642,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="1:2">
+    <row r="370" spans="1:2">
       <c r="A370" s="2" t="s">
         <v>784</v>
       </c>
@@ -37658,7 +37650,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="1:2">
+    <row r="371" spans="1:2">
       <c r="A371" s="2" t="s">
         <v>786</v>
       </c>
@@ -37666,7 +37658,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="1:2">
+    <row r="372" spans="1:2">
       <c r="A372" s="2" t="s">
         <v>788</v>
       </c>
@@ -37674,7 +37666,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="1:2">
+    <row r="373" spans="1:2">
       <c r="A373" s="2" t="s">
         <v>790</v>
       </c>
@@ -37682,7 +37674,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:2">
+    <row r="374" spans="1:2">
       <c r="A374" s="2" t="s">
         <v>792</v>
       </c>
@@ -37698,7 +37690,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="1:2">
+    <row r="376" spans="1:2">
       <c r="A376" s="2" t="s">
         <v>796</v>
       </c>
@@ -37706,7 +37698,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:2">
+    <row r="377" spans="1:2">
       <c r="A377" s="2" t="s">
         <v>798</v>
       </c>
@@ -37714,7 +37706,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:2">
+    <row r="378" spans="1:2">
       <c r="A378" s="2" t="s">
         <v>800</v>
       </c>
@@ -37722,7 +37714,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:2">
+    <row r="379" spans="1:2">
       <c r="A379" s="2" t="s">
         <v>802</v>
       </c>
@@ -37730,7 +37722,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:2">
+    <row r="380" spans="1:2">
       <c r="A380" s="2" t="s">
         <v>804</v>
       </c>
@@ -37738,7 +37730,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="1:2">
+    <row r="381" spans="1:2">
       <c r="A381" s="2" t="s">
         <v>806</v>
       </c>
@@ -37746,7 +37738,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:2">
+    <row r="382" spans="1:2">
       <c r="A382" s="2" t="s">
         <v>808</v>
       </c>
@@ -37754,7 +37746,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:2">
+    <row r="383" spans="1:2">
       <c r="A383" s="2" t="s">
         <v>810</v>
       </c>
@@ -37762,7 +37754,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:2">
+    <row r="384" spans="1:2">
       <c r="A384" s="2" t="s">
         <v>812</v>
       </c>
@@ -37770,7 +37762,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:2">
+    <row r="385" spans="1:2">
       <c r="A385" s="2" t="s">
         <v>814</v>
       </c>
@@ -37778,7 +37770,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:2">
+    <row r="386" spans="1:2">
       <c r="A386" s="2" t="s">
         <v>816</v>
       </c>
@@ -37786,7 +37778,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:2">
+    <row r="387" spans="1:2">
       <c r="A387" s="2" t="s">
         <v>818</v>
       </c>
@@ -37794,7 +37786,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:2">
+    <row r="388" spans="1:2">
       <c r="A388" s="2" t="s">
         <v>820</v>
       </c>
@@ -37802,7 +37794,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:2">
+    <row r="389" spans="1:2">
       <c r="A389" s="2" t="s">
         <v>822</v>
       </c>
@@ -37810,7 +37802,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:2">
+    <row r="390" spans="1:2">
       <c r="A390" s="2" t="s">
         <v>824</v>
       </c>
@@ -37818,7 +37810,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="1:2">
+    <row r="391" spans="1:2">
       <c r="A391" s="2" t="s">
         <v>826</v>
       </c>
@@ -37826,7 +37818,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:2">
+    <row r="392" spans="1:2">
       <c r="A392" s="2" t="s">
         <v>828</v>
       </c>
@@ -37834,7 +37826,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:2">
+    <row r="393" spans="1:2">
       <c r="A393" s="2" t="s">
         <v>830</v>
       </c>
@@ -37842,7 +37834,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:2">
+    <row r="394" spans="1:2">
       <c r="A394" s="2" t="s">
         <v>832</v>
       </c>
@@ -37850,7 +37842,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:2">
+    <row r="395" spans="1:2">
       <c r="A395" s="2" t="s">
         <v>834</v>
       </c>
@@ -37858,7 +37850,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:2">
+    <row r="396" spans="1:2">
       <c r="A396" s="2" t="s">
         <v>836</v>
       </c>
@@ -37866,7 +37858,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:2">
+    <row r="397" spans="1:2">
       <c r="A397" s="2" t="s">
         <v>838</v>
       </c>
@@ -37874,7 +37866,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:2">
+    <row r="398" spans="1:2">
       <c r="A398" s="2" t="s">
         <v>840</v>
       </c>
@@ -37882,7 +37874,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:2">
+    <row r="399" spans="1:2">
       <c r="A399" s="2" t="s">
         <v>842</v>
       </c>
@@ -37890,7 +37882,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:2">
+    <row r="400" spans="1:2">
       <c r="A400" s="2" t="s">
         <v>844</v>
       </c>
@@ -37898,7 +37890,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="1:2">
+    <row r="401" spans="1:2">
       <c r="A401" s="2" t="s">
         <v>846</v>
       </c>
@@ -37906,7 +37898,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:2">
+    <row r="402" spans="1:2">
       <c r="A402" s="2" t="s">
         <v>848</v>
       </c>
@@ -37914,7 +37906,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:2">
+    <row r="403" spans="1:2">
       <c r="A403" s="2" t="s">
         <v>850</v>
       </c>
@@ -37922,7 +37914,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:2">
+    <row r="404" spans="1:2">
       <c r="A404" s="2" t="s">
         <v>852</v>
       </c>
@@ -37930,7 +37922,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:2">
+    <row r="405" spans="1:2">
       <c r="A405" s="2" t="s">
         <v>854</v>
       </c>
@@ -37938,7 +37930,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:2">
+    <row r="406" spans="1:2">
       <c r="A406" s="2" t="s">
         <v>856</v>
       </c>
@@ -37946,7 +37938,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="1:2">
+    <row r="407" spans="1:2">
       <c r="A407" s="2" t="s">
         <v>858</v>
       </c>
@@ -37954,7 +37946,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="1:2">
+    <row r="408" spans="1:2">
       <c r="A408" s="2" t="s">
         <v>860</v>
       </c>
@@ -37962,7 +37954,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:2">
+    <row r="409" spans="1:2">
       <c r="A409" s="2" t="s">
         <v>862</v>
       </c>
@@ -37970,7 +37962,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:2">
+    <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
         <v>864</v>
       </c>
@@ -37978,7 +37970,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="411" hidden="1" spans="1:2">
+    <row r="411" spans="1:2">
       <c r="A411" s="2" t="s">
         <v>866</v>
       </c>
@@ -37986,7 +37978,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="1:2">
+    <row r="412" spans="1:2">
       <c r="A412" s="2" t="s">
         <v>868</v>
       </c>
@@ -37994,7 +37986,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="1:2">
+    <row r="413" spans="1:2">
       <c r="A413" s="2" t="s">
         <v>870</v>
       </c>
@@ -38002,7 +37994,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="1:2">
+    <row r="414" spans="1:2">
       <c r="A414" s="2" t="s">
         <v>872</v>
       </c>
@@ -38010,7 +38002,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:2">
+    <row r="415" spans="1:2">
       <c r="A415" s="2" t="s">
         <v>874</v>
       </c>
@@ -38018,7 +38010,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:2">
+    <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
         <v>876</v>
       </c>
@@ -38026,7 +38018,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="1:2">
+    <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
         <v>878</v>
       </c>
@@ -38034,7 +38026,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="418" hidden="1" spans="1:2">
+    <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
         <v>880</v>
       </c>
@@ -38042,7 +38034,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="419" hidden="1" spans="1:2">
+    <row r="419" spans="1:2">
       <c r="A419" s="2" t="s">
         <v>882</v>
       </c>
@@ -38050,7 +38042,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="420" hidden="1" spans="1:2">
+    <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
         <v>884</v>
       </c>
@@ -38058,7 +38050,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="421" hidden="1" spans="1:2">
+    <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
         <v>886</v>
       </c>
@@ -38066,7 +38058,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:2">
+    <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
         <v>888</v>
       </c>
@@ -38074,7 +38066,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="1:2">
+    <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
         <v>890</v>
       </c>
@@ -38082,7 +38074,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="1:2">
+    <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
         <v>892</v>
       </c>
@@ -38090,7 +38082,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:2">
+    <row r="425" spans="1:2">
       <c r="A425" s="2" t="s">
         <v>894</v>
       </c>
@@ -38098,7 +38090,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="1:2">
+    <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
         <v>896</v>
       </c>
@@ -38106,7 +38098,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:2">
+    <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
         <v>898</v>
       </c>
@@ -38114,7 +38106,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:2">
+    <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
         <v>900</v>
       </c>
@@ -38122,7 +38114,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:2">
+    <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
         <v>902</v>
       </c>
@@ -38130,7 +38122,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:2">
+    <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
         <v>904</v>
       </c>
@@ -38138,7 +38130,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:2">
+    <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
         <v>906</v>
       </c>
@@ -38146,7 +38138,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:2">
+    <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
         <v>908</v>
       </c>
@@ -38154,7 +38146,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:2">
+    <row r="433" spans="1:2">
       <c r="A433" s="2" t="s">
         <v>910</v>
       </c>
@@ -38162,7 +38154,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="434" hidden="1" spans="1:2">
+    <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
         <v>912</v>
       </c>
@@ -38170,7 +38162,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:2">
+    <row r="435" spans="1:2">
       <c r="A435" s="2" t="s">
         <v>914</v>
       </c>
@@ -38178,7 +38170,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="1:2">
+    <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
         <v>916</v>
       </c>
@@ -38186,7 +38178,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:2">
+    <row r="437" spans="1:2">
       <c r="A437" s="2" t="s">
         <v>918</v>
       </c>
@@ -38194,7 +38186,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="438" hidden="1" spans="1:2">
+    <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
         <v>920</v>
       </c>
@@ -38202,7 +38194,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:2">
+    <row r="439" spans="1:2">
       <c r="A439" s="2" t="s">
         <v>922</v>
       </c>
@@ -38210,7 +38202,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="1:2">
+    <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
         <v>924</v>
       </c>
@@ -38218,7 +38210,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:2">
+    <row r="441" spans="1:2">
       <c r="A441" s="2" t="s">
         <v>926</v>
       </c>
@@ -38226,7 +38218,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:2">
+    <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
         <v>928</v>
       </c>
@@ -38234,7 +38226,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:2">
+    <row r="443" spans="1:2">
       <c r="A443" s="2" t="s">
         <v>930</v>
       </c>
@@ -38242,7 +38234,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:2">
+    <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
         <v>932</v>
       </c>
@@ -38250,7 +38242,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:2">
+    <row r="445" spans="1:2">
       <c r="A445" s="2" t="s">
         <v>934</v>
       </c>
@@ -38258,7 +38250,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="446" hidden="1" spans="1:2">
+    <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
         <v>936</v>
       </c>
@@ -38266,7 +38258,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="1:2">
+    <row r="447" spans="1:2">
       <c r="A447" s="2" t="s">
         <v>938</v>
       </c>
@@ -38274,7 +38266,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="448" hidden="1" spans="1:2">
+    <row r="448" spans="1:2">
       <c r="A448" s="2" t="s">
         <v>940</v>
       </c>
@@ -38282,7 +38274,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="1:2">
+    <row r="449" spans="1:2">
       <c r="A449" s="2" t="s">
         <v>942</v>
       </c>
@@ -38290,7 +38282,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="450" hidden="1" spans="1:2">
+    <row r="450" spans="1:2">
       <c r="A450" s="2" t="s">
         <v>944</v>
       </c>
@@ -38298,7 +38290,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="1:2">
+    <row r="451" spans="1:2">
       <c r="A451" s="2" t="s">
         <v>946</v>
       </c>
@@ -38306,7 +38298,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="1:2">
+    <row r="452" spans="1:2">
       <c r="A452" s="2" t="s">
         <v>948</v>
       </c>
@@ -38314,7 +38306,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:2">
+    <row r="453" spans="1:2">
       <c r="A453" s="2" t="s">
         <v>950</v>
       </c>
@@ -38322,7 +38314,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="1:2">
+    <row r="454" spans="1:2">
       <c r="A454" s="2" t="s">
         <v>952</v>
       </c>
@@ -38330,7 +38322,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="1:2">
+    <row r="455" spans="1:2">
       <c r="A455" s="2" t="s">
         <v>954</v>
       </c>
@@ -38338,7 +38330,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="1:2">
+    <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
         <v>956</v>
       </c>
@@ -38346,7 +38338,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="457" hidden="1" spans="1:2">
+    <row r="457" spans="1:2">
       <c r="A457" s="2" t="s">
         <v>958</v>
       </c>
@@ -38354,7 +38346,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:2">
+    <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
         <v>960</v>
       </c>
@@ -38362,7 +38354,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="1:2">
+    <row r="459" spans="1:2">
       <c r="A459" s="2" t="s">
         <v>962</v>
       </c>
@@ -38370,7 +38362,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="460" hidden="1" spans="1:2">
+    <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
         <v>964</v>
       </c>
@@ -38378,7 +38370,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="461" hidden="1" spans="1:2">
+    <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
         <v>966</v>
       </c>
@@ -38386,7 +38378,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:2">
+    <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
         <v>968</v>
       </c>
@@ -38394,7 +38386,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:2">
+    <row r="463" spans="1:2">
       <c r="A463" s="2" t="s">
         <v>970</v>
       </c>
@@ -38402,7 +38394,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:2">
+    <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
         <v>972</v>
       </c>
@@ -38410,7 +38402,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:2">
+    <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
         <v>974</v>
       </c>
@@ -38418,7 +38410,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="466" hidden="1" spans="1:2">
+    <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
         <v>976</v>
       </c>
@@ -38426,7 +38418,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:2">
+    <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
         <v>978</v>
       </c>
@@ -38434,7 +38426,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:2">
+    <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
         <v>980</v>
       </c>
@@ -38442,7 +38434,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="1:2">
+    <row r="469" spans="1:2">
       <c r="A469" s="2" t="s">
         <v>982</v>
       </c>
@@ -38450,7 +38442,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:2">
+    <row r="470" spans="1:2">
       <c r="A470" s="2" t="s">
         <v>984</v>
       </c>
@@ -38458,7 +38450,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:2">
+    <row r="471" spans="1:2">
       <c r="A471" s="2" t="s">
         <v>986</v>
       </c>
@@ -38466,7 +38458,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="472" hidden="1" spans="1:2">
+    <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
         <v>988</v>
       </c>
@@ -38474,7 +38466,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="1:2">
+    <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
         <v>990</v>
       </c>
@@ -38482,7 +38474,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:2">
+    <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
         <v>992</v>
       </c>
@@ -38490,7 +38482,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="1:2">
+    <row r="475" spans="1:2">
       <c r="A475" s="2" t="s">
         <v>994</v>
       </c>
@@ -38498,7 +38490,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:2">
+    <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
         <v>996</v>
       </c>
@@ -38506,7 +38498,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="1:2">
+    <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
         <v>998</v>
       </c>
@@ -38514,7 +38506,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="1:2">
+    <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
         <v>1000</v>
       </c>
@@ -38522,7 +38514,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:2">
+    <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
         <v>1002</v>
       </c>
@@ -38530,7 +38522,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:2">
+    <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
         <v>1004</v>
       </c>
@@ -38538,7 +38530,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:2">
+    <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
         <v>1006</v>
       </c>
@@ -38546,7 +38538,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="1:2">
+    <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
         <v>1008</v>
       </c>
@@ -38554,7 +38546,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:2">
+    <row r="483" spans="1:2">
       <c r="A483" s="2" t="s">
         <v>1010</v>
       </c>
@@ -38562,7 +38554,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="1:2">
+    <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
         <v>1012</v>
       </c>
@@ -38570,7 +38562,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:2">
+    <row r="485" spans="1:2">
       <c r="A485" s="2" t="s">
         <v>1014</v>
       </c>
@@ -38578,7 +38570,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:2">
+    <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
         <v>1016</v>
       </c>
@@ -38586,7 +38578,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="487" hidden="1" spans="1:2">
+    <row r="487" spans="1:2">
       <c r="A487" s="2" t="s">
         <v>1018</v>
       </c>
@@ -38594,7 +38586,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:2">
+    <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
         <v>1020</v>
       </c>
@@ -38602,7 +38594,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="489" hidden="1" spans="1:2">
+    <row r="489" spans="1:2">
       <c r="A489" s="2" t="s">
         <v>1022</v>
       </c>
@@ -38610,7 +38602,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="1:2">
+    <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
         <v>1024</v>
       </c>
@@ -38618,7 +38610,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:2">
+    <row r="491" spans="1:2">
       <c r="A491" s="2" t="s">
         <v>1026</v>
       </c>
@@ -38626,7 +38618,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="492" hidden="1" spans="1:2">
+    <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
         <v>1028</v>
       </c>
@@ -38634,7 +38626,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="493" hidden="1" spans="1:2">
+    <row r="493" spans="1:2">
       <c r="A493" s="2" t="s">
         <v>1030</v>
       </c>
@@ -38642,7 +38634,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="494" hidden="1" spans="1:2">
+    <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
         <v>1032</v>
       </c>
@@ -38650,7 +38642,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="495" hidden="1" spans="1:2">
+    <row r="495" spans="1:2">
       <c r="A495" s="2" t="s">
         <v>1034</v>
       </c>
@@ -38658,7 +38650,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="1:2">
+    <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
         <v>1036</v>
       </c>
@@ -38666,7 +38658,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="1:2">
+    <row r="497" spans="1:2">
       <c r="A497" s="2" t="s">
         <v>1038</v>
       </c>
@@ -38674,7 +38666,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="498" hidden="1" spans="1:2">
+    <row r="498" spans="1:2">
       <c r="A498" s="2" t="s">
         <v>1040</v>
       </c>
@@ -38682,7 +38674,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:2">
+    <row r="499" spans="1:2">
       <c r="A499" s="2" t="s">
         <v>1042</v>
       </c>
@@ -38690,7 +38682,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:2">
+    <row r="500" spans="1:2">
       <c r="A500" s="2" t="s">
         <v>1044</v>
       </c>
@@ -38698,7 +38690,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="501" hidden="1" spans="1:2">
+    <row r="501" spans="1:2">
       <c r="A501" s="2" t="s">
         <v>1046</v>
       </c>
@@ -38706,7 +38698,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="1:2">
+    <row r="502" spans="1:2">
       <c r="A502" s="2" t="s">
         <v>1048</v>
       </c>
@@ -38714,7 +38706,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="1:2">
+    <row r="503" spans="1:2">
       <c r="A503" s="2" t="s">
         <v>1050</v>
       </c>
@@ -38722,7 +38714,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="1:2">
+    <row r="504" spans="1:2">
       <c r="A504" s="2" t="s">
         <v>1052</v>
       </c>
@@ -38730,7 +38722,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:2">
+    <row r="505" spans="1:2">
       <c r="A505" s="2" t="s">
         <v>1054</v>
       </c>
@@ -38738,7 +38730,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:2">
+    <row r="506" spans="1:2">
       <c r="A506" s="2" t="s">
         <v>1056</v>
       </c>
@@ -38746,7 +38738,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="1:2">
+    <row r="507" spans="1:2">
       <c r="A507" s="2" t="s">
         <v>1058</v>
       </c>
@@ -38754,7 +38746,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="1:2">
+    <row r="508" spans="1:2">
       <c r="A508" s="2" t="s">
         <v>1060</v>
       </c>
@@ -38762,7 +38754,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="1:2">
+    <row r="509" spans="1:2">
       <c r="A509" s="2" t="s">
         <v>1062</v>
       </c>
@@ -38770,7 +38762,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="1:2">
+    <row r="510" spans="1:2">
       <c r="A510" s="2" t="s">
         <v>1064</v>
       </c>
@@ -38778,7 +38770,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:2">
+    <row r="511" spans="1:2">
       <c r="A511" s="2" t="s">
         <v>1066</v>
       </c>
@@ -38786,7 +38778,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="1:2">
+    <row r="512" spans="1:2">
       <c r="A512" s="2" t="s">
         <v>1068</v>
       </c>
@@ -38794,7 +38786,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:2">
+    <row r="513" spans="1:2">
       <c r="A513" s="2" t="s">
         <v>1070</v>
       </c>
@@ -38802,7 +38794,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="514" hidden="1" spans="1:2">
+    <row r="514" spans="1:2">
       <c r="A514" s="2" t="s">
         <v>1072</v>
       </c>
@@ -38818,7 +38810,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="516" hidden="1" spans="1:2">
+    <row r="516" spans="1:2">
       <c r="A516" s="2" t="s">
         <v>1076</v>
       </c>
@@ -38826,7 +38818,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:2">
+    <row r="517" spans="1:2">
       <c r="A517" s="2" t="s">
         <v>1078</v>
       </c>
@@ -38834,7 +38826,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:2">
+    <row r="518" spans="1:2">
       <c r="A518" s="2" t="s">
         <v>1080</v>
       </c>
@@ -38842,7 +38834,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:2">
+    <row r="519" spans="1:2">
       <c r="A519" s="2" t="s">
         <v>1082</v>
       </c>
@@ -38850,7 +38842,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:2">
+    <row r="520" spans="1:2">
       <c r="A520" s="2" t="s">
         <v>1084</v>
       </c>
@@ -38858,7 +38850,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="521" hidden="1" spans="1:2">
+    <row r="521" spans="1:2">
       <c r="A521" s="2" t="s">
         <v>1086</v>
       </c>
@@ -38866,7 +38858,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="522" hidden="1" spans="1:2">
+    <row r="522" spans="1:2">
       <c r="A522" s="2" t="s">
         <v>1088</v>
       </c>
@@ -38874,7 +38866,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="1:2">
+    <row r="523" spans="1:2">
       <c r="A523" s="2" t="s">
         <v>1090</v>
       </c>
@@ -38882,7 +38874,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:2">
+    <row r="524" spans="1:2">
       <c r="A524" s="2" t="s">
         <v>1092</v>
       </c>
@@ -38890,7 +38882,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:2">
+    <row r="525" spans="1:2">
       <c r="A525" s="2" t="s">
         <v>1094</v>
       </c>
@@ -38898,7 +38890,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:2">
+    <row r="526" spans="1:2">
       <c r="A526" s="2" t="s">
         <v>1096</v>
       </c>
@@ -38914,7 +38906,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:2">
+    <row r="528" spans="1:2">
       <c r="A528" s="2" t="s">
         <v>1100</v>
       </c>
@@ -38922,7 +38914,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="529" hidden="1" spans="1:2">
+    <row r="529" spans="1:2">
       <c r="A529" s="6" t="s">
         <v>1102</v>
       </c>
@@ -38930,7 +38922,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="1:2">
+    <row r="530" spans="1:2">
       <c r="A530" s="6" t="s">
         <v>1104</v>
       </c>
@@ -38938,7 +38930,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:2">
+    <row r="531" spans="1:2">
       <c r="A531" s="6" t="s">
         <v>1106</v>
       </c>
@@ -38946,7 +38938,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:2">
+    <row r="532" spans="1:2">
       <c r="A532" s="6" t="s">
         <v>1108</v>
       </c>
@@ -38962,7 +38954,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="534" hidden="1" spans="1:2">
+    <row r="534" spans="1:2">
       <c r="A534" s="6" t="s">
         <v>1110</v>
       </c>
@@ -38978,7 +38970,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="1:2">
+    <row r="536" spans="1:2">
       <c r="A536" s="6" t="s">
         <v>1112</v>
       </c>
@@ -38986,7 +38978,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="1:2">
+    <row r="537" spans="1:2">
       <c r="A537" s="6" t="s">
         <v>1114</v>
       </c>
@@ -39010,7 +39002,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="1:2">
+    <row r="540" spans="1:2">
       <c r="A540" s="6" t="s">
         <v>1116</v>
       </c>
@@ -39018,7 +39010,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="1:2">
+    <row r="541" spans="1:2">
       <c r="A541" s="6" t="s">
         <v>1118</v>
       </c>
@@ -39026,7 +39018,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="1:2">
+    <row r="542" spans="1:2">
       <c r="A542" s="6" t="s">
         <v>1120</v>
       </c>
@@ -39034,7 +39026,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="543" hidden="1" spans="1:2">
+    <row r="543" spans="1:2">
       <c r="A543" s="6" t="s">
         <v>1122</v>
       </c>
@@ -39050,7 +39042,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:2">
+    <row r="545" spans="1:2">
       <c r="A545" s="6" t="s">
         <v>1124</v>
       </c>
@@ -39058,7 +39050,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="1:2">
+    <row r="546" spans="1:2">
       <c r="A546" s="6" t="s">
         <v>1126</v>
       </c>
@@ -39066,7 +39058,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="547" hidden="1" spans="1:2">
+    <row r="547" spans="1:2">
       <c r="A547" s="6" t="s">
         <v>1128</v>
       </c>
@@ -39082,7 +39074,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="1:2">
+    <row r="549" spans="1:2">
       <c r="A549" s="6" t="s">
         <v>1130</v>
       </c>
@@ -39106,7 +39098,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="552" hidden="1" spans="1:2">
+    <row r="552" spans="1:2">
       <c r="A552" s="6" t="s">
         <v>1132</v>
       </c>
@@ -39122,7 +39114,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="554" hidden="1" spans="1:2">
+    <row r="554" spans="1:2">
       <c r="A554" s="6" t="s">
         <v>1134</v>
       </c>
@@ -39162,7 +39154,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="559" hidden="1" spans="1:2">
+    <row r="559" spans="1:2">
       <c r="A559" s="6" t="s">
         <v>1136</v>
       </c>
@@ -39178,7 +39170,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="561" hidden="1" spans="1:2">
+    <row r="561" spans="1:2">
       <c r="A561" s="6" t="s">
         <v>1138</v>
       </c>
@@ -39186,7 +39178,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="562" hidden="1" spans="1:2">
+    <row r="562" spans="1:2">
       <c r="A562" s="6" t="s">
         <v>1140</v>
       </c>
@@ -39210,7 +39202,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="565" hidden="1" spans="1:2">
+    <row r="565" spans="1:2">
       <c r="A565" s="6" t="s">
         <v>1142</v>
       </c>
@@ -39218,7 +39210,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="566" hidden="1" spans="1:2">
+    <row r="566" spans="1:2">
       <c r="A566" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39226,7 +39218,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="567" hidden="1" spans="1:2">
+    <row r="567" spans="1:2">
       <c r="A567" s="6" t="s">
         <v>1146</v>
       </c>
@@ -39234,7 +39226,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="568" hidden="1" spans="1:2">
+    <row r="568" spans="1:2">
       <c r="A568" s="6" t="s">
         <v>1148</v>
       </c>
@@ -39242,7 +39234,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="569" hidden="1" spans="1:2">
+    <row r="569" spans="1:2">
       <c r="A569" s="6" t="s">
         <v>1150</v>
       </c>
@@ -39250,7 +39242,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="570" hidden="1" spans="1:2">
+    <row r="570" spans="1:2">
       <c r="A570" s="6" t="s">
         <v>1152</v>
       </c>
@@ -39258,7 +39250,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="571" hidden="1" spans="1:2">
+    <row r="571" spans="1:2">
       <c r="A571" s="6" t="s">
         <v>1154</v>
       </c>
@@ -39267,11 +39259,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A571">
-    <filterColumn colId="0">
-      <colorFilter dxfId="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A571"/>
   <conditionalFormatting sqref="A$1:A$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>

--- a/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$571</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$C$1:$L$531</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$B$1:$B$531</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3692,14 +3692,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3760,30 +3760,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3798,23 +3792,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3837,7 +3831,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3853,45 +3891,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3972,7 +3972,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3984,31 +4050,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4026,31 +4086,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4068,85 +4122,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4188,22 +4188,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4212,7 +4197,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4232,6 +4217,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4243,17 +4239,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4272,145 +4257,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4441,13 +4441,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4462,19 +4462,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4495,13 +4495,13 @@
     <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4516,16 +4516,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4534,10 +4534,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4553,7 +4553,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4565,13 +4565,13 @@
     <xf numFmtId="10" fontId="4" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4589,13 +4589,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4610,13 +4610,13 @@
     <xf numFmtId="10" fontId="5" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4625,41 +4625,41 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4674,19 +4674,19 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5093,11 +5093,11 @@
   <dimension ref="A1:AN531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$B$1:$B$531</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$571</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$B$1:$B$531</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3692,14 +3692,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3747,13 +3747,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3775,6 +3768,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3783,9 +3791,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3799,8 +3815,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3814,24 +3853,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3839,43 +3862,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3889,9 +3875,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3972,13 +3972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3990,7 +3990,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4002,19 +4020,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4032,7 +4050,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4044,25 +4098,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4074,79 +4140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4178,15 +4178,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -4198,6 +4189,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4217,6 +4223,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4224,6 +4245,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4242,181 +4272,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4441,13 +4441,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4462,19 +4462,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4495,13 +4495,13 @@
     <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4516,16 +4516,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4534,10 +4534,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4553,7 +4553,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4565,13 +4565,13 @@
     <xf numFmtId="10" fontId="4" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4589,13 +4589,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4610,13 +4610,13 @@
     <xf numFmtId="10" fontId="5" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4625,41 +4625,41 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4674,19 +4674,19 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4742,7 +4742,15 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5089,15 +5097,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -5178,7 +5186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" hidden="1" spans="1:40">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
@@ -5252,7 +5260,7 @@
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
     </row>
-    <row r="3" ht="41" spans="1:40">
+    <row r="3" ht="41" hidden="1" spans="1:40">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -5408,7 +5416,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" hidden="1" spans="1:40">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -5462,7 +5470,7 @@
       <c r="AM5" s="28"/>
       <c r="AN5" s="37"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" hidden="1" spans="1:40">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -5516,7 +5524,7 @@
       <c r="AM6" s="28"/>
       <c r="AN6" s="37"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" hidden="1" spans="1:40">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -5570,7 +5578,7 @@
       <c r="AM7" s="28"/>
       <c r="AN7" s="37"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" hidden="1" spans="1:40">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -5624,7 +5632,7 @@
       <c r="AM8" s="28"/>
       <c r="AN8" s="37"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" hidden="1" spans="1:40">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -5678,7 +5686,7 @@
       <c r="AM9" s="28"/>
       <c r="AN9" s="37"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" hidden="1" spans="1:40">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
@@ -5732,7 +5740,7 @@
       <c r="AM10" s="28"/>
       <c r="AN10" s="37"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" hidden="1" spans="1:40">
       <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
@@ -5786,7 +5794,7 @@
       <c r="AM11" s="28"/>
       <c r="AN11" s="37"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" hidden="1" spans="1:40">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -5840,7 +5848,7 @@
       <c r="AM12" s="28"/>
       <c r="AN12" s="37"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" hidden="1" spans="1:40">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
@@ -5894,7 +5902,7 @@
       <c r="AM13" s="28"/>
       <c r="AN13" s="37"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" hidden="1" spans="1:40">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -5948,7 +5956,7 @@
       <c r="AM14" s="28"/>
       <c r="AN14" s="37"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" hidden="1" spans="1:40">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
@@ -6002,7 +6010,7 @@
       <c r="AM15" s="28"/>
       <c r="AN15" s="37"/>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" hidden="1" spans="1:40">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
@@ -6056,7 +6064,7 @@
       <c r="AM16" s="28"/>
       <c r="AN16" s="37"/>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" hidden="1" spans="1:40">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -6164,7 +6172,7 @@
       <c r="AM18" s="28"/>
       <c r="AN18" s="37"/>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" hidden="1" spans="1:40">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -6218,7 +6226,7 @@
       <c r="AM19" s="28"/>
       <c r="AN19" s="37"/>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" hidden="1" spans="1:40">
       <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
@@ -6272,7 +6280,7 @@
       <c r="AM20" s="28"/>
       <c r="AN20" s="37"/>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" hidden="1" spans="1:40">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -6326,7 +6334,7 @@
       <c r="AM21" s="28"/>
       <c r="AN21" s="37"/>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" hidden="1" spans="1:40">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -6380,7 +6388,7 @@
       <c r="AM22" s="28"/>
       <c r="AN22" s="37"/>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" hidden="1" spans="1:40">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
@@ -6434,7 +6442,7 @@
       <c r="AM23" s="28"/>
       <c r="AN23" s="37"/>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" hidden="1" spans="1:40">
       <c r="A24" s="2" t="s">
         <v>85</v>
       </c>
@@ -6488,7 +6496,7 @@
       <c r="AM24" s="28"/>
       <c r="AN24" s="37"/>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" hidden="1" spans="1:40">
       <c r="A25" s="2" t="s">
         <v>87</v>
       </c>
@@ -6542,7 +6550,7 @@
       <c r="AM25" s="28"/>
       <c r="AN25" s="37"/>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" hidden="1" spans="1:40">
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
@@ -6596,7 +6604,7 @@
       <c r="AM26" s="28"/>
       <c r="AN26" s="37"/>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" hidden="1" spans="1:40">
       <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
@@ -6650,7 +6658,7 @@
       <c r="AM27" s="28"/>
       <c r="AN27" s="37"/>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" hidden="1" spans="1:40">
       <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
@@ -6704,7 +6712,7 @@
       <c r="AM28" s="28"/>
       <c r="AN28" s="37"/>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" hidden="1" spans="1:40">
       <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
@@ -6758,7 +6766,7 @@
       <c r="AM29" s="28"/>
       <c r="AN29" s="37"/>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" hidden="1" spans="1:40">
       <c r="A30" s="2" t="s">
         <v>97</v>
       </c>
@@ -6812,7 +6820,7 @@
       <c r="AM30" s="28"/>
       <c r="AN30" s="37"/>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" hidden="1" spans="1:40">
       <c r="A31" s="2" t="s">
         <v>99</v>
       </c>
@@ -6866,7 +6874,7 @@
       <c r="AM31" s="28"/>
       <c r="AN31" s="37"/>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" hidden="1" spans="1:40">
       <c r="A32" s="2" t="s">
         <v>101</v>
       </c>
@@ -6920,7 +6928,7 @@
       <c r="AM32" s="28"/>
       <c r="AN32" s="37"/>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" hidden="1" spans="1:40">
       <c r="A33" s="2" t="s">
         <v>103</v>
       </c>
@@ -7028,7 +7036,7 @@
       <c r="AM34" s="28"/>
       <c r="AN34" s="37"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" hidden="1" spans="1:40">
       <c r="A35" s="2" t="s">
         <v>107</v>
       </c>
@@ -7082,7 +7090,7 @@
       <c r="AM35" s="28"/>
       <c r="AN35" s="37"/>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" hidden="1" spans="1:40">
       <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
@@ -7136,7 +7144,7 @@
       <c r="AM36" s="28"/>
       <c r="AN36" s="37"/>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" hidden="1" spans="1:40">
       <c r="A37" s="2" t="s">
         <v>111</v>
       </c>
@@ -7190,7 +7198,7 @@
       <c r="AM37" s="28"/>
       <c r="AN37" s="37"/>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" hidden="1" spans="1:40">
       <c r="A38" s="2" t="s">
         <v>113</v>
       </c>
@@ -7244,7 +7252,7 @@
       <c r="AM38" s="28"/>
       <c r="AN38" s="37"/>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" hidden="1" spans="1:40">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -7298,7 +7306,7 @@
       <c r="AM39" s="28"/>
       <c r="AN39" s="37"/>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" hidden="1" spans="1:40">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -7352,7 +7360,7 @@
       <c r="AM40" s="28"/>
       <c r="AN40" s="37"/>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" hidden="1" spans="1:40">
       <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
@@ -7406,7 +7414,7 @@
       <c r="AM41" s="28"/>
       <c r="AN41" s="37"/>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" hidden="1" spans="1:40">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
@@ -7460,7 +7468,7 @@
       <c r="AM42" s="28"/>
       <c r="AN42" s="37"/>
     </row>
-    <row r="43" spans="1:40">
+    <row r="43" hidden="1" spans="1:40">
       <c r="A43" s="2" t="s">
         <v>123</v>
       </c>
@@ -7514,7 +7522,7 @@
       <c r="AM43" s="28"/>
       <c r="AN43" s="37"/>
     </row>
-    <row r="44" spans="1:40">
+    <row r="44" hidden="1" spans="1:40">
       <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
@@ -7568,7 +7576,7 @@
       <c r="AM44" s="28"/>
       <c r="AN44" s="37"/>
     </row>
-    <row r="45" spans="1:40">
+    <row r="45" hidden="1" spans="1:40">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -7622,7 +7630,7 @@
       <c r="AM45" s="28"/>
       <c r="AN45" s="37"/>
     </row>
-    <row r="46" spans="1:40">
+    <row r="46" hidden="1" spans="1:40">
       <c r="A46" s="2" t="s">
         <v>129</v>
       </c>
@@ -7676,7 +7684,7 @@
       <c r="AM46" s="28"/>
       <c r="AN46" s="37"/>
     </row>
-    <row r="47" spans="1:40">
+    <row r="47" hidden="1" spans="1:40">
       <c r="A47" s="2" t="s">
         <v>131</v>
       </c>
@@ -7730,7 +7738,7 @@
       <c r="AM47" s="28"/>
       <c r="AN47" s="37"/>
     </row>
-    <row r="48" spans="1:40">
+    <row r="48" hidden="1" spans="1:40">
       <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
@@ -7784,7 +7792,7 @@
       <c r="AM48" s="28"/>
       <c r="AN48" s="37"/>
     </row>
-    <row r="49" spans="1:40">
+    <row r="49" hidden="1" spans="1:40">
       <c r="A49" s="2" t="s">
         <v>135</v>
       </c>
@@ -7838,7 +7846,7 @@
       <c r="AM49" s="28"/>
       <c r="AN49" s="37"/>
     </row>
-    <row r="50" spans="1:40">
+    <row r="50" hidden="1" spans="1:40">
       <c r="A50" s="2" t="s">
         <v>137</v>
       </c>
@@ -7892,7 +7900,7 @@
       <c r="AM50" s="28"/>
       <c r="AN50" s="37"/>
     </row>
-    <row r="51" spans="1:40">
+    <row r="51" hidden="1" spans="1:40">
       <c r="A51" s="2" t="s">
         <v>139</v>
       </c>
@@ -7946,7 +7954,7 @@
       <c r="AM51" s="28"/>
       <c r="AN51" s="37"/>
     </row>
-    <row r="52" spans="1:40">
+    <row r="52" hidden="1" spans="1:40">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
@@ -8000,7 +8008,7 @@
       <c r="AM52" s="28"/>
       <c r="AN52" s="37"/>
     </row>
-    <row r="53" spans="1:40">
+    <row r="53" hidden="1" spans="1:40">
       <c r="A53" s="2" t="s">
         <v>143</v>
       </c>
@@ -8054,7 +8062,7 @@
       <c r="AM53" s="28"/>
       <c r="AN53" s="37"/>
     </row>
-    <row r="54" spans="1:40">
+    <row r="54" hidden="1" spans="1:40">
       <c r="A54" s="2" t="s">
         <v>145</v>
       </c>
@@ -8108,7 +8116,7 @@
       <c r="AM54" s="28"/>
       <c r="AN54" s="37"/>
     </row>
-    <row r="55" spans="1:40">
+    <row r="55" hidden="1" spans="1:40">
       <c r="A55" s="2" t="s">
         <v>147</v>
       </c>
@@ -8162,7 +8170,7 @@
       <c r="AM55" s="28"/>
       <c r="AN55" s="37"/>
     </row>
-    <row r="56" spans="1:40">
+    <row r="56" hidden="1" spans="1:40">
       <c r="A56" s="2" t="s">
         <v>149</v>
       </c>
@@ -8216,7 +8224,7 @@
       <c r="AM56" s="28"/>
       <c r="AN56" s="37"/>
     </row>
-    <row r="57" spans="1:40">
+    <row r="57" hidden="1" spans="1:40">
       <c r="A57" s="2" t="s">
         <v>151</v>
       </c>
@@ -8270,7 +8278,7 @@
       <c r="AM57" s="28"/>
       <c r="AN57" s="37"/>
     </row>
-    <row r="58" spans="1:40">
+    <row r="58" hidden="1" spans="1:40">
       <c r="A58" s="2" t="s">
         <v>153</v>
       </c>
@@ -8400,7 +8408,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="60" spans="1:40">
+    <row r="60" hidden="1" spans="1:40">
       <c r="A60" s="2" t="s">
         <v>157</v>
       </c>
@@ -8454,7 +8462,7 @@
       <c r="AM60" s="28"/>
       <c r="AN60" s="37"/>
     </row>
-    <row r="61" spans="1:40">
+    <row r="61" hidden="1" spans="1:40">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -8508,7 +8516,7 @@
       <c r="AM61" s="28"/>
       <c r="AN61" s="37"/>
     </row>
-    <row r="62" spans="1:40">
+    <row r="62" hidden="1" spans="1:40">
       <c r="A62" s="2" t="s">
         <v>161</v>
       </c>
@@ -8562,7 +8570,7 @@
       <c r="AM62" s="28"/>
       <c r="AN62" s="37"/>
     </row>
-    <row r="63" spans="1:40">
+    <row r="63" hidden="1" spans="1:40">
       <c r="A63" s="2" t="s">
         <v>163</v>
       </c>
@@ -8616,7 +8624,7 @@
       <c r="AM63" s="28"/>
       <c r="AN63" s="37"/>
     </row>
-    <row r="64" spans="1:40">
+    <row r="64" hidden="1" spans="1:40">
       <c r="A64" s="2" t="s">
         <v>165</v>
       </c>
@@ -8670,7 +8678,7 @@
       <c r="AM64" s="28"/>
       <c r="AN64" s="37"/>
     </row>
-    <row r="65" spans="1:40">
+    <row r="65" hidden="1" spans="1:40">
       <c r="A65" s="2" t="s">
         <v>167</v>
       </c>
@@ -8724,7 +8732,7 @@
       <c r="AM65" s="28"/>
       <c r="AN65" s="37"/>
     </row>
-    <row r="66" spans="1:40">
+    <row r="66" hidden="1" spans="1:40">
       <c r="A66" s="2" t="s">
         <v>169</v>
       </c>
@@ -8778,7 +8786,7 @@
       <c r="AM66" s="28"/>
       <c r="AN66" s="37"/>
     </row>
-    <row r="67" spans="1:40">
+    <row r="67" hidden="1" spans="1:40">
       <c r="A67" s="2" t="s">
         <v>171</v>
       </c>
@@ -8832,7 +8840,7 @@
       <c r="AM67" s="28"/>
       <c r="AN67" s="37"/>
     </row>
-    <row r="68" spans="1:40">
+    <row r="68" hidden="1" spans="1:40">
       <c r="A68" s="2" t="s">
         <v>173</v>
       </c>
@@ -8886,7 +8894,7 @@
       <c r="AM68" s="28"/>
       <c r="AN68" s="37"/>
     </row>
-    <row r="69" spans="1:40">
+    <row r="69" hidden="1" spans="1:40">
       <c r="A69" s="2" t="s">
         <v>175</v>
       </c>
@@ -8940,7 +8948,7 @@
       <c r="AM69" s="28"/>
       <c r="AN69" s="37"/>
     </row>
-    <row r="70" spans="1:40">
+    <row r="70" hidden="1" spans="1:40">
       <c r="A70" s="2" t="s">
         <v>177</v>
       </c>
@@ -8994,7 +9002,7 @@
       <c r="AM70" s="28"/>
       <c r="AN70" s="37"/>
     </row>
-    <row r="71" spans="1:40">
+    <row r="71" hidden="1" spans="1:40">
       <c r="A71" s="2" t="s">
         <v>179</v>
       </c>
@@ -9048,7 +9056,7 @@
       <c r="AM71" s="28"/>
       <c r="AN71" s="37"/>
     </row>
-    <row r="72" spans="1:40">
+    <row r="72" hidden="1" spans="1:40">
       <c r="A72" s="2" t="s">
         <v>181</v>
       </c>
@@ -9102,7 +9110,7 @@
       <c r="AM72" s="28"/>
       <c r="AN72" s="37"/>
     </row>
-    <row r="73" spans="1:40">
+    <row r="73" hidden="1" spans="1:40">
       <c r="A73" s="2" t="s">
         <v>183</v>
       </c>
@@ -9156,7 +9164,7 @@
       <c r="AM73" s="28"/>
       <c r="AN73" s="37"/>
     </row>
-    <row r="74" spans="1:40">
+    <row r="74" hidden="1" spans="1:40">
       <c r="A74" s="2" t="s">
         <v>185</v>
       </c>
@@ -9210,7 +9218,7 @@
       <c r="AM74" s="28"/>
       <c r="AN74" s="37"/>
     </row>
-    <row r="75" spans="1:40">
+    <row r="75" hidden="1" spans="1:40">
       <c r="A75" s="39" t="s">
         <v>187</v>
       </c>
@@ -9264,7 +9272,7 @@
       <c r="AM75" s="28"/>
       <c r="AN75" s="37"/>
     </row>
-    <row r="76" spans="1:40">
+    <row r="76" hidden="1" spans="1:40">
       <c r="A76" s="2" t="s">
         <v>189</v>
       </c>
@@ -9318,7 +9326,7 @@
       <c r="AM76" s="28"/>
       <c r="AN76" s="37"/>
     </row>
-    <row r="77" spans="1:40">
+    <row r="77" hidden="1" spans="1:40">
       <c r="A77" s="2" t="s">
         <v>191</v>
       </c>
@@ -9372,7 +9380,7 @@
       <c r="AM77" s="28"/>
       <c r="AN77" s="37"/>
     </row>
-    <row r="78" spans="1:40">
+    <row r="78" hidden="1" spans="1:40">
       <c r="A78" s="2" t="s">
         <v>193</v>
       </c>
@@ -9426,7 +9434,7 @@
       <c r="AM78" s="28"/>
       <c r="AN78" s="37"/>
     </row>
-    <row r="79" spans="1:40">
+    <row r="79" hidden="1" spans="1:40">
       <c r="A79" s="2" t="s">
         <v>195</v>
       </c>
@@ -9480,7 +9488,7 @@
       <c r="AM79" s="28"/>
       <c r="AN79" s="37"/>
     </row>
-    <row r="80" spans="1:40">
+    <row r="80" hidden="1" spans="1:40">
       <c r="A80" s="2" t="s">
         <v>197</v>
       </c>
@@ -9534,7 +9542,7 @@
       <c r="AM80" s="28"/>
       <c r="AN80" s="37"/>
     </row>
-    <row r="81" spans="1:40">
+    <row r="81" hidden="1" spans="1:40">
       <c r="A81" s="2" t="s">
         <v>199</v>
       </c>
@@ -9588,7 +9596,7 @@
       <c r="AM81" s="28"/>
       <c r="AN81" s="37"/>
     </row>
-    <row r="82" spans="1:40">
+    <row r="82" hidden="1" spans="1:40">
       <c r="A82" s="2" t="s">
         <v>201</v>
       </c>
@@ -9642,7 +9650,7 @@
       <c r="AM82" s="28"/>
       <c r="AN82" s="37"/>
     </row>
-    <row r="83" spans="1:40">
+    <row r="83" hidden="1" spans="1:40">
       <c r="A83" s="2" t="s">
         <v>203</v>
       </c>
@@ -9696,7 +9704,7 @@
       <c r="AM83" s="28"/>
       <c r="AN83" s="37"/>
     </row>
-    <row r="84" spans="1:40">
+    <row r="84" hidden="1" spans="1:40">
       <c r="A84" s="2" t="s">
         <v>205</v>
       </c>
@@ -9750,7 +9758,7 @@
       <c r="AM84" s="28"/>
       <c r="AN84" s="37"/>
     </row>
-    <row r="85" spans="1:40">
+    <row r="85" hidden="1" spans="1:40">
       <c r="A85" s="2" t="s">
         <v>207</v>
       </c>
@@ -9804,7 +9812,7 @@
       <c r="AM85" s="28"/>
       <c r="AN85" s="37"/>
     </row>
-    <row r="86" spans="1:40">
+    <row r="86" hidden="1" spans="1:40">
       <c r="A86" s="2" t="s">
         <v>209</v>
       </c>
@@ -9912,7 +9920,7 @@
       <c r="AM87" s="28"/>
       <c r="AN87" s="37"/>
     </row>
-    <row r="88" spans="1:40">
+    <row r="88" hidden="1" spans="1:40">
       <c r="A88" s="2" t="s">
         <v>213</v>
       </c>
@@ -9966,7 +9974,7 @@
       <c r="AM88" s="28"/>
       <c r="AN88" s="37"/>
     </row>
-    <row r="89" spans="1:40">
+    <row r="89" hidden="1" spans="1:40">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
@@ -10020,7 +10028,7 @@
       <c r="AM89" s="28"/>
       <c r="AN89" s="37"/>
     </row>
-    <row r="90" spans="1:40">
+    <row r="90" hidden="1" spans="1:40">
       <c r="A90" s="2" t="s">
         <v>217</v>
       </c>
@@ -10074,7 +10082,7 @@
       <c r="AM90" s="28"/>
       <c r="AN90" s="37"/>
     </row>
-    <row r="91" spans="1:40">
+    <row r="91" hidden="1" spans="1:40">
       <c r="A91" s="2" t="s">
         <v>219</v>
       </c>
@@ -10128,7 +10136,7 @@
       <c r="AM91" s="28"/>
       <c r="AN91" s="37"/>
     </row>
-    <row r="92" spans="1:40">
+    <row r="92" hidden="1" spans="1:40">
       <c r="A92" s="2" t="s">
         <v>221</v>
       </c>
@@ -10182,7 +10190,7 @@
       <c r="AM92" s="28"/>
       <c r="AN92" s="37"/>
     </row>
-    <row r="93" spans="1:40">
+    <row r="93" hidden="1" spans="1:40">
       <c r="A93" s="2" t="s">
         <v>223</v>
       </c>
@@ -10236,7 +10244,7 @@
       <c r="AM93" s="28"/>
       <c r="AN93" s="37"/>
     </row>
-    <row r="94" spans="1:40">
+    <row r="94" hidden="1" spans="1:40">
       <c r="A94" s="2" t="s">
         <v>225</v>
       </c>
@@ -10290,7 +10298,7 @@
       <c r="AM94" s="28"/>
       <c r="AN94" s="37"/>
     </row>
-    <row r="95" spans="1:40">
+    <row r="95" hidden="1" spans="1:40">
       <c r="A95" s="2" t="s">
         <v>227</v>
       </c>
@@ -10344,7 +10352,7 @@
       <c r="AM95" s="28"/>
       <c r="AN95" s="37"/>
     </row>
-    <row r="96" spans="1:40">
+    <row r="96" hidden="1" spans="1:40">
       <c r="A96" s="2" t="s">
         <v>229</v>
       </c>
@@ -10398,7 +10406,7 @@
       <c r="AM96" s="28"/>
       <c r="AN96" s="37"/>
     </row>
-    <row r="97" spans="1:40">
+    <row r="97" hidden="1" spans="1:40">
       <c r="A97" s="2" t="s">
         <v>231</v>
       </c>
@@ -10452,7 +10460,7 @@
       <c r="AM97" s="28"/>
       <c r="AN97" s="37"/>
     </row>
-    <row r="98" spans="1:40">
+    <row r="98" hidden="1" spans="1:40">
       <c r="A98" s="2" t="s">
         <v>233</v>
       </c>
@@ -10506,7 +10514,7 @@
       <c r="AM98" s="28"/>
       <c r="AN98" s="37"/>
     </row>
-    <row r="99" spans="1:40">
+    <row r="99" hidden="1" spans="1:40">
       <c r="A99" s="2" t="s">
         <v>235</v>
       </c>
@@ -10560,7 +10568,7 @@
       <c r="AM99" s="28"/>
       <c r="AN99" s="37"/>
     </row>
-    <row r="100" spans="1:40">
+    <row r="100" hidden="1" spans="1:40">
       <c r="A100" s="2" t="s">
         <v>237</v>
       </c>
@@ -10614,7 +10622,7 @@
       <c r="AM100" s="28"/>
       <c r="AN100" s="37"/>
     </row>
-    <row r="101" spans="1:40">
+    <row r="101" hidden="1" spans="1:40">
       <c r="A101" s="2" t="s">
         <v>239</v>
       </c>
@@ -10668,7 +10676,7 @@
       <c r="AM101" s="28"/>
       <c r="AN101" s="37"/>
     </row>
-    <row r="102" spans="1:40">
+    <row r="102" hidden="1" spans="1:40">
       <c r="A102" s="2" t="s">
         <v>241</v>
       </c>
@@ -10722,7 +10730,7 @@
       <c r="AM102" s="28"/>
       <c r="AN102" s="37"/>
     </row>
-    <row r="103" spans="1:40">
+    <row r="103" hidden="1" spans="1:40">
       <c r="A103" s="2" t="s">
         <v>243</v>
       </c>
@@ -10776,7 +10784,7 @@
       <c r="AM103" s="28"/>
       <c r="AN103" s="37"/>
     </row>
-    <row r="104" spans="1:40">
+    <row r="104" hidden="1" spans="1:40">
       <c r="A104" s="2" t="s">
         <v>245</v>
       </c>
@@ -10884,7 +10892,7 @@
       <c r="AM105" s="28"/>
       <c r="AN105" s="37"/>
     </row>
-    <row r="106" spans="1:40">
+    <row r="106" hidden="1" spans="1:40">
       <c r="A106" s="2" t="s">
         <v>249</v>
       </c>
@@ -10938,7 +10946,7 @@
       <c r="AM106" s="28"/>
       <c r="AN106" s="37"/>
     </row>
-    <row r="107" spans="1:40">
+    <row r="107" hidden="1" spans="1:40">
       <c r="A107" s="2" t="s">
         <v>251</v>
       </c>
@@ -10992,7 +11000,7 @@
       <c r="AM107" s="28"/>
       <c r="AN107" s="37"/>
     </row>
-    <row r="108" spans="1:40">
+    <row r="108" hidden="1" spans="1:40">
       <c r="A108" s="2" t="s">
         <v>253</v>
       </c>
@@ -11046,7 +11054,7 @@
       <c r="AM108" s="28"/>
       <c r="AN108" s="37"/>
     </row>
-    <row r="109" spans="1:40">
+    <row r="109" hidden="1" spans="1:40">
       <c r="A109" s="2" t="s">
         <v>255</v>
       </c>
@@ -11100,7 +11108,7 @@
       <c r="AM109" s="28"/>
       <c r="AN109" s="37"/>
     </row>
-    <row r="110" spans="1:40">
+    <row r="110" hidden="1" spans="1:40">
       <c r="A110" s="2" t="s">
         <v>257</v>
       </c>
@@ -11154,7 +11162,7 @@
       <c r="AM110" s="28"/>
       <c r="AN110" s="37"/>
     </row>
-    <row r="111" spans="1:40">
+    <row r="111" hidden="1" spans="1:40">
       <c r="A111" s="2" t="s">
         <v>259</v>
       </c>
@@ -11208,7 +11216,7 @@
       <c r="AM111" s="28"/>
       <c r="AN111" s="37"/>
     </row>
-    <row r="112" spans="1:40">
+    <row r="112" hidden="1" spans="1:40">
       <c r="A112" s="2" t="s">
         <v>261</v>
       </c>
@@ -11262,7 +11270,7 @@
       <c r="AM112" s="28"/>
       <c r="AN112" s="37"/>
     </row>
-    <row r="113" spans="1:40">
+    <row r="113" hidden="1" spans="1:40">
       <c r="A113" s="2" t="s">
         <v>263</v>
       </c>
@@ -11316,7 +11324,7 @@
       <c r="AM113" s="28"/>
       <c r="AN113" s="37"/>
     </row>
-    <row r="114" spans="1:40">
+    <row r="114" hidden="1" spans="1:40">
       <c r="A114" s="2" t="s">
         <v>265</v>
       </c>
@@ -11370,7 +11378,7 @@
       <c r="AM114" s="28"/>
       <c r="AN114" s="37"/>
     </row>
-    <row r="115" spans="1:40">
+    <row r="115" hidden="1" spans="1:40">
       <c r="A115" s="2" t="s">
         <v>267</v>
       </c>
@@ -11424,7 +11432,7 @@
       <c r="AM115" s="28"/>
       <c r="AN115" s="37"/>
     </row>
-    <row r="116" spans="1:40">
+    <row r="116" hidden="1" spans="1:40">
       <c r="A116" s="2" t="s">
         <v>269</v>
       </c>
@@ -11478,7 +11486,7 @@
       <c r="AM116" s="28"/>
       <c r="AN116" s="37"/>
     </row>
-    <row r="117" spans="1:40">
+    <row r="117" hidden="1" spans="1:40">
       <c r="A117" s="2" t="s">
         <v>271</v>
       </c>
@@ -11532,7 +11540,7 @@
       <c r="AM117" s="28"/>
       <c r="AN117" s="37"/>
     </row>
-    <row r="118" spans="1:40">
+    <row r="118" hidden="1" spans="1:40">
       <c r="A118" s="2" t="s">
         <v>273</v>
       </c>
@@ -11586,7 +11594,7 @@
       <c r="AM118" s="28"/>
       <c r="AN118" s="37"/>
     </row>
-    <row r="119" spans="1:40">
+    <row r="119" hidden="1" spans="1:40">
       <c r="A119" s="2" t="s">
         <v>275</v>
       </c>
@@ -11640,7 +11648,7 @@
       <c r="AM119" s="28"/>
       <c r="AN119" s="37"/>
     </row>
-    <row r="120" spans="1:40">
+    <row r="120" hidden="1" spans="1:40">
       <c r="A120" s="2" t="s">
         <v>277</v>
       </c>
@@ -11694,7 +11702,7 @@
       <c r="AM120" s="28"/>
       <c r="AN120" s="37"/>
     </row>
-    <row r="121" spans="1:40">
+    <row r="121" hidden="1" spans="1:40">
       <c r="A121" s="2" t="s">
         <v>279</v>
       </c>
@@ -11748,7 +11756,7 @@
       <c r="AM121" s="28"/>
       <c r="AN121" s="37"/>
     </row>
-    <row r="122" spans="1:40">
+    <row r="122" hidden="1" spans="1:40">
       <c r="A122" s="2" t="s">
         <v>281</v>
       </c>
@@ -11802,7 +11810,7 @@
       <c r="AM122" s="28"/>
       <c r="AN122" s="37"/>
     </row>
-    <row r="123" spans="1:40">
+    <row r="123" hidden="1" spans="1:40">
       <c r="A123" s="2" t="s">
         <v>283</v>
       </c>
@@ -11856,7 +11864,7 @@
       <c r="AM123" s="28"/>
       <c r="AN123" s="37"/>
     </row>
-    <row r="124" spans="1:40">
+    <row r="124" hidden="1" spans="1:40">
       <c r="A124" s="2" t="s">
         <v>285</v>
       </c>
@@ -11910,7 +11918,7 @@
       <c r="AM124" s="28"/>
       <c r="AN124" s="37"/>
     </row>
-    <row r="125" spans="1:40">
+    <row r="125" hidden="1" spans="1:40">
       <c r="A125" s="2" t="s">
         <v>287</v>
       </c>
@@ -11964,7 +11972,7 @@
       <c r="AM125" s="28"/>
       <c r="AN125" s="37"/>
     </row>
-    <row r="126" spans="1:40">
+    <row r="126" hidden="1" spans="1:40">
       <c r="A126" s="2" t="s">
         <v>289</v>
       </c>
@@ -12018,7 +12026,7 @@
       <c r="AM126" s="28"/>
       <c r="AN126" s="37"/>
     </row>
-    <row r="127" spans="1:40">
+    <row r="127" hidden="1" spans="1:40">
       <c r="A127" s="2" t="s">
         <v>291</v>
       </c>
@@ -12072,7 +12080,7 @@
       <c r="AM127" s="28"/>
       <c r="AN127" s="37"/>
     </row>
-    <row r="128" spans="1:40">
+    <row r="128" hidden="1" spans="1:40">
       <c r="A128" s="2" t="s">
         <v>293</v>
       </c>
@@ -12126,7 +12134,7 @@
       <c r="AM128" s="28"/>
       <c r="AN128" s="37"/>
     </row>
-    <row r="129" spans="1:40">
+    <row r="129" hidden="1" spans="1:40">
       <c r="A129" s="2" t="s">
         <v>295</v>
       </c>
@@ -12180,7 +12188,7 @@
       <c r="AM129" s="28"/>
       <c r="AN129" s="37"/>
     </row>
-    <row r="130" spans="1:40">
+    <row r="130" hidden="1" spans="1:40">
       <c r="A130" s="2" t="s">
         <v>297</v>
       </c>
@@ -12234,7 +12242,7 @@
       <c r="AM130" s="28"/>
       <c r="AN130" s="37"/>
     </row>
-    <row r="131" spans="1:40">
+    <row r="131" hidden="1" spans="1:40">
       <c r="A131" s="2" t="s">
         <v>299</v>
       </c>
@@ -12288,7 +12296,7 @@
       <c r="AM131" s="28"/>
       <c r="AN131" s="37"/>
     </row>
-    <row r="132" spans="1:40">
+    <row r="132" hidden="1" spans="1:40">
       <c r="A132" s="2" t="s">
         <v>301</v>
       </c>
@@ -12342,7 +12350,7 @@
       <c r="AM132" s="28"/>
       <c r="AN132" s="37"/>
     </row>
-    <row r="133" spans="1:40">
+    <row r="133" hidden="1" spans="1:40">
       <c r="A133" s="2" t="s">
         <v>303</v>
       </c>
@@ -12396,7 +12404,7 @@
       <c r="AM133" s="28"/>
       <c r="AN133" s="37"/>
     </row>
-    <row r="134" spans="1:40">
+    <row r="134" hidden="1" spans="1:40">
       <c r="A134" s="2" t="s">
         <v>305</v>
       </c>
@@ -12450,7 +12458,7 @@
       <c r="AM134" s="28"/>
       <c r="AN134" s="37"/>
     </row>
-    <row r="135" spans="1:40">
+    <row r="135" hidden="1" spans="1:40">
       <c r="A135" s="2" t="s">
         <v>307</v>
       </c>
@@ -12590,7 +12598,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="137" spans="1:40">
+    <row r="137" hidden="1" spans="1:40">
       <c r="A137" s="2" t="s">
         <v>311</v>
       </c>
@@ -12644,7 +12652,7 @@
       <c r="AM137" s="28"/>
       <c r="AN137" s="37"/>
     </row>
-    <row r="138" spans="1:40">
+    <row r="138" hidden="1" spans="1:40">
       <c r="A138" s="2" t="s">
         <v>313</v>
       </c>
@@ -12752,7 +12760,7 @@
       <c r="AM139" s="28"/>
       <c r="AN139" s="37"/>
     </row>
-    <row r="140" spans="1:40">
+    <row r="140" hidden="1" spans="1:40">
       <c r="A140" s="2" t="s">
         <v>317</v>
       </c>
@@ -12806,7 +12814,7 @@
       <c r="AM140" s="28"/>
       <c r="AN140" s="37"/>
     </row>
-    <row r="141" spans="1:40">
+    <row r="141" hidden="1" spans="1:40">
       <c r="A141" s="2" t="s">
         <v>319</v>
       </c>
@@ -12860,7 +12868,7 @@
       <c r="AM141" s="28"/>
       <c r="AN141" s="37"/>
     </row>
-    <row r="142" spans="1:40">
+    <row r="142" hidden="1" spans="1:40">
       <c r="A142" s="2" t="s">
         <v>321</v>
       </c>
@@ -12914,7 +12922,7 @@
       <c r="AM142" s="28"/>
       <c r="AN142" s="37"/>
     </row>
-    <row r="143" spans="1:40">
+    <row r="143" hidden="1" spans="1:40">
       <c r="A143" s="2" t="s">
         <v>323</v>
       </c>
@@ -12968,7 +12976,7 @@
       <c r="AM143" s="28"/>
       <c r="AN143" s="37"/>
     </row>
-    <row r="144" spans="1:40">
+    <row r="144" hidden="1" spans="1:40">
       <c r="A144" s="2" t="s">
         <v>325</v>
       </c>
@@ -13076,7 +13084,7 @@
       <c r="AM145" s="28"/>
       <c r="AN145" s="37"/>
     </row>
-    <row r="146" spans="1:40">
+    <row r="146" hidden="1" spans="1:40">
       <c r="A146" s="2" t="s">
         <v>329</v>
       </c>
@@ -13206,7 +13214,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="148" spans="1:40">
+    <row r="148" hidden="1" spans="1:40">
       <c r="A148" s="2" t="s">
         <v>333</v>
       </c>
@@ -13260,7 +13268,7 @@
       <c r="AM148" s="28"/>
       <c r="AN148" s="37"/>
     </row>
-    <row r="149" spans="1:40">
+    <row r="149" hidden="1" spans="1:40">
       <c r="A149" s="2" t="s">
         <v>335</v>
       </c>
@@ -13314,7 +13322,7 @@
       <c r="AM149" s="28"/>
       <c r="AN149" s="37"/>
     </row>
-    <row r="150" spans="1:40">
+    <row r="150" hidden="1" spans="1:40">
       <c r="A150" s="2" t="s">
         <v>337</v>
       </c>
@@ -13368,7 +13376,7 @@
       <c r="AM150" s="28"/>
       <c r="AN150" s="37"/>
     </row>
-    <row r="151" spans="1:40">
+    <row r="151" hidden="1" spans="1:40">
       <c r="A151" s="2" t="s">
         <v>339</v>
       </c>
@@ -13422,7 +13430,7 @@
       <c r="AM151" s="28"/>
       <c r="AN151" s="37"/>
     </row>
-    <row r="152" spans="1:40">
+    <row r="152" hidden="1" spans="1:40">
       <c r="A152" s="2" t="s">
         <v>341</v>
       </c>
@@ -13476,7 +13484,7 @@
       <c r="AM152" s="28"/>
       <c r="AN152" s="37"/>
     </row>
-    <row r="153" spans="1:40">
+    <row r="153" hidden="1" spans="1:40">
       <c r="A153" s="2" t="s">
         <v>343</v>
       </c>
@@ -13530,7 +13538,7 @@
       <c r="AM153" s="28"/>
       <c r="AN153" s="37"/>
     </row>
-    <row r="154" spans="1:40">
+    <row r="154" hidden="1" spans="1:40">
       <c r="A154" s="2" t="s">
         <v>345</v>
       </c>
@@ -13584,7 +13592,7 @@
       <c r="AM154" s="28"/>
       <c r="AN154" s="37"/>
     </row>
-    <row r="155" spans="1:40">
+    <row r="155" hidden="1" spans="1:40">
       <c r="A155" s="2" t="s">
         <v>347</v>
       </c>
@@ -13638,7 +13646,7 @@
       <c r="AM155" s="28"/>
       <c r="AN155" s="37"/>
     </row>
-    <row r="156" spans="1:40">
+    <row r="156" hidden="1" spans="1:40">
       <c r="A156" s="2" t="s">
         <v>349</v>
       </c>
@@ -13746,7 +13754,7 @@
       <c r="AM157" s="28"/>
       <c r="AN157" s="37"/>
     </row>
-    <row r="158" spans="1:40">
+    <row r="158" hidden="1" spans="1:40">
       <c r="A158" s="2" t="s">
         <v>353</v>
       </c>
@@ -13871,7 +13879,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="160" spans="1:40">
+    <row r="160" hidden="1" spans="1:40">
       <c r="A160" s="2" t="s">
         <v>357</v>
       </c>
@@ -13925,7 +13933,7 @@
       <c r="AM160" s="28"/>
       <c r="AN160" s="37"/>
     </row>
-    <row r="161" spans="1:40">
+    <row r="161" hidden="1" spans="1:40">
       <c r="A161" s="2" t="s">
         <v>359</v>
       </c>
@@ -13979,7 +13987,7 @@
       <c r="AM161" s="28"/>
       <c r="AN161" s="37"/>
     </row>
-    <row r="162" spans="1:40">
+    <row r="162" hidden="1" spans="1:40">
       <c r="A162" s="2" t="s">
         <v>361</v>
       </c>
@@ -14033,7 +14041,7 @@
       <c r="AM162" s="28"/>
       <c r="AN162" s="37"/>
     </row>
-    <row r="163" spans="1:40">
+    <row r="163" hidden="1" spans="1:40">
       <c r="A163" s="2" t="s">
         <v>363</v>
       </c>
@@ -14087,7 +14095,7 @@
       <c r="AM163" s="28"/>
       <c r="AN163" s="37"/>
     </row>
-    <row r="164" spans="1:40">
+    <row r="164" hidden="1" spans="1:40">
       <c r="A164" s="2" t="s">
         <v>365</v>
       </c>
@@ -14141,7 +14149,7 @@
       <c r="AM164" s="28"/>
       <c r="AN164" s="37"/>
     </row>
-    <row r="165" spans="1:40">
+    <row r="165" hidden="1" spans="1:40">
       <c r="A165" s="2" t="s">
         <v>367</v>
       </c>
@@ -14195,7 +14203,7 @@
       <c r="AM165" s="28"/>
       <c r="AN165" s="37"/>
     </row>
-    <row r="166" spans="1:40">
+    <row r="166" hidden="1" spans="1:40">
       <c r="A166" s="2" t="s">
         <v>369</v>
       </c>
@@ -14249,7 +14257,7 @@
       <c r="AM166" s="28"/>
       <c r="AN166" s="37"/>
     </row>
-    <row r="167" spans="1:40">
+    <row r="167" hidden="1" spans="1:40">
       <c r="A167" s="2" t="s">
         <v>371</v>
       </c>
@@ -14303,7 +14311,7 @@
       <c r="AM167" s="28"/>
       <c r="AN167" s="37"/>
     </row>
-    <row r="168" spans="1:40">
+    <row r="168" hidden="1" spans="1:40">
       <c r="A168" s="2" t="s">
         <v>373</v>
       </c>
@@ -14357,7 +14365,7 @@
       <c r="AM168" s="28"/>
       <c r="AN168" s="37"/>
     </row>
-    <row r="169" spans="1:40">
+    <row r="169" hidden="1" spans="1:40">
       <c r="A169" s="2" t="s">
         <v>375</v>
       </c>
@@ -14411,7 +14419,7 @@
       <c r="AM169" s="28"/>
       <c r="AN169" s="37"/>
     </row>
-    <row r="170" spans="1:40">
+    <row r="170" hidden="1" spans="1:40">
       <c r="A170" s="2" t="s">
         <v>377</v>
       </c>
@@ -14465,7 +14473,7 @@
       <c r="AM170" s="28"/>
       <c r="AN170" s="37"/>
     </row>
-    <row r="171" spans="1:40">
+    <row r="171" hidden="1" spans="1:40">
       <c r="A171" s="2" t="s">
         <v>379</v>
       </c>
@@ -14519,7 +14527,7 @@
       <c r="AM171" s="28"/>
       <c r="AN171" s="37"/>
     </row>
-    <row r="172" spans="1:40">
+    <row r="172" hidden="1" spans="1:40">
       <c r="A172" s="2" t="s">
         <v>381</v>
       </c>
@@ -14573,7 +14581,7 @@
       <c r="AM172" s="28"/>
       <c r="AN172" s="37"/>
     </row>
-    <row r="173" spans="1:40">
+    <row r="173" hidden="1" spans="1:40">
       <c r="A173" s="2" t="s">
         <v>383</v>
       </c>
@@ -14714,7 +14722,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="175" spans="1:40">
+    <row r="175" hidden="1" spans="1:40">
       <c r="A175" s="2" t="s">
         <v>388</v>
       </c>
@@ -14768,7 +14776,7 @@
       <c r="AM175" s="28"/>
       <c r="AN175" s="37"/>
     </row>
-    <row r="176" spans="1:40">
+    <row r="176" hidden="1" spans="1:40">
       <c r="A176" s="2" t="s">
         <v>390</v>
       </c>
@@ -14822,7 +14830,7 @@
       <c r="AM176" s="28"/>
       <c r="AN176" s="37"/>
     </row>
-    <row r="177" spans="1:40">
+    <row r="177" hidden="1" spans="1:40">
       <c r="A177" s="2" t="s">
         <v>392</v>
       </c>
@@ -14876,7 +14884,7 @@
       <c r="AM177" s="28"/>
       <c r="AN177" s="37"/>
     </row>
-    <row r="178" spans="1:40">
+    <row r="178" hidden="1" spans="1:40">
       <c r="A178" s="2" t="s">
         <v>394</v>
       </c>
@@ -14930,7 +14938,7 @@
       <c r="AM178" s="28"/>
       <c r="AN178" s="37"/>
     </row>
-    <row r="179" spans="1:40">
+    <row r="179" hidden="1" spans="1:40">
       <c r="A179" s="2" t="s">
         <v>396</v>
       </c>
@@ -14984,7 +14992,7 @@
       <c r="AM179" s="28"/>
       <c r="AN179" s="37"/>
     </row>
-    <row r="180" spans="1:40">
+    <row r="180" hidden="1" spans="1:40">
       <c r="A180" s="2" t="s">
         <v>398</v>
       </c>
@@ -15038,7 +15046,7 @@
       <c r="AM180" s="28"/>
       <c r="AN180" s="37"/>
     </row>
-    <row r="181" spans="1:40">
+    <row r="181" hidden="1" spans="1:40">
       <c r="A181" s="2" t="s">
         <v>400</v>
       </c>
@@ -15092,7 +15100,7 @@
       <c r="AM181" s="28"/>
       <c r="AN181" s="37"/>
     </row>
-    <row r="182" spans="1:40">
+    <row r="182" hidden="1" spans="1:40">
       <c r="A182" s="2" t="s">
         <v>402</v>
       </c>
@@ -15146,7 +15154,7 @@
       <c r="AM182" s="28"/>
       <c r="AN182" s="37"/>
     </row>
-    <row r="183" spans="1:40">
+    <row r="183" hidden="1" spans="1:40">
       <c r="A183" s="2" t="s">
         <v>404</v>
       </c>
@@ -15200,7 +15208,7 @@
       <c r="AM183" s="28"/>
       <c r="AN183" s="37"/>
     </row>
-    <row r="184" spans="1:40">
+    <row r="184" hidden="1" spans="1:40">
       <c r="A184" s="2" t="s">
         <v>406</v>
       </c>
@@ -15254,7 +15262,7 @@
       <c r="AM184" s="28"/>
       <c r="AN184" s="37"/>
     </row>
-    <row r="185" spans="1:40">
+    <row r="185" hidden="1" spans="1:40">
       <c r="A185" s="2" t="s">
         <v>408</v>
       </c>
@@ -15308,7 +15316,7 @@
       <c r="AM185" s="28"/>
       <c r="AN185" s="37"/>
     </row>
-    <row r="186" spans="1:40">
+    <row r="186" hidden="1" spans="1:40">
       <c r="A186" s="2" t="s">
         <v>410</v>
       </c>
@@ -15362,7 +15370,7 @@
       <c r="AM186" s="28"/>
       <c r="AN186" s="37"/>
     </row>
-    <row r="187" spans="1:40">
+    <row r="187" hidden="1" spans="1:40">
       <c r="A187" s="2" t="s">
         <v>412</v>
       </c>
@@ -15416,7 +15424,7 @@
       <c r="AM187" s="28"/>
       <c r="AN187" s="37"/>
     </row>
-    <row r="188" spans="1:40">
+    <row r="188" hidden="1" spans="1:40">
       <c r="A188" s="2" t="s">
         <v>414</v>
       </c>
@@ -15470,7 +15478,7 @@
       <c r="AM188" s="28"/>
       <c r="AN188" s="37"/>
     </row>
-    <row r="189" spans="1:40">
+    <row r="189" hidden="1" spans="1:40">
       <c r="A189" s="2" t="s">
         <v>416</v>
       </c>
@@ -15524,7 +15532,7 @@
       <c r="AM189" s="28"/>
       <c r="AN189" s="37"/>
     </row>
-    <row r="190" spans="1:40">
+    <row r="190" hidden="1" spans="1:40">
       <c r="A190" s="2" t="s">
         <v>418</v>
       </c>
@@ -15578,7 +15586,7 @@
       <c r="AM190" s="28"/>
       <c r="AN190" s="37"/>
     </row>
-    <row r="191" spans="1:40">
+    <row r="191" hidden="1" spans="1:40">
       <c r="A191" s="2" t="s">
         <v>420</v>
       </c>
@@ -15632,7 +15640,7 @@
       <c r="AM191" s="28"/>
       <c r="AN191" s="37"/>
     </row>
-    <row r="192" spans="1:40">
+    <row r="192" hidden="1" spans="1:40">
       <c r="A192" s="2" t="s">
         <v>422</v>
       </c>
@@ -15686,7 +15694,7 @@
       <c r="AM192" s="28"/>
       <c r="AN192" s="37"/>
     </row>
-    <row r="193" spans="1:40">
+    <row r="193" hidden="1" spans="1:40">
       <c r="A193" s="2" t="s">
         <v>424</v>
       </c>
@@ -15740,7 +15748,7 @@
       <c r="AM193" s="28"/>
       <c r="AN193" s="37"/>
     </row>
-    <row r="194" spans="1:40">
+    <row r="194" hidden="1" spans="1:40">
       <c r="A194" s="2" t="s">
         <v>426</v>
       </c>
@@ -15794,7 +15802,7 @@
       <c r="AM194" s="28"/>
       <c r="AN194" s="37"/>
     </row>
-    <row r="195" spans="1:40">
+    <row r="195" hidden="1" spans="1:40">
       <c r="A195" s="2" t="s">
         <v>428</v>
       </c>
@@ -15848,7 +15856,7 @@
       <c r="AM195" s="28"/>
       <c r="AN195" s="37"/>
     </row>
-    <row r="196" spans="1:40">
+    <row r="196" hidden="1" spans="1:40">
       <c r="A196" s="2" t="s">
         <v>430</v>
       </c>
@@ -15956,7 +15964,7 @@
       <c r="AM197" s="28"/>
       <c r="AN197" s="37"/>
     </row>
-    <row r="198" spans="1:40">
+    <row r="198" hidden="1" spans="1:40">
       <c r="A198" s="2" t="s">
         <v>434</v>
       </c>
@@ -16010,7 +16018,7 @@
       <c r="AM198" s="28"/>
       <c r="AN198" s="37"/>
     </row>
-    <row r="199" spans="1:40">
+    <row r="199" hidden="1" spans="1:40">
       <c r="A199" s="2" t="s">
         <v>436</v>
       </c>
@@ -16064,7 +16072,7 @@
       <c r="AM199" s="28"/>
       <c r="AN199" s="37"/>
     </row>
-    <row r="200" spans="1:40">
+    <row r="200" hidden="1" spans="1:40">
       <c r="A200" s="2" t="s">
         <v>438</v>
       </c>
@@ -16118,7 +16126,7 @@
       <c r="AM200" s="28"/>
       <c r="AN200" s="37"/>
     </row>
-    <row r="201" spans="1:40">
+    <row r="201" hidden="1" spans="1:40">
       <c r="A201" s="2" t="s">
         <v>440</v>
       </c>
@@ -16226,7 +16234,7 @@
       <c r="AM202" s="28"/>
       <c r="AN202" s="37"/>
     </row>
-    <row r="203" spans="1:40">
+    <row r="203" hidden="1" spans="1:40">
       <c r="A203" s="2" t="s">
         <v>444</v>
       </c>
@@ -16280,7 +16288,7 @@
       <c r="AM203" s="28"/>
       <c r="AN203" s="37"/>
     </row>
-    <row r="204" spans="1:40">
+    <row r="204" hidden="1" spans="1:40">
       <c r="A204" s="2" t="s">
         <v>446</v>
       </c>
@@ -16334,7 +16342,7 @@
       <c r="AM204" s="28"/>
       <c r="AN204" s="37"/>
     </row>
-    <row r="205" spans="1:40">
+    <row r="205" hidden="1" spans="1:40">
       <c r="A205" s="2" t="s">
         <v>448</v>
       </c>
@@ -16388,7 +16396,7 @@
       <c r="AM205" s="28"/>
       <c r="AN205" s="37"/>
     </row>
-    <row r="206" spans="1:40">
+    <row r="206" hidden="1" spans="1:40">
       <c r="A206" s="2" t="s">
         <v>450</v>
       </c>
@@ -16442,7 +16450,7 @@
       <c r="AM206" s="28"/>
       <c r="AN206" s="37"/>
     </row>
-    <row r="207" spans="1:40">
+    <row r="207" hidden="1" spans="1:40">
       <c r="A207" s="2" t="s">
         <v>452</v>
       </c>
@@ -16496,7 +16504,7 @@
       <c r="AM207" s="28"/>
       <c r="AN207" s="37"/>
     </row>
-    <row r="208" spans="1:40">
+    <row r="208" hidden="1" spans="1:40">
       <c r="A208" s="2" t="s">
         <v>454</v>
       </c>
@@ -16550,7 +16558,7 @@
       <c r="AM208" s="28"/>
       <c r="AN208" s="37"/>
     </row>
-    <row r="209" spans="1:40">
+    <row r="209" hidden="1" spans="1:40">
       <c r="A209" s="2" t="s">
         <v>456</v>
       </c>
@@ -16604,7 +16612,7 @@
       <c r="AM209" s="28"/>
       <c r="AN209" s="37"/>
     </row>
-    <row r="210" spans="1:40">
+    <row r="210" hidden="1" spans="1:40">
       <c r="A210" s="2" t="s">
         <v>458</v>
       </c>
@@ -16658,7 +16666,7 @@
       <c r="AM210" s="28"/>
       <c r="AN210" s="37"/>
     </row>
-    <row r="211" spans="1:40">
+    <row r="211" hidden="1" spans="1:40">
       <c r="A211" s="2" t="s">
         <v>460</v>
       </c>
@@ -16712,7 +16720,7 @@
       <c r="AM211" s="28"/>
       <c r="AN211" s="37"/>
     </row>
-    <row r="212" spans="1:40">
+    <row r="212" hidden="1" spans="1:40">
       <c r="A212" s="2" t="s">
         <v>462</v>
       </c>
@@ -16766,7 +16774,7 @@
       <c r="AM212" s="28"/>
       <c r="AN212" s="37"/>
     </row>
-    <row r="213" spans="1:40">
+    <row r="213" hidden="1" spans="1:40">
       <c r="A213" s="2" t="s">
         <v>464</v>
       </c>
@@ -16910,7 +16918,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="215" spans="1:40">
+    <row r="215" hidden="1" spans="1:40">
       <c r="A215" s="2" t="s">
         <v>468</v>
       </c>
@@ -16964,7 +16972,7 @@
       <c r="AM215" s="28"/>
       <c r="AN215" s="37"/>
     </row>
-    <row r="216" spans="1:40">
+    <row r="216" hidden="1" spans="1:40">
       <c r="A216" s="2" t="s">
         <v>470</v>
       </c>
@@ -17018,7 +17026,7 @@
       <c r="AM216" s="28"/>
       <c r="AN216" s="37"/>
     </row>
-    <row r="217" spans="1:40">
+    <row r="217" hidden="1" spans="1:40">
       <c r="A217" s="2" t="s">
         <v>472</v>
       </c>
@@ -17072,7 +17080,7 @@
       <c r="AM217" s="28"/>
       <c r="AN217" s="37"/>
     </row>
-    <row r="218" spans="1:40">
+    <row r="218" hidden="1" spans="1:40">
       <c r="A218" s="2" t="s">
         <v>474</v>
       </c>
@@ -17126,7 +17134,7 @@
       <c r="AM218" s="28"/>
       <c r="AN218" s="37"/>
     </row>
-    <row r="219" spans="1:40">
+    <row r="219" hidden="1" spans="1:40">
       <c r="A219" s="2" t="s">
         <v>476</v>
       </c>
@@ -17180,7 +17188,7 @@
       <c r="AM219" s="28"/>
       <c r="AN219" s="37"/>
     </row>
-    <row r="220" spans="1:40">
+    <row r="220" hidden="1" spans="1:40">
       <c r="A220" s="2" t="s">
         <v>478</v>
       </c>
@@ -17326,7 +17334,7 @@
       <c r="AM221" s="57"/>
       <c r="AN221" s="67"/>
     </row>
-    <row r="222" spans="1:40">
+    <row r="222" hidden="1" spans="1:40">
       <c r="A222" s="2" t="s">
         <v>482</v>
       </c>
@@ -17380,7 +17388,7 @@
       <c r="AM222" s="28"/>
       <c r="AN222" s="37"/>
     </row>
-    <row r="223" spans="1:40">
+    <row r="223" hidden="1" spans="1:40">
       <c r="A223" s="2" t="s">
         <v>484</v>
       </c>
@@ -17434,7 +17442,7 @@
       <c r="AM223" s="28"/>
       <c r="AN223" s="37"/>
     </row>
-    <row r="224" spans="1:40">
+    <row r="224" hidden="1" spans="1:40">
       <c r="A224" s="2" t="s">
         <v>486</v>
       </c>
@@ -17488,7 +17496,7 @@
       <c r="AM224" s="28"/>
       <c r="AN224" s="37"/>
     </row>
-    <row r="225" spans="1:40">
+    <row r="225" hidden="1" spans="1:40">
       <c r="A225" s="2" t="s">
         <v>488</v>
       </c>
@@ -17542,7 +17550,7 @@
       <c r="AM225" s="28"/>
       <c r="AN225" s="37"/>
     </row>
-    <row r="226" spans="1:40">
+    <row r="226" hidden="1" spans="1:40">
       <c r="A226" s="2" t="s">
         <v>490</v>
       </c>
@@ -17690,7 +17698,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="228" spans="1:40">
+    <row r="228" hidden="1" spans="1:40">
       <c r="A228" s="2" t="s">
         <v>494</v>
       </c>
@@ -17744,7 +17752,7 @@
       <c r="AM228" s="28"/>
       <c r="AN228" s="37"/>
     </row>
-    <row r="229" spans="1:40">
+    <row r="229" hidden="1" spans="1:40">
       <c r="A229" s="2" t="s">
         <v>496</v>
       </c>
@@ -17798,7 +17806,7 @@
       <c r="AM229" s="28"/>
       <c r="AN229" s="37"/>
     </row>
-    <row r="230" spans="1:40">
+    <row r="230" hidden="1" spans="1:40">
       <c r="A230" s="2" t="s">
         <v>498</v>
       </c>
@@ -17852,7 +17860,7 @@
       <c r="AM230" s="28"/>
       <c r="AN230" s="37"/>
     </row>
-    <row r="231" spans="1:40">
+    <row r="231" hidden="1" spans="1:40">
       <c r="A231" s="2" t="s">
         <v>500</v>
       </c>
@@ -17960,7 +17968,7 @@
       <c r="AM232" s="28"/>
       <c r="AN232" s="37"/>
     </row>
-    <row r="233" spans="1:40">
+    <row r="233" hidden="1" spans="1:40">
       <c r="A233" s="2" t="s">
         <v>504</v>
       </c>
@@ -18014,7 +18022,7 @@
       <c r="AM233" s="28"/>
       <c r="AN233" s="37"/>
     </row>
-    <row r="234" spans="1:40">
+    <row r="234" hidden="1" spans="1:40">
       <c r="A234" s="2" t="s">
         <v>506</v>
       </c>
@@ -18068,7 +18076,7 @@
       <c r="AM234" s="28"/>
       <c r="AN234" s="37"/>
     </row>
-    <row r="235" spans="1:40">
+    <row r="235" hidden="1" spans="1:40">
       <c r="A235" s="2" t="s">
         <v>508</v>
       </c>
@@ -18122,7 +18130,7 @@
       <c r="AM235" s="28"/>
       <c r="AN235" s="37"/>
     </row>
-    <row r="236" spans="1:40">
+    <row r="236" hidden="1" spans="1:40">
       <c r="A236" s="2" t="s">
         <v>510</v>
       </c>
@@ -18176,7 +18184,7 @@
       <c r="AM236" s="28"/>
       <c r="AN236" s="37"/>
     </row>
-    <row r="237" spans="1:40">
+    <row r="237" hidden="1" spans="1:40">
       <c r="A237" s="2" t="s">
         <v>512</v>
       </c>
@@ -18284,7 +18292,7 @@
       <c r="AM238" s="28"/>
       <c r="AN238" s="37"/>
     </row>
-    <row r="239" spans="1:40">
+    <row r="239" hidden="1" spans="1:40">
       <c r="A239" s="2" t="s">
         <v>516</v>
       </c>
@@ -18338,7 +18346,7 @@
       <c r="AM239" s="28"/>
       <c r="AN239" s="37"/>
     </row>
-    <row r="240" spans="1:40">
+    <row r="240" hidden="1" spans="1:40">
       <c r="A240" s="2" t="s">
         <v>518</v>
       </c>
@@ -18392,7 +18400,7 @@
       <c r="AM240" s="28"/>
       <c r="AN240" s="37"/>
     </row>
-    <row r="241" spans="1:40">
+    <row r="241" hidden="1" spans="1:40">
       <c r="A241" s="2" t="s">
         <v>520</v>
       </c>
@@ -18446,7 +18454,7 @@
       <c r="AM241" s="28"/>
       <c r="AN241" s="37"/>
     </row>
-    <row r="242" spans="1:40">
+    <row r="242" hidden="1" spans="1:40">
       <c r="A242" s="2" t="s">
         <v>522</v>
       </c>
@@ -18500,7 +18508,7 @@
       <c r="AM242" s="28"/>
       <c r="AN242" s="37"/>
     </row>
-    <row r="243" spans="1:40">
+    <row r="243" hidden="1" spans="1:40">
       <c r="A243" s="2" t="s">
         <v>524</v>
       </c>
@@ -18554,7 +18562,7 @@
       <c r="AM243" s="28"/>
       <c r="AN243" s="37"/>
     </row>
-    <row r="244" spans="1:40">
+    <row r="244" hidden="1" spans="1:40">
       <c r="A244" s="2" t="s">
         <v>526</v>
       </c>
@@ -18608,7 +18616,7 @@
       <c r="AM244" s="28"/>
       <c r="AN244" s="37"/>
     </row>
-    <row r="245" spans="1:40">
+    <row r="245" hidden="1" spans="1:40">
       <c r="A245" s="2" t="s">
         <v>528</v>
       </c>
@@ -18662,7 +18670,7 @@
       <c r="AM245" s="28"/>
       <c r="AN245" s="37"/>
     </row>
-    <row r="246" spans="1:40">
+    <row r="246" hidden="1" spans="1:40">
       <c r="A246" s="2" t="s">
         <v>530</v>
       </c>
@@ -18796,7 +18804,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="248" spans="1:40">
+    <row r="248" hidden="1" spans="1:40">
       <c r="A248" s="2" t="s">
         <v>534</v>
       </c>
@@ -18944,7 +18952,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="250" spans="1:40">
+    <row r="250" hidden="1" spans="1:40">
       <c r="A250" s="2" t="s">
         <v>538</v>
       </c>
@@ -18998,7 +19006,7 @@
       <c r="AM250" s="28"/>
       <c r="AN250" s="37"/>
     </row>
-    <row r="251" spans="1:40">
+    <row r="251" hidden="1" spans="1:40">
       <c r="A251" s="2" t="s">
         <v>540</v>
       </c>
@@ -19052,7 +19060,7 @@
       <c r="AM251" s="28"/>
       <c r="AN251" s="37"/>
     </row>
-    <row r="252" spans="1:40">
+    <row r="252" hidden="1" spans="1:40">
       <c r="A252" s="2" t="s">
         <v>542</v>
       </c>
@@ -19160,7 +19168,7 @@
       <c r="AM253" s="28"/>
       <c r="AN253" s="37"/>
     </row>
-    <row r="254" spans="1:40">
+    <row r="254" hidden="1" spans="1:40">
       <c r="A254" s="2" t="s">
         <v>546</v>
       </c>
@@ -19214,7 +19222,7 @@
       <c r="AM254" s="28"/>
       <c r="AN254" s="37"/>
     </row>
-    <row r="255" spans="1:40">
+    <row r="255" hidden="1" spans="1:40">
       <c r="A255" s="2" t="s">
         <v>548</v>
       </c>
@@ -19268,7 +19276,7 @@
       <c r="AM255" s="28"/>
       <c r="AN255" s="37"/>
     </row>
-    <row r="256" spans="1:40">
+    <row r="256" hidden="1" spans="1:40">
       <c r="A256" s="2" t="s">
         <v>550</v>
       </c>
@@ -19322,7 +19330,7 @@
       <c r="AM256" s="28"/>
       <c r="AN256" s="37"/>
     </row>
-    <row r="257" spans="1:40">
+    <row r="257" hidden="1" spans="1:40">
       <c r="A257" s="2" t="s">
         <v>552</v>
       </c>
@@ -19376,7 +19384,7 @@
       <c r="AM257" s="28"/>
       <c r="AN257" s="37"/>
     </row>
-    <row r="258" spans="1:40">
+    <row r="258" hidden="1" spans="1:40">
       <c r="A258" s="2" t="s">
         <v>554</v>
       </c>
@@ -19430,7 +19438,7 @@
       <c r="AM258" s="28"/>
       <c r="AN258" s="37"/>
     </row>
-    <row r="259" spans="1:40">
+    <row r="259" hidden="1" spans="1:40">
       <c r="A259" s="2" t="s">
         <v>556</v>
       </c>
@@ -19484,7 +19492,7 @@
       <c r="AM259" s="28"/>
       <c r="AN259" s="37"/>
     </row>
-    <row r="260" spans="1:40">
+    <row r="260" hidden="1" spans="1:40">
       <c r="A260" s="2" t="s">
         <v>558</v>
       </c>
@@ -19538,7 +19546,7 @@
       <c r="AM260" s="28"/>
       <c r="AN260" s="37"/>
     </row>
-    <row r="261" spans="1:40">
+    <row r="261" hidden="1" spans="1:40">
       <c r="A261" s="2" t="s">
         <v>560</v>
       </c>
@@ -19592,7 +19600,7 @@
       <c r="AM261" s="28"/>
       <c r="AN261" s="37"/>
     </row>
-    <row r="262" spans="1:40">
+    <row r="262" hidden="1" spans="1:40">
       <c r="A262" s="2" t="s">
         <v>562</v>
       </c>
@@ -19646,7 +19654,7 @@
       <c r="AM262" s="28"/>
       <c r="AN262" s="37"/>
     </row>
-    <row r="263" spans="1:40">
+    <row r="263" hidden="1" spans="1:40">
       <c r="A263" s="2" t="s">
         <v>564</v>
       </c>
@@ -19700,7 +19708,7 @@
       <c r="AM263" s="28"/>
       <c r="AN263" s="37"/>
     </row>
-    <row r="264" spans="1:40">
+    <row r="264" hidden="1" spans="1:40">
       <c r="A264" s="2" t="s">
         <v>566</v>
       </c>
@@ -19754,7 +19762,7 @@
       <c r="AM264" s="28"/>
       <c r="AN264" s="37"/>
     </row>
-    <row r="265" spans="1:40">
+    <row r="265" hidden="1" spans="1:40">
       <c r="A265" s="2" t="s">
         <v>568</v>
       </c>
@@ -19862,7 +19870,7 @@
       <c r="AM266" s="28"/>
       <c r="AN266" s="37"/>
     </row>
-    <row r="267" spans="1:40">
+    <row r="267" hidden="1" spans="1:40">
       <c r="A267" s="2" t="s">
         <v>572</v>
       </c>
@@ -19916,7 +19924,7 @@
       <c r="AM267" s="28"/>
       <c r="AN267" s="37"/>
     </row>
-    <row r="268" spans="1:40">
+    <row r="268" hidden="1" spans="1:40">
       <c r="A268" s="2" t="s">
         <v>574</v>
       </c>
@@ -19970,7 +19978,7 @@
       <c r="AM268" s="28"/>
       <c r="AN268" s="37"/>
     </row>
-    <row r="269" spans="1:40">
+    <row r="269" hidden="1" spans="1:40">
       <c r="A269" s="2" t="s">
         <v>576</v>
       </c>
@@ -20024,7 +20032,7 @@
       <c r="AM269" s="28"/>
       <c r="AN269" s="37"/>
     </row>
-    <row r="270" spans="1:40">
+    <row r="270" hidden="1" spans="1:40">
       <c r="A270" s="2" t="s">
         <v>578</v>
       </c>
@@ -20078,7 +20086,7 @@
       <c r="AM270" s="28"/>
       <c r="AN270" s="37"/>
     </row>
-    <row r="271" spans="1:40">
+    <row r="271" hidden="1" spans="1:40">
       <c r="A271" s="2" t="s">
         <v>580</v>
       </c>
@@ -20132,7 +20140,7 @@
       <c r="AM271" s="28"/>
       <c r="AN271" s="37"/>
     </row>
-    <row r="272" spans="1:40">
+    <row r="272" hidden="1" spans="1:40">
       <c r="A272" s="2" t="s">
         <v>582</v>
       </c>
@@ -20186,7 +20194,7 @@
       <c r="AM272" s="28"/>
       <c r="AN272" s="37"/>
     </row>
-    <row r="273" spans="1:40">
+    <row r="273" hidden="1" spans="1:40">
       <c r="A273" s="2" t="s">
         <v>584</v>
       </c>
@@ -20240,7 +20248,7 @@
       <c r="AM273" s="28"/>
       <c r="AN273" s="37"/>
     </row>
-    <row r="274" spans="1:40">
+    <row r="274" hidden="1" spans="1:40">
       <c r="A274" s="2" t="s">
         <v>586</v>
       </c>
@@ -20294,7 +20302,7 @@
       <c r="AM274" s="28"/>
       <c r="AN274" s="37"/>
     </row>
-    <row r="275" spans="1:40">
+    <row r="275" hidden="1" spans="1:40">
       <c r="A275" s="2" t="s">
         <v>588</v>
       </c>
@@ -20348,7 +20356,7 @@
       <c r="AM275" s="28"/>
       <c r="AN275" s="37"/>
     </row>
-    <row r="276" spans="1:40">
+    <row r="276" hidden="1" spans="1:40">
       <c r="A276" s="2" t="s">
         <v>590</v>
       </c>
@@ -20402,7 +20410,7 @@
       <c r="AM276" s="28"/>
       <c r="AN276" s="37"/>
     </row>
-    <row r="277" spans="1:40">
+    <row r="277" hidden="1" spans="1:40">
       <c r="A277" s="2" t="s">
         <v>592</v>
       </c>
@@ -20510,7 +20518,7 @@
       <c r="AM278" s="28"/>
       <c r="AN278" s="37"/>
     </row>
-    <row r="279" spans="1:40">
+    <row r="279" hidden="1" spans="1:40">
       <c r="A279" s="2" t="s">
         <v>596</v>
       </c>
@@ -20564,7 +20572,7 @@
       <c r="AM279" s="28"/>
       <c r="AN279" s="37"/>
     </row>
-    <row r="280" spans="1:40">
+    <row r="280" hidden="1" spans="1:40">
       <c r="A280" s="2" t="s">
         <v>598</v>
       </c>
@@ -20618,7 +20626,7 @@
       <c r="AM280" s="28"/>
       <c r="AN280" s="37"/>
     </row>
-    <row r="281" spans="1:40">
+    <row r="281" hidden="1" spans="1:40">
       <c r="A281" s="2" t="s">
         <v>600</v>
       </c>
@@ -20672,7 +20680,7 @@
       <c r="AM281" s="28"/>
       <c r="AN281" s="37"/>
     </row>
-    <row r="282" spans="1:40">
+    <row r="282" hidden="1" spans="1:40">
       <c r="A282" s="2" t="s">
         <v>602</v>
       </c>
@@ -20726,7 +20734,7 @@
       <c r="AM282" s="28"/>
       <c r="AN282" s="37"/>
     </row>
-    <row r="283" spans="1:40">
+    <row r="283" hidden="1" spans="1:40">
       <c r="A283" s="2" t="s">
         <v>604</v>
       </c>
@@ -20780,7 +20788,7 @@
       <c r="AM283" s="28"/>
       <c r="AN283" s="37"/>
     </row>
-    <row r="284" spans="1:40">
+    <row r="284" hidden="1" spans="1:40">
       <c r="A284" s="2" t="s">
         <v>606</v>
       </c>
@@ -20834,7 +20842,7 @@
       <c r="AM284" s="28"/>
       <c r="AN284" s="37"/>
     </row>
-    <row r="285" spans="1:40">
+    <row r="285" hidden="1" spans="1:40">
       <c r="A285" s="2" t="s">
         <v>608</v>
       </c>
@@ -20888,7 +20896,7 @@
       <c r="AM285" s="28"/>
       <c r="AN285" s="37"/>
     </row>
-    <row r="286" spans="1:40">
+    <row r="286" hidden="1" spans="1:40">
       <c r="A286" s="2" t="s">
         <v>610</v>
       </c>
@@ -20942,7 +20950,7 @@
       <c r="AM286" s="28"/>
       <c r="AN286" s="37"/>
     </row>
-    <row r="287" spans="1:40">
+    <row r="287" hidden="1" spans="1:40">
       <c r="A287" s="2" t="s">
         <v>612</v>
       </c>
@@ -20996,7 +21004,7 @@
       <c r="AM287" s="28"/>
       <c r="AN287" s="37"/>
     </row>
-    <row r="288" spans="1:40">
+    <row r="288" hidden="1" spans="1:40">
       <c r="A288" s="2" t="s">
         <v>614</v>
       </c>
@@ -21050,7 +21058,7 @@
       <c r="AM288" s="28"/>
       <c r="AN288" s="37"/>
     </row>
-    <row r="289" spans="1:40">
+    <row r="289" hidden="1" spans="1:40">
       <c r="A289" s="2" t="s">
         <v>616</v>
       </c>
@@ -21104,7 +21112,7 @@
       <c r="AM289" s="28"/>
       <c r="AN289" s="37"/>
     </row>
-    <row r="290" spans="1:40">
+    <row r="290" hidden="1" spans="1:40">
       <c r="A290" s="2" t="s">
         <v>618</v>
       </c>
@@ -21158,7 +21166,7 @@
       <c r="AM290" s="28"/>
       <c r="AN290" s="37"/>
     </row>
-    <row r="291" spans="1:40">
+    <row r="291" hidden="1" spans="1:40">
       <c r="A291" s="2" t="s">
         <v>620</v>
       </c>
@@ -21212,7 +21220,7 @@
       <c r="AM291" s="28"/>
       <c r="AN291" s="37"/>
     </row>
-    <row r="292" spans="1:40">
+    <row r="292" hidden="1" spans="1:40">
       <c r="A292" s="2" t="s">
         <v>622</v>
       </c>
@@ -21266,7 +21274,7 @@
       <c r="AM292" s="28"/>
       <c r="AN292" s="37"/>
     </row>
-    <row r="293" spans="1:40">
+    <row r="293" hidden="1" spans="1:40">
       <c r="A293" s="2" t="s">
         <v>624</v>
       </c>
@@ -21320,7 +21328,7 @@
       <c r="AM293" s="28"/>
       <c r="AN293" s="37"/>
     </row>
-    <row r="294" spans="1:40">
+    <row r="294" hidden="1" spans="1:40">
       <c r="A294" s="2" t="s">
         <v>626</v>
       </c>
@@ -21374,7 +21382,7 @@
       <c r="AM294" s="28"/>
       <c r="AN294" s="37"/>
     </row>
-    <row r="295" spans="1:40">
+    <row r="295" hidden="1" spans="1:40">
       <c r="A295" s="2" t="s">
         <v>628</v>
       </c>
@@ -21428,7 +21436,7 @@
       <c r="AM295" s="28"/>
       <c r="AN295" s="37"/>
     </row>
-    <row r="296" spans="1:40">
+    <row r="296" hidden="1" spans="1:40">
       <c r="A296" s="2" t="s">
         <v>630</v>
       </c>
@@ -21482,7 +21490,7 @@
       <c r="AM296" s="28"/>
       <c r="AN296" s="37"/>
     </row>
-    <row r="297" spans="1:40">
+    <row r="297" hidden="1" spans="1:40">
       <c r="A297" s="2" t="s">
         <v>632</v>
       </c>
@@ -21536,7 +21544,7 @@
       <c r="AM297" s="28"/>
       <c r="AN297" s="37"/>
     </row>
-    <row r="298" spans="1:40">
+    <row r="298" hidden="1" spans="1:40">
       <c r="A298" s="2" t="s">
         <v>634</v>
       </c>
@@ -21590,7 +21598,7 @@
       <c r="AM298" s="28"/>
       <c r="AN298" s="37"/>
     </row>
-    <row r="299" spans="1:40">
+    <row r="299" hidden="1" spans="1:40">
       <c r="A299" s="2" t="s">
         <v>636</v>
       </c>
@@ -21644,7 +21652,7 @@
       <c r="AM299" s="28"/>
       <c r="AN299" s="37"/>
     </row>
-    <row r="300" spans="1:40">
+    <row r="300" hidden="1" spans="1:40">
       <c r="A300" s="2" t="s">
         <v>638</v>
       </c>
@@ -21698,7 +21706,7 @@
       <c r="AM300" s="28"/>
       <c r="AN300" s="37"/>
     </row>
-    <row r="301" spans="1:40">
+    <row r="301" hidden="1" spans="1:40">
       <c r="A301" s="2" t="s">
         <v>640</v>
       </c>
@@ -21828,7 +21836,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="303" spans="1:40">
+    <row r="303" hidden="1" spans="1:40">
       <c r="A303" s="2" t="s">
         <v>644</v>
       </c>
@@ -21882,7 +21890,7 @@
       <c r="AM303" s="28"/>
       <c r="AN303" s="37"/>
     </row>
-    <row r="304" spans="1:40">
+    <row r="304" hidden="1" spans="1:40">
       <c r="A304" s="2" t="s">
         <v>646</v>
       </c>
@@ -22030,7 +22038,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="306" spans="1:40">
+    <row r="306" hidden="1" spans="1:40">
       <c r="A306" s="2" t="s">
         <v>650</v>
       </c>
@@ -22084,7 +22092,7 @@
       <c r="AM306" s="28"/>
       <c r="AN306" s="37"/>
     </row>
-    <row r="307" spans="1:40">
+    <row r="307" hidden="1" spans="1:40">
       <c r="A307" s="2" t="s">
         <v>652</v>
       </c>
@@ -22138,7 +22146,7 @@
       <c r="AM307" s="28"/>
       <c r="AN307" s="37"/>
     </row>
-    <row r="308" spans="1:40">
+    <row r="308" hidden="1" spans="1:40">
       <c r="A308" s="2" t="s">
         <v>654</v>
       </c>
@@ -22192,7 +22200,7 @@
       <c r="AM308" s="28"/>
       <c r="AN308" s="37"/>
     </row>
-    <row r="309" spans="1:40">
+    <row r="309" hidden="1" spans="1:40">
       <c r="A309" s="2" t="s">
         <v>656</v>
       </c>
@@ -22246,7 +22254,7 @@
       <c r="AM309" s="28"/>
       <c r="AN309" s="37"/>
     </row>
-    <row r="310" spans="1:40">
+    <row r="310" hidden="1" spans="1:40">
       <c r="A310" s="2" t="s">
         <v>658</v>
       </c>
@@ -22300,7 +22308,7 @@
       <c r="AM310" s="28"/>
       <c r="AN310" s="37"/>
     </row>
-    <row r="311" spans="1:40">
+    <row r="311" hidden="1" spans="1:40">
       <c r="A311" s="2" t="s">
         <v>660</v>
       </c>
@@ -22354,7 +22362,7 @@
       <c r="AM311" s="28"/>
       <c r="AN311" s="37"/>
     </row>
-    <row r="312" spans="1:40">
+    <row r="312" hidden="1" spans="1:40">
       <c r="A312" s="2" t="s">
         <v>662</v>
       </c>
@@ -22408,7 +22416,7 @@
       <c r="AM312" s="28"/>
       <c r="AN312" s="37"/>
     </row>
-    <row r="313" spans="1:40">
+    <row r="313" hidden="1" spans="1:40">
       <c r="A313" s="2" t="s">
         <v>664</v>
       </c>
@@ -22462,7 +22470,7 @@
       <c r="AM313" s="28"/>
       <c r="AN313" s="37"/>
     </row>
-    <row r="314" spans="1:40">
+    <row r="314" hidden="1" spans="1:40">
       <c r="A314" s="2" t="s">
         <v>666</v>
       </c>
@@ -22516,7 +22524,7 @@
       <c r="AM314" s="28"/>
       <c r="AN314" s="37"/>
     </row>
-    <row r="315" spans="1:40">
+    <row r="315" hidden="1" spans="1:40">
       <c r="A315" s="2" t="s">
         <v>668</v>
       </c>
@@ -22570,7 +22578,7 @@
       <c r="AM315" s="28"/>
       <c r="AN315" s="37"/>
     </row>
-    <row r="316" spans="1:40">
+    <row r="316" hidden="1" spans="1:40">
       <c r="A316" s="2" t="s">
         <v>670</v>
       </c>
@@ -22624,7 +22632,7 @@
       <c r="AM316" s="28"/>
       <c r="AN316" s="37"/>
     </row>
-    <row r="317" spans="1:40">
+    <row r="317" hidden="1" spans="1:40">
       <c r="A317" s="2" t="s">
         <v>672</v>
       </c>
@@ -22678,7 +22686,7 @@
       <c r="AM317" s="28"/>
       <c r="AN317" s="37"/>
     </row>
-    <row r="318" spans="1:40">
+    <row r="318" hidden="1" spans="1:40">
       <c r="A318" s="2" t="s">
         <v>674</v>
       </c>
@@ -22732,7 +22740,7 @@
       <c r="AM318" s="28"/>
       <c r="AN318" s="37"/>
     </row>
-    <row r="319" spans="1:40">
+    <row r="319" hidden="1" spans="1:40">
       <c r="A319" s="2" t="s">
         <v>676</v>
       </c>
@@ -22869,7 +22877,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="321" spans="1:40">
+    <row r="321" hidden="1" spans="1:40">
       <c r="A321" s="2" t="s">
         <v>680</v>
       </c>
@@ -22923,7 +22931,7 @@
       <c r="AM321" s="28"/>
       <c r="AN321" s="37"/>
     </row>
-    <row r="322" spans="1:40">
+    <row r="322" hidden="1" spans="1:40">
       <c r="A322" s="2" t="s">
         <v>682</v>
       </c>
@@ -22977,7 +22985,7 @@
       <c r="AM322" s="28"/>
       <c r="AN322" s="37"/>
     </row>
-    <row r="323" spans="1:40">
+    <row r="323" hidden="1" spans="1:40">
       <c r="A323" s="2" t="s">
         <v>684</v>
       </c>
@@ -23031,7 +23039,7 @@
       <c r="AM323" s="28"/>
       <c r="AN323" s="37"/>
     </row>
-    <row r="324" spans="1:40">
+    <row r="324" hidden="1" spans="1:40">
       <c r="A324" s="2" t="s">
         <v>686</v>
       </c>
@@ -23085,7 +23093,7 @@
       <c r="AM324" s="28"/>
       <c r="AN324" s="37"/>
     </row>
-    <row r="325" spans="1:40">
+    <row r="325" hidden="1" spans="1:40">
       <c r="A325" s="14" t="s">
         <v>688</v>
       </c>
@@ -23258,7 +23266,7 @@
         <v>44645</v>
       </c>
     </row>
-    <row r="327" spans="1:40">
+    <row r="327" hidden="1" spans="1:40">
       <c r="A327" s="2" t="s">
         <v>692</v>
       </c>
@@ -23312,7 +23320,7 @@
       <c r="AM327" s="28"/>
       <c r="AN327" s="37"/>
     </row>
-    <row r="328" spans="1:40">
+    <row r="328" hidden="1" spans="1:40">
       <c r="A328" s="2" t="s">
         <v>694</v>
       </c>
@@ -23366,7 +23374,7 @@
       <c r="AM328" s="28"/>
       <c r="AN328" s="37"/>
     </row>
-    <row r="329" spans="1:40">
+    <row r="329" hidden="1" spans="1:40">
       <c r="A329" s="2" t="s">
         <v>696</v>
       </c>
@@ -23420,7 +23428,7 @@
       <c r="AM329" s="28"/>
       <c r="AN329" s="37"/>
     </row>
-    <row r="330" spans="1:40">
+    <row r="330" hidden="1" spans="1:40">
       <c r="A330" s="2" t="s">
         <v>698</v>
       </c>
@@ -23474,7 +23482,7 @@
       <c r="AM330" s="28"/>
       <c r="AN330" s="37"/>
     </row>
-    <row r="331" spans="1:40">
+    <row r="331" hidden="1" spans="1:40">
       <c r="A331" s="2" t="s">
         <v>700</v>
       </c>
@@ -23528,7 +23536,7 @@
       <c r="AM331" s="28"/>
       <c r="AN331" s="37"/>
     </row>
-    <row r="332" spans="1:40">
+    <row r="332" hidden="1" spans="1:40">
       <c r="A332" s="2" t="s">
         <v>702</v>
       </c>
@@ -23582,7 +23590,7 @@
       <c r="AM332" s="28"/>
       <c r="AN332" s="37"/>
     </row>
-    <row r="333" spans="1:40">
+    <row r="333" hidden="1" spans="1:40">
       <c r="A333" s="2" t="s">
         <v>704</v>
       </c>
@@ -23636,7 +23644,7 @@
       <c r="AM333" s="28"/>
       <c r="AN333" s="37"/>
     </row>
-    <row r="334" spans="1:40">
+    <row r="334" hidden="1" spans="1:40">
       <c r="A334" s="2" t="s">
         <v>706</v>
       </c>
@@ -23690,7 +23698,7 @@
       <c r="AM334" s="28"/>
       <c r="AN334" s="37"/>
     </row>
-    <row r="335" spans="1:40">
+    <row r="335" hidden="1" spans="1:40">
       <c r="A335" s="2" t="s">
         <v>708</v>
       </c>
@@ -23744,7 +23752,7 @@
       <c r="AM335" s="28"/>
       <c r="AN335" s="37"/>
     </row>
-    <row r="336" spans="1:40">
+    <row r="336" hidden="1" spans="1:40">
       <c r="A336" s="2" t="s">
         <v>710</v>
       </c>
@@ -23798,7 +23806,7 @@
       <c r="AM336" s="28"/>
       <c r="AN336" s="37"/>
     </row>
-    <row r="337" spans="1:40">
+    <row r="337" hidden="1" spans="1:40">
       <c r="A337" s="2" t="s">
         <v>712</v>
       </c>
@@ -23852,7 +23860,7 @@
       <c r="AM337" s="28"/>
       <c r="AN337" s="37"/>
     </row>
-    <row r="338" spans="1:40">
+    <row r="338" hidden="1" spans="1:40">
       <c r="A338" s="2" t="s">
         <v>714</v>
       </c>
@@ -23906,7 +23914,7 @@
       <c r="AM338" s="28"/>
       <c r="AN338" s="37"/>
     </row>
-    <row r="339" spans="1:40">
+    <row r="339" hidden="1" spans="1:40">
       <c r="A339" s="2" t="s">
         <v>716</v>
       </c>
@@ -23960,7 +23968,7 @@
       <c r="AM339" s="28"/>
       <c r="AN339" s="37"/>
     </row>
-    <row r="340" spans="1:40">
+    <row r="340" hidden="1" spans="1:40">
       <c r="A340" s="2" t="s">
         <v>718</v>
       </c>
@@ -24014,7 +24022,7 @@
       <c r="AM340" s="28"/>
       <c r="AN340" s="37"/>
     </row>
-    <row r="341" spans="1:40">
+    <row r="341" hidden="1" spans="1:40">
       <c r="A341" s="2" t="s">
         <v>720</v>
       </c>
@@ -24068,7 +24076,7 @@
       <c r="AM341" s="28"/>
       <c r="AN341" s="37"/>
     </row>
-    <row r="342" spans="1:40">
+    <row r="342" hidden="1" spans="1:40">
       <c r="A342" s="2" t="s">
         <v>722</v>
       </c>
@@ -24122,7 +24130,7 @@
       <c r="AM342" s="28"/>
       <c r="AN342" s="37"/>
     </row>
-    <row r="343" spans="1:40">
+    <row r="343" hidden="1" spans="1:40">
       <c r="A343" s="2" t="s">
         <v>724</v>
       </c>
@@ -24230,7 +24238,7 @@
       <c r="AM344" s="28"/>
       <c r="AN344" s="37"/>
     </row>
-    <row r="345" spans="1:40">
+    <row r="345" hidden="1" spans="1:40">
       <c r="A345" s="2" t="s">
         <v>728</v>
       </c>
@@ -24284,7 +24292,7 @@
       <c r="AM345" s="28"/>
       <c r="AN345" s="37"/>
     </row>
-    <row r="346" spans="1:40">
+    <row r="346" hidden="1" spans="1:40">
       <c r="A346" s="2" t="s">
         <v>730</v>
       </c>
@@ -24338,7 +24346,7 @@
       <c r="AM346" s="28"/>
       <c r="AN346" s="37"/>
     </row>
-    <row r="347" spans="1:40">
+    <row r="347" hidden="1" spans="1:40">
       <c r="A347" s="2" t="s">
         <v>732</v>
       </c>
@@ -24392,7 +24400,7 @@
       <c r="AM347" s="28"/>
       <c r="AN347" s="37"/>
     </row>
-    <row r="348" spans="1:40">
+    <row r="348" hidden="1" spans="1:40">
       <c r="A348" s="2" t="s">
         <v>734</v>
       </c>
@@ -24446,7 +24454,7 @@
       <c r="AM348" s="28"/>
       <c r="AN348" s="37"/>
     </row>
-    <row r="349" spans="1:40">
+    <row r="349" hidden="1" spans="1:40">
       <c r="A349" s="2" t="s">
         <v>736</v>
       </c>
@@ -24500,7 +24508,7 @@
       <c r="AM349" s="28"/>
       <c r="AN349" s="37"/>
     </row>
-    <row r="350" spans="1:40">
+    <row r="350" hidden="1" spans="1:40">
       <c r="A350" s="2" t="s">
         <v>738</v>
       </c>
@@ -24554,7 +24562,7 @@
       <c r="AM350" s="28"/>
       <c r="AN350" s="37"/>
     </row>
-    <row r="351" spans="1:40">
+    <row r="351" hidden="1" spans="1:40">
       <c r="A351" s="2" t="s">
         <v>740</v>
       </c>
@@ -24698,7 +24706,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="353" spans="1:40">
+    <row r="353" hidden="1" spans="1:40">
       <c r="A353" s="2" t="s">
         <v>744</v>
       </c>
@@ -24752,7 +24760,7 @@
       <c r="AM353" s="28"/>
       <c r="AN353" s="37"/>
     </row>
-    <row r="354" spans="1:40">
+    <row r="354" hidden="1" spans="1:40">
       <c r="A354" s="2" t="s">
         <v>746</v>
       </c>
@@ -24806,7 +24814,7 @@
       <c r="AM354" s="28"/>
       <c r="AN354" s="37"/>
     </row>
-    <row r="355" spans="1:40">
+    <row r="355" hidden="1" spans="1:40">
       <c r="A355" s="14" t="s">
         <v>748</v>
       </c>
@@ -24891,7 +24899,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="356" spans="1:40">
+    <row r="356" hidden="1" spans="1:40">
       <c r="A356" s="2" t="s">
         <v>750</v>
       </c>
@@ -24945,7 +24953,7 @@
       <c r="AM356" s="28"/>
       <c r="AN356" s="37"/>
     </row>
-    <row r="357" spans="1:40">
+    <row r="357" hidden="1" spans="1:40">
       <c r="A357" s="2" t="s">
         <v>752</v>
       </c>
@@ -24999,7 +25007,7 @@
       <c r="AM357" s="28"/>
       <c r="AN357" s="37"/>
     </row>
-    <row r="358" spans="1:40">
+    <row r="358" hidden="1" spans="1:40">
       <c r="A358" s="2" t="s">
         <v>754</v>
       </c>
@@ -25053,7 +25061,7 @@
       <c r="AM358" s="28"/>
       <c r="AN358" s="37"/>
     </row>
-    <row r="359" spans="1:40">
+    <row r="359" hidden="1" spans="1:40">
       <c r="A359" s="2" t="s">
         <v>756</v>
       </c>
@@ -25107,7 +25115,7 @@
       <c r="AM359" s="28"/>
       <c r="AN359" s="37"/>
     </row>
-    <row r="360" spans="1:40">
+    <row r="360" hidden="1" spans="1:40">
       <c r="A360" s="2" t="s">
         <v>758</v>
       </c>
@@ -25161,7 +25169,7 @@
       <c r="AM360" s="28"/>
       <c r="AN360" s="37"/>
     </row>
-    <row r="361" spans="1:40">
+    <row r="361" hidden="1" spans="1:40">
       <c r="A361" s="2" t="s">
         <v>760</v>
       </c>
@@ -25215,7 +25223,7 @@
       <c r="AM361" s="28"/>
       <c r="AN361" s="37"/>
     </row>
-    <row r="362" spans="1:40">
+    <row r="362" hidden="1" spans="1:40">
       <c r="A362" s="2" t="s">
         <v>762</v>
       </c>
@@ -25269,7 +25277,7 @@
       <c r="AM362" s="28"/>
       <c r="AN362" s="37"/>
     </row>
-    <row r="363" spans="1:40">
+    <row r="363" hidden="1" spans="1:40">
       <c r="A363" s="2" t="s">
         <v>764</v>
       </c>
@@ -25323,7 +25331,7 @@
       <c r="AM363" s="28"/>
       <c r="AN363" s="37"/>
     </row>
-    <row r="364" spans="1:40">
+    <row r="364" hidden="1" spans="1:40">
       <c r="A364" s="2" t="s">
         <v>766</v>
       </c>
@@ -25377,7 +25385,7 @@
       <c r="AM364" s="28"/>
       <c r="AN364" s="37"/>
     </row>
-    <row r="365" spans="1:40">
+    <row r="365" hidden="1" spans="1:40">
       <c r="A365" s="2" t="s">
         <v>768</v>
       </c>
@@ -25431,7 +25439,7 @@
       <c r="AM365" s="28"/>
       <c r="AN365" s="37"/>
     </row>
-    <row r="366" spans="1:40">
+    <row r="366" hidden="1" spans="1:40">
       <c r="A366" s="2" t="s">
         <v>770</v>
       </c>
@@ -25485,7 +25493,7 @@
       <c r="AM366" s="28"/>
       <c r="AN366" s="37"/>
     </row>
-    <row r="367" spans="1:40">
+    <row r="367" hidden="1" spans="1:40">
       <c r="A367" s="2" t="s">
         <v>772</v>
       </c>
@@ -25539,7 +25547,7 @@
       <c r="AM367" s="28"/>
       <c r="AN367" s="37"/>
     </row>
-    <row r="368" spans="1:40">
+    <row r="368" hidden="1" spans="1:40">
       <c r="A368" s="2" t="s">
         <v>774</v>
       </c>
@@ -25593,7 +25601,7 @@
       <c r="AM368" s="28"/>
       <c r="AN368" s="37"/>
     </row>
-    <row r="369" spans="1:40">
+    <row r="369" hidden="1" spans="1:40">
       <c r="A369" s="2" t="s">
         <v>776</v>
       </c>
@@ -25647,7 +25655,7 @@
       <c r="AM369" s="28"/>
       <c r="AN369" s="37"/>
     </row>
-    <row r="370" spans="1:40">
+    <row r="370" hidden="1" spans="1:40">
       <c r="A370" s="2" t="s">
         <v>778</v>
       </c>
@@ -25701,7 +25709,7 @@
       <c r="AM370" s="28"/>
       <c r="AN370" s="37"/>
     </row>
-    <row r="371" spans="1:40">
+    <row r="371" hidden="1" spans="1:40">
       <c r="A371" s="2" t="s">
         <v>780</v>
       </c>
@@ -25755,7 +25763,7 @@
       <c r="AM371" s="28"/>
       <c r="AN371" s="37"/>
     </row>
-    <row r="372" spans="1:40">
+    <row r="372" hidden="1" spans="1:40">
       <c r="A372" s="2" t="s">
         <v>782</v>
       </c>
@@ -25809,7 +25817,7 @@
       <c r="AM372" s="28"/>
       <c r="AN372" s="37"/>
     </row>
-    <row r="373" spans="1:40">
+    <row r="373" hidden="1" spans="1:40">
       <c r="A373" s="2" t="s">
         <v>784</v>
       </c>
@@ -25863,7 +25871,7 @@
       <c r="AM373" s="28"/>
       <c r="AN373" s="37"/>
     </row>
-    <row r="374" spans="1:40">
+    <row r="374" hidden="1" spans="1:40">
       <c r="A374" s="2" t="s">
         <v>786</v>
       </c>
@@ -25917,7 +25925,7 @@
       <c r="AM374" s="28"/>
       <c r="AN374" s="37"/>
     </row>
-    <row r="375" spans="1:40">
+    <row r="375" hidden="1" spans="1:40">
       <c r="A375" s="2" t="s">
         <v>788</v>
       </c>
@@ -25971,7 +25979,7 @@
       <c r="AM375" s="28"/>
       <c r="AN375" s="37"/>
     </row>
-    <row r="376" spans="1:40">
+    <row r="376" hidden="1" spans="1:40">
       <c r="A376" s="2" t="s">
         <v>790</v>
       </c>
@@ -26025,7 +26033,7 @@
       <c r="AM376" s="28"/>
       <c r="AN376" s="37"/>
     </row>
-    <row r="377" spans="1:40">
+    <row r="377" hidden="1" spans="1:40">
       <c r="A377" s="2" t="s">
         <v>792</v>
       </c>
@@ -26150,7 +26158,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="379" spans="1:40">
+    <row r="379" hidden="1" spans="1:40">
       <c r="A379" s="2" t="s">
         <v>796</v>
       </c>
@@ -26204,7 +26212,7 @@
       <c r="AM379" s="28"/>
       <c r="AN379" s="37"/>
     </row>
-    <row r="380" spans="1:40">
+    <row r="380" hidden="1" spans="1:40">
       <c r="A380" s="2" t="s">
         <v>798</v>
       </c>
@@ -26258,7 +26266,7 @@
       <c r="AM380" s="28"/>
       <c r="AN380" s="37"/>
     </row>
-    <row r="381" spans="1:40">
+    <row r="381" hidden="1" spans="1:40">
       <c r="A381" s="2" t="s">
         <v>800</v>
       </c>
@@ -26312,7 +26320,7 @@
       <c r="AM381" s="28"/>
       <c r="AN381" s="37"/>
     </row>
-    <row r="382" spans="1:40">
+    <row r="382" hidden="1" spans="1:40">
       <c r="A382" s="2" t="s">
         <v>802</v>
       </c>
@@ -26366,7 +26374,7 @@
       <c r="AM382" s="28"/>
       <c r="AN382" s="37"/>
     </row>
-    <row r="383" spans="1:40">
+    <row r="383" hidden="1" spans="1:40">
       <c r="A383" s="2" t="s">
         <v>804</v>
       </c>
@@ -26420,7 +26428,7 @@
       <c r="AM383" s="28"/>
       <c r="AN383" s="37"/>
     </row>
-    <row r="384" spans="1:40">
+    <row r="384" hidden="1" spans="1:40">
       <c r="A384" s="2" t="s">
         <v>806</v>
       </c>
@@ -26474,7 +26482,7 @@
       <c r="AM384" s="28"/>
       <c r="AN384" s="37"/>
     </row>
-    <row r="385" spans="1:40">
+    <row r="385" hidden="1" spans="1:40">
       <c r="A385" s="2" t="s">
         <v>808</v>
       </c>
@@ -26528,7 +26536,7 @@
       <c r="AM385" s="28"/>
       <c r="AN385" s="37"/>
     </row>
-    <row r="386" spans="1:40">
+    <row r="386" hidden="1" spans="1:40">
       <c r="A386" s="2" t="s">
         <v>810</v>
       </c>
@@ -26582,7 +26590,7 @@
       <c r="AM386" s="28"/>
       <c r="AN386" s="37"/>
     </row>
-    <row r="387" spans="1:40">
+    <row r="387" hidden="1" spans="1:40">
       <c r="A387" s="2" t="s">
         <v>812</v>
       </c>
@@ -26636,7 +26644,7 @@
       <c r="AM387" s="28"/>
       <c r="AN387" s="37"/>
     </row>
-    <row r="388" ht="17.6" spans="1:40">
+    <row r="388" ht="17.6" hidden="1" spans="1:40">
       <c r="A388" s="14" t="s">
         <v>814</v>
       </c>
@@ -26732,7 +26740,7 @@
       <c r="AM388" s="88"/>
       <c r="AN388" s="93"/>
     </row>
-    <row r="389" spans="1:40">
+    <row r="389" hidden="1" spans="1:40">
       <c r="A389" s="2" t="s">
         <v>816</v>
       </c>
@@ -26786,7 +26794,7 @@
       <c r="AM389" s="28"/>
       <c r="AN389" s="37"/>
     </row>
-    <row r="390" spans="1:40">
+    <row r="390" hidden="1" spans="1:40">
       <c r="A390" s="2" t="s">
         <v>818</v>
       </c>
@@ -26840,7 +26848,7 @@
       <c r="AM390" s="28"/>
       <c r="AN390" s="37"/>
     </row>
-    <row r="391" spans="1:40">
+    <row r="391" hidden="1" spans="1:40">
       <c r="A391" s="2" t="s">
         <v>820</v>
       </c>
@@ -26894,7 +26902,7 @@
       <c r="AM391" s="28"/>
       <c r="AN391" s="37"/>
     </row>
-    <row r="392" spans="1:40">
+    <row r="392" hidden="1" spans="1:40">
       <c r="A392" s="2" t="s">
         <v>822</v>
       </c>
@@ -26948,7 +26956,7 @@
       <c r="AM392" s="28"/>
       <c r="AN392" s="37"/>
     </row>
-    <row r="393" spans="1:40">
+    <row r="393" hidden="1" spans="1:40">
       <c r="A393" s="2" t="s">
         <v>824</v>
       </c>
@@ -27002,7 +27010,7 @@
       <c r="AM393" s="28"/>
       <c r="AN393" s="37"/>
     </row>
-    <row r="394" spans="1:40">
+    <row r="394" hidden="1" spans="1:40">
       <c r="A394" s="2" t="s">
         <v>826</v>
       </c>
@@ -27056,7 +27064,7 @@
       <c r="AM394" s="28"/>
       <c r="AN394" s="37"/>
     </row>
-    <row r="395" spans="1:40">
+    <row r="395" hidden="1" spans="1:40">
       <c r="A395" s="2" t="s">
         <v>828</v>
       </c>
@@ -27110,7 +27118,7 @@
       <c r="AM395" s="28"/>
       <c r="AN395" s="37"/>
     </row>
-    <row r="396" spans="1:40">
+    <row r="396" hidden="1" spans="1:40">
       <c r="A396" s="2" t="s">
         <v>830</v>
       </c>
@@ -27164,7 +27172,7 @@
       <c r="AM396" s="28"/>
       <c r="AN396" s="37"/>
     </row>
-    <row r="397" spans="1:40">
+    <row r="397" hidden="1" spans="1:40">
       <c r="A397" s="2" t="s">
         <v>832</v>
       </c>
@@ -27218,7 +27226,7 @@
       <c r="AM397" s="28"/>
       <c r="AN397" s="37"/>
     </row>
-    <row r="398" spans="1:40">
+    <row r="398" hidden="1" spans="1:40">
       <c r="A398" s="2" t="s">
         <v>834</v>
       </c>
@@ -27272,7 +27280,7 @@
       <c r="AM398" s="28"/>
       <c r="AN398" s="37"/>
     </row>
-    <row r="399" spans="1:40">
+    <row r="399" hidden="1" spans="1:40">
       <c r="A399" s="2" t="s">
         <v>836</v>
       </c>
@@ -27326,7 +27334,7 @@
       <c r="AM399" s="28"/>
       <c r="AN399" s="37"/>
     </row>
-    <row r="400" spans="1:40">
+    <row r="400" hidden="1" spans="1:40">
       <c r="A400" s="2" t="s">
         <v>838</v>
       </c>
@@ -27380,7 +27388,7 @@
       <c r="AM400" s="28"/>
       <c r="AN400" s="37"/>
     </row>
-    <row r="401" spans="1:40">
+    <row r="401" hidden="1" spans="1:40">
       <c r="A401" s="2" t="s">
         <v>840</v>
       </c>
@@ -27434,7 +27442,7 @@
       <c r="AM401" s="28"/>
       <c r="AN401" s="37"/>
     </row>
-    <row r="402" spans="1:40">
+    <row r="402" hidden="1" spans="1:40">
       <c r="A402" s="2" t="s">
         <v>842</v>
       </c>
@@ -27488,7 +27496,7 @@
       <c r="AM402" s="28"/>
       <c r="AN402" s="37"/>
     </row>
-    <row r="403" spans="1:40">
+    <row r="403" hidden="1" spans="1:40">
       <c r="A403" s="2" t="s">
         <v>844</v>
       </c>
@@ -27542,7 +27550,7 @@
       <c r="AM403" s="28"/>
       <c r="AN403" s="37"/>
     </row>
-    <row r="404" spans="1:40">
+    <row r="404" hidden="1" spans="1:40">
       <c r="A404" s="2" t="s">
         <v>846</v>
       </c>
@@ -27596,7 +27604,7 @@
       <c r="AM404" s="28"/>
       <c r="AN404" s="37"/>
     </row>
-    <row r="405" spans="1:40">
+    <row r="405" hidden="1" spans="1:40">
       <c r="A405" s="2" t="s">
         <v>848</v>
       </c>
@@ -27650,7 +27658,7 @@
       <c r="AM405" s="28"/>
       <c r="AN405" s="37"/>
     </row>
-    <row r="406" spans="1:40">
+    <row r="406" hidden="1" spans="1:40">
       <c r="A406" s="39" t="s">
         <v>850</v>
       </c>
@@ -27738,7 +27746,7 @@
       <c r="AM406" s="28"/>
       <c r="AN406" s="37"/>
     </row>
-    <row r="407" spans="1:40">
+    <row r="407" hidden="1" spans="1:40">
       <c r="A407" s="2" t="s">
         <v>852</v>
       </c>
@@ -27792,7 +27800,7 @@
       <c r="AM407" s="28"/>
       <c r="AN407" s="37"/>
     </row>
-    <row r="408" spans="1:40">
+    <row r="408" hidden="1" spans="1:40">
       <c r="A408" s="2" t="s">
         <v>854</v>
       </c>
@@ -27846,7 +27854,7 @@
       <c r="AM408" s="28"/>
       <c r="AN408" s="37"/>
     </row>
-    <row r="409" spans="1:40">
+    <row r="409" hidden="1" spans="1:40">
       <c r="A409" s="2" t="s">
         <v>856</v>
       </c>
@@ -27900,7 +27908,7 @@
       <c r="AM409" s="28"/>
       <c r="AN409" s="37"/>
     </row>
-    <row r="410" spans="1:40">
+    <row r="410" hidden="1" spans="1:40">
       <c r="A410" s="2" t="s">
         <v>858</v>
       </c>
@@ -27954,7 +27962,7 @@
       <c r="AM410" s="28"/>
       <c r="AN410" s="37"/>
     </row>
-    <row r="411" spans="1:40">
+    <row r="411" hidden="1" spans="1:40">
       <c r="A411" s="2" t="s">
         <v>860</v>
       </c>
@@ -28008,7 +28016,7 @@
       <c r="AM411" s="28"/>
       <c r="AN411" s="37"/>
     </row>
-    <row r="412" spans="1:40">
+    <row r="412" hidden="1" spans="1:40">
       <c r="A412" s="2" t="s">
         <v>862</v>
       </c>
@@ -28062,7 +28070,7 @@
       <c r="AM412" s="28"/>
       <c r="AN412" s="37"/>
     </row>
-    <row r="413" spans="1:40">
+    <row r="413" hidden="1" spans="1:40">
       <c r="A413" s="2" t="s">
         <v>864</v>
       </c>
@@ -28116,7 +28124,7 @@
       <c r="AM413" s="28"/>
       <c r="AN413" s="37"/>
     </row>
-    <row r="414" spans="1:40">
+    <row r="414" hidden="1" spans="1:40">
       <c r="A414" s="2" t="s">
         <v>866</v>
       </c>
@@ -28170,7 +28178,7 @@
       <c r="AM414" s="28"/>
       <c r="AN414" s="37"/>
     </row>
-    <row r="415" spans="1:40">
+    <row r="415" hidden="1" spans="1:40">
       <c r="A415" s="2" t="s">
         <v>868</v>
       </c>
@@ -28224,7 +28232,7 @@
       <c r="AM415" s="28"/>
       <c r="AN415" s="37"/>
     </row>
-    <row r="416" spans="1:40">
+    <row r="416" hidden="1" spans="1:40">
       <c r="A416" s="2" t="s">
         <v>870</v>
       </c>
@@ -28278,7 +28286,7 @@
       <c r="AM416" s="28"/>
       <c r="AN416" s="37"/>
     </row>
-    <row r="417" spans="1:40">
+    <row r="417" hidden="1" spans="1:40">
       <c r="A417" s="2" t="s">
         <v>872</v>
       </c>
@@ -28332,7 +28340,7 @@
       <c r="AM417" s="28"/>
       <c r="AN417" s="37"/>
     </row>
-    <row r="418" spans="1:40">
+    <row r="418" hidden="1" spans="1:40">
       <c r="A418" s="2" t="s">
         <v>874</v>
       </c>
@@ -28386,7 +28394,7 @@
       <c r="AM418" s="28"/>
       <c r="AN418" s="37"/>
     </row>
-    <row r="419" spans="1:40">
+    <row r="419" hidden="1" spans="1:40">
       <c r="A419" s="2" t="s">
         <v>876</v>
       </c>
@@ -28440,7 +28448,7 @@
       <c r="AM419" s="28"/>
       <c r="AN419" s="37"/>
     </row>
-    <row r="420" spans="1:40">
+    <row r="420" hidden="1" spans="1:40">
       <c r="A420" s="2" t="s">
         <v>878</v>
       </c>
@@ -28494,7 +28502,7 @@
       <c r="AM420" s="28"/>
       <c r="AN420" s="37"/>
     </row>
-    <row r="421" spans="1:40">
+    <row r="421" hidden="1" spans="1:40">
       <c r="A421" s="2" t="s">
         <v>880</v>
       </c>
@@ -28548,7 +28556,7 @@
       <c r="AM421" s="28"/>
       <c r="AN421" s="37"/>
     </row>
-    <row r="422" spans="1:40">
+    <row r="422" hidden="1" spans="1:40">
       <c r="A422" s="2" t="s">
         <v>882</v>
       </c>
@@ -28602,7 +28610,7 @@
       <c r="AM422" s="28"/>
       <c r="AN422" s="37"/>
     </row>
-    <row r="423" spans="1:40">
+    <row r="423" hidden="1" spans="1:40">
       <c r="A423" s="2" t="s">
         <v>884</v>
       </c>
@@ -28656,7 +28664,7 @@
       <c r="AM423" s="28"/>
       <c r="AN423" s="37"/>
     </row>
-    <row r="424" spans="1:40">
+    <row r="424" hidden="1" spans="1:40">
       <c r="A424" s="2" t="s">
         <v>886</v>
       </c>
@@ -28710,7 +28718,7 @@
       <c r="AM424" s="28"/>
       <c r="AN424" s="37"/>
     </row>
-    <row r="425" spans="1:40">
+    <row r="425" hidden="1" spans="1:40">
       <c r="A425" s="2" t="s">
         <v>888</v>
       </c>
@@ -28764,7 +28772,7 @@
       <c r="AM425" s="28"/>
       <c r="AN425" s="37"/>
     </row>
-    <row r="426" spans="1:40">
+    <row r="426" hidden="1" spans="1:40">
       <c r="A426" s="2" t="s">
         <v>890</v>
       </c>
@@ -28818,7 +28826,7 @@
       <c r="AM426" s="28"/>
       <c r="AN426" s="37"/>
     </row>
-    <row r="427" spans="1:40">
+    <row r="427" hidden="1" spans="1:40">
       <c r="A427" s="2" t="s">
         <v>892</v>
       </c>
@@ -28872,7 +28880,7 @@
       <c r="AM427" s="28"/>
       <c r="AN427" s="37"/>
     </row>
-    <row r="428" spans="1:40">
+    <row r="428" hidden="1" spans="1:40">
       <c r="A428" s="2" t="s">
         <v>894</v>
       </c>
@@ -28926,7 +28934,7 @@
       <c r="AM428" s="28"/>
       <c r="AN428" s="37"/>
     </row>
-    <row r="429" spans="1:40">
+    <row r="429" hidden="1" spans="1:40">
       <c r="A429" s="2" t="s">
         <v>896</v>
       </c>
@@ -28980,7 +28988,7 @@
       <c r="AM429" s="28"/>
       <c r="AN429" s="37"/>
     </row>
-    <row r="430" spans="1:40">
+    <row r="430" hidden="1" spans="1:40">
       <c r="A430" s="2" t="s">
         <v>898</v>
       </c>
@@ -29034,7 +29042,7 @@
       <c r="AM430" s="28"/>
       <c r="AN430" s="37"/>
     </row>
-    <row r="431" spans="1:40">
+    <row r="431" hidden="1" spans="1:40">
       <c r="A431" s="2" t="s">
         <v>900</v>
       </c>
@@ -29088,7 +29096,7 @@
       <c r="AM431" s="28"/>
       <c r="AN431" s="37"/>
     </row>
-    <row r="432" spans="1:40">
+    <row r="432" hidden="1" spans="1:40">
       <c r="A432" s="2" t="s">
         <v>902</v>
       </c>
@@ -29142,7 +29150,7 @@
       <c r="AM432" s="28"/>
       <c r="AN432" s="37"/>
     </row>
-    <row r="433" spans="1:40">
+    <row r="433" hidden="1" spans="1:40">
       <c r="A433" s="2" t="s">
         <v>904</v>
       </c>
@@ -29294,7 +29302,7 @@
         <v>44636</v>
       </c>
     </row>
-    <row r="435" spans="1:40">
+    <row r="435" hidden="1" spans="1:40">
       <c r="A435" s="2" t="s">
         <v>908</v>
       </c>
@@ -29348,7 +29356,7 @@
       <c r="AM435" s="28"/>
       <c r="AN435" s="37"/>
     </row>
-    <row r="436" spans="1:40">
+    <row r="436" hidden="1" spans="1:40">
       <c r="A436" s="2" t="s">
         <v>910</v>
       </c>
@@ -29402,7 +29410,7 @@
       <c r="AM436" s="28"/>
       <c r="AN436" s="37"/>
     </row>
-    <row r="437" spans="1:40">
+    <row r="437" hidden="1" spans="1:40">
       <c r="A437" s="2" t="s">
         <v>912</v>
       </c>
@@ -29456,7 +29464,7 @@
       <c r="AM437" s="28"/>
       <c r="AN437" s="37"/>
     </row>
-    <row r="438" spans="1:40">
+    <row r="438" hidden="1" spans="1:40">
       <c r="A438" s="2" t="s">
         <v>914</v>
       </c>
@@ -29510,7 +29518,7 @@
       <c r="AM438" s="28"/>
       <c r="AN438" s="37"/>
     </row>
-    <row r="439" spans="1:40">
+    <row r="439" hidden="1" spans="1:40">
       <c r="A439" s="2" t="s">
         <v>916</v>
       </c>
@@ -29564,7 +29572,7 @@
       <c r="AM439" s="28"/>
       <c r="AN439" s="37"/>
     </row>
-    <row r="440" spans="1:40">
+    <row r="440" hidden="1" spans="1:40">
       <c r="A440" s="2" t="s">
         <v>918</v>
       </c>
@@ -29618,7 +29626,7 @@
       <c r="AM440" s="28"/>
       <c r="AN440" s="37"/>
     </row>
-    <row r="441" spans="1:40">
+    <row r="441" hidden="1" spans="1:40">
       <c r="A441" s="2" t="s">
         <v>920</v>
       </c>
@@ -29672,7 +29680,7 @@
       <c r="AM441" s="28"/>
       <c r="AN441" s="37"/>
     </row>
-    <row r="442" spans="1:40">
+    <row r="442" hidden="1" spans="1:40">
       <c r="A442" s="2" t="s">
         <v>922</v>
       </c>
@@ -29726,7 +29734,7 @@
       <c r="AM442" s="28"/>
       <c r="AN442" s="37"/>
     </row>
-    <row r="443" spans="1:40">
+    <row r="443" hidden="1" spans="1:40">
       <c r="A443" s="2" t="s">
         <v>924</v>
       </c>
@@ -29780,7 +29788,7 @@
       <c r="AM443" s="28"/>
       <c r="AN443" s="37"/>
     </row>
-    <row r="444" spans="1:40">
+    <row r="444" hidden="1" spans="1:40">
       <c r="A444" s="2" t="s">
         <v>926</v>
       </c>
@@ -29834,7 +29842,7 @@
       <c r="AM444" s="28"/>
       <c r="AN444" s="37"/>
     </row>
-    <row r="445" spans="1:40">
+    <row r="445" hidden="1" spans="1:40">
       <c r="A445" s="2" t="s">
         <v>928</v>
       </c>
@@ -29888,7 +29896,7 @@
       <c r="AM445" s="28"/>
       <c r="AN445" s="37"/>
     </row>
-    <row r="446" spans="1:40">
+    <row r="446" hidden="1" spans="1:40">
       <c r="A446" s="2" t="s">
         <v>930</v>
       </c>
@@ -29942,7 +29950,7 @@
       <c r="AM446" s="28"/>
       <c r="AN446" s="37"/>
     </row>
-    <row r="447" spans="1:40">
+    <row r="447" hidden="1" spans="1:40">
       <c r="A447" s="2" t="s">
         <v>932</v>
       </c>
@@ -29996,7 +30004,7 @@
       <c r="AM447" s="28"/>
       <c r="AN447" s="37"/>
     </row>
-    <row r="448" spans="1:40">
+    <row r="448" hidden="1" spans="1:40">
       <c r="A448" s="2" t="s">
         <v>934</v>
       </c>
@@ -30050,7 +30058,7 @@
       <c r="AM448" s="28"/>
       <c r="AN448" s="37"/>
     </row>
-    <row r="449" spans="1:40">
+    <row r="449" hidden="1" spans="1:40">
       <c r="A449" s="2" t="s">
         <v>936</v>
       </c>
@@ -30104,7 +30112,7 @@
       <c r="AM449" s="28"/>
       <c r="AN449" s="37"/>
     </row>
-    <row r="450" spans="1:40">
+    <row r="450" hidden="1" spans="1:40">
       <c r="A450" s="2" t="s">
         <v>938</v>
       </c>
@@ -30158,7 +30166,7 @@
       <c r="AM450" s="28"/>
       <c r="AN450" s="37"/>
     </row>
-    <row r="451" spans="1:40">
+    <row r="451" hidden="1" spans="1:40">
       <c r="A451" s="2" t="s">
         <v>940</v>
       </c>
@@ -30212,7 +30220,7 @@
       <c r="AM451" s="28"/>
       <c r="AN451" s="37"/>
     </row>
-    <row r="452" spans="1:40">
+    <row r="452" hidden="1" spans="1:40">
       <c r="A452" s="2" t="s">
         <v>942</v>
       </c>
@@ -30266,7 +30274,7 @@
       <c r="AM452" s="28"/>
       <c r="AN452" s="37"/>
     </row>
-    <row r="453" spans="1:40">
+    <row r="453" hidden="1" spans="1:40">
       <c r="A453" s="2" t="s">
         <v>944</v>
       </c>
@@ -30320,7 +30328,7 @@
       <c r="AM453" s="28"/>
       <c r="AN453" s="37"/>
     </row>
-    <row r="454" spans="1:40">
+    <row r="454" hidden="1" spans="1:40">
       <c r="A454" s="2" t="s">
         <v>946</v>
       </c>
@@ -30374,7 +30382,7 @@
       <c r="AM454" s="28"/>
       <c r="AN454" s="37"/>
     </row>
-    <row r="455" spans="1:40">
+    <row r="455" hidden="1" spans="1:40">
       <c r="A455" s="2" t="s">
         <v>948</v>
       </c>
@@ -30428,7 +30436,7 @@
       <c r="AM455" s="28"/>
       <c r="AN455" s="37"/>
     </row>
-    <row r="456" spans="1:40">
+    <row r="456" hidden="1" spans="1:40">
       <c r="A456" s="2" t="s">
         <v>950</v>
       </c>
@@ -30482,7 +30490,7 @@
       <c r="AM456" s="28"/>
       <c r="AN456" s="37"/>
     </row>
-    <row r="457" spans="1:40">
+    <row r="457" hidden="1" spans="1:40">
       <c r="A457" s="2" t="s">
         <v>952</v>
       </c>
@@ -30536,7 +30544,7 @@
       <c r="AM457" s="28"/>
       <c r="AN457" s="37"/>
     </row>
-    <row r="458" spans="1:40">
+    <row r="458" hidden="1" spans="1:40">
       <c r="A458" s="2" t="s">
         <v>954</v>
       </c>
@@ -30590,7 +30598,7 @@
       <c r="AM458" s="28"/>
       <c r="AN458" s="37"/>
     </row>
-    <row r="459" spans="1:40">
+    <row r="459" hidden="1" spans="1:40">
       <c r="A459" s="2" t="s">
         <v>956</v>
       </c>
@@ -30644,7 +30652,7 @@
       <c r="AM459" s="28"/>
       <c r="AN459" s="37"/>
     </row>
-    <row r="460" spans="1:40">
+    <row r="460" hidden="1" spans="1:40">
       <c r="A460" s="2" t="s">
         <v>958</v>
       </c>
@@ -30698,7 +30706,7 @@
       <c r="AM460" s="28"/>
       <c r="AN460" s="37"/>
     </row>
-    <row r="461" spans="1:40">
+    <row r="461" hidden="1" spans="1:40">
       <c r="A461" s="2" t="s">
         <v>960</v>
       </c>
@@ -30752,7 +30760,7 @@
       <c r="AM461" s="28"/>
       <c r="AN461" s="37"/>
     </row>
-    <row r="462" spans="1:40">
+    <row r="462" hidden="1" spans="1:40">
       <c r="A462" s="2" t="s">
         <v>962</v>
       </c>
@@ -30806,7 +30814,7 @@
       <c r="AM462" s="28"/>
       <c r="AN462" s="37"/>
     </row>
-    <row r="463" spans="1:40">
+    <row r="463" hidden="1" spans="1:40">
       <c r="A463" s="2" t="s">
         <v>964</v>
       </c>
@@ -30860,7 +30868,7 @@
       <c r="AM463" s="28"/>
       <c r="AN463" s="37"/>
     </row>
-    <row r="464" spans="1:40">
+    <row r="464" hidden="1" spans="1:40">
       <c r="A464" s="2" t="s">
         <v>966</v>
       </c>
@@ -30914,7 +30922,7 @@
       <c r="AM464" s="28"/>
       <c r="AN464" s="37"/>
     </row>
-    <row r="465" spans="1:40">
+    <row r="465" hidden="1" spans="1:40">
       <c r="A465" s="2" t="s">
         <v>968</v>
       </c>
@@ -30968,7 +30976,7 @@
       <c r="AM465" s="28"/>
       <c r="AN465" s="37"/>
     </row>
-    <row r="466" spans="1:40">
+    <row r="466" hidden="1" spans="1:40">
       <c r="A466" s="2" t="s">
         <v>970</v>
       </c>
@@ -31022,7 +31030,7 @@
       <c r="AM466" s="28"/>
       <c r="AN466" s="37"/>
     </row>
-    <row r="467" spans="1:40">
+    <row r="467" hidden="1" spans="1:40">
       <c r="A467" s="2" t="s">
         <v>972</v>
       </c>
@@ -31076,7 +31084,7 @@
       <c r="AM467" s="28"/>
       <c r="AN467" s="37"/>
     </row>
-    <row r="468" spans="1:40">
+    <row r="468" hidden="1" spans="1:40">
       <c r="A468" s="2" t="s">
         <v>974</v>
       </c>
@@ -31130,7 +31138,7 @@
       <c r="AM468" s="28"/>
       <c r="AN468" s="37"/>
     </row>
-    <row r="469" spans="1:40">
+    <row r="469" hidden="1" spans="1:40">
       <c r="A469" s="2" t="s">
         <v>976</v>
       </c>
@@ -31184,7 +31192,7 @@
       <c r="AM469" s="28"/>
       <c r="AN469" s="37"/>
     </row>
-    <row r="470" spans="1:40">
+    <row r="470" hidden="1" spans="1:40">
       <c r="A470" s="2" t="s">
         <v>978</v>
       </c>
@@ -31238,7 +31246,7 @@
       <c r="AM470" s="28"/>
       <c r="AN470" s="37"/>
     </row>
-    <row r="471" spans="1:40">
+    <row r="471" hidden="1" spans="1:40">
       <c r="A471" s="2" t="s">
         <v>980</v>
       </c>
@@ -31292,7 +31300,7 @@
       <c r="AM471" s="28"/>
       <c r="AN471" s="37"/>
     </row>
-    <row r="472" spans="1:40">
+    <row r="472" hidden="1" spans="1:40">
       <c r="A472" s="2" t="s">
         <v>982</v>
       </c>
@@ -31346,7 +31354,7 @@
       <c r="AM472" s="28"/>
       <c r="AN472" s="37"/>
     </row>
-    <row r="473" spans="1:40">
+    <row r="473" hidden="1" spans="1:40">
       <c r="A473" s="2" t="s">
         <v>984</v>
       </c>
@@ -31400,7 +31408,7 @@
       <c r="AM473" s="28"/>
       <c r="AN473" s="37"/>
     </row>
-    <row r="474" spans="1:40">
+    <row r="474" hidden="1" spans="1:40">
       <c r="A474" s="2" t="s">
         <v>986</v>
       </c>
@@ -31454,7 +31462,7 @@
       <c r="AM474" s="28"/>
       <c r="AN474" s="37"/>
     </row>
-    <row r="475" spans="1:40">
+    <row r="475" hidden="1" spans="1:40">
       <c r="A475" s="2" t="s">
         <v>988</v>
       </c>
@@ -31508,7 +31516,7 @@
       <c r="AM475" s="28"/>
       <c r="AN475" s="37"/>
     </row>
-    <row r="476" spans="1:40">
+    <row r="476" hidden="1" spans="1:40">
       <c r="A476" s="2" t="s">
         <v>990</v>
       </c>
@@ -31562,7 +31570,7 @@
       <c r="AM476" s="28"/>
       <c r="AN476" s="37"/>
     </row>
-    <row r="477" spans="1:40">
+    <row r="477" hidden="1" spans="1:40">
       <c r="A477" s="2" t="s">
         <v>992</v>
       </c>
@@ -31616,7 +31624,7 @@
       <c r="AM477" s="28"/>
       <c r="AN477" s="37"/>
     </row>
-    <row r="478" spans="1:40">
+    <row r="478" hidden="1" spans="1:40">
       <c r="A478" s="2" t="s">
         <v>994</v>
       </c>
@@ -31670,7 +31678,7 @@
       <c r="AM478" s="28"/>
       <c r="AN478" s="37"/>
     </row>
-    <row r="479" spans="1:40">
+    <row r="479" hidden="1" spans="1:40">
       <c r="A479" s="2" t="s">
         <v>996</v>
       </c>
@@ -31724,7 +31732,7 @@
       <c r="AM479" s="28"/>
       <c r="AN479" s="37"/>
     </row>
-    <row r="480" spans="1:40">
+    <row r="480" hidden="1" spans="1:40">
       <c r="A480" s="2" t="s">
         <v>998</v>
       </c>
@@ -31778,7 +31786,7 @@
       <c r="AM480" s="28"/>
       <c r="AN480" s="37"/>
     </row>
-    <row r="481" spans="1:40">
+    <row r="481" hidden="1" spans="1:40">
       <c r="A481" s="2" t="s">
         <v>1000</v>
       </c>
@@ -31832,7 +31840,7 @@
       <c r="AM481" s="28"/>
       <c r="AN481" s="37"/>
     </row>
-    <row r="482" spans="1:40">
+    <row r="482" hidden="1" spans="1:40">
       <c r="A482" s="2" t="s">
         <v>1002</v>
       </c>
@@ -31886,7 +31894,7 @@
       <c r="AM482" s="28"/>
       <c r="AN482" s="37"/>
     </row>
-    <row r="483" spans="1:40">
+    <row r="483" hidden="1" spans="1:40">
       <c r="A483" s="2" t="s">
         <v>1004</v>
       </c>
@@ -31940,7 +31948,7 @@
       <c r="AM483" s="28"/>
       <c r="AN483" s="37"/>
     </row>
-    <row r="484" spans="1:40">
+    <row r="484" hidden="1" spans="1:40">
       <c r="A484" s="2" t="s">
         <v>1006</v>
       </c>
@@ -32080,7 +32088,7 @@
       <c r="AM485" s="88"/>
       <c r="AN485" s="93"/>
     </row>
-    <row r="486" spans="1:40">
+    <row r="486" hidden="1" spans="1:40">
       <c r="A486" s="2" t="s">
         <v>1010</v>
       </c>
@@ -32134,7 +32142,7 @@
       <c r="AM486" s="28"/>
       <c r="AN486" s="37"/>
     </row>
-    <row r="487" spans="1:40">
+    <row r="487" hidden="1" spans="1:40">
       <c r="A487" s="2" t="s">
         <v>1012</v>
       </c>
@@ -32188,7 +32196,7 @@
       <c r="AM487" s="28"/>
       <c r="AN487" s="37"/>
     </row>
-    <row r="488" spans="1:40">
+    <row r="488" hidden="1" spans="1:40">
       <c r="A488" s="2" t="s">
         <v>1014</v>
       </c>
@@ -32242,7 +32250,7 @@
       <c r="AM488" s="28"/>
       <c r="AN488" s="37"/>
     </row>
-    <row r="489" spans="1:40">
+    <row r="489" hidden="1" spans="1:40">
       <c r="A489" s="2" t="s">
         <v>1016</v>
       </c>
@@ -32296,7 +32304,7 @@
       <c r="AM489" s="28"/>
       <c r="AN489" s="37"/>
     </row>
-    <row r="490" spans="1:40">
+    <row r="490" hidden="1" spans="1:40">
       <c r="A490" s="2" t="s">
         <v>1018</v>
       </c>
@@ -32350,7 +32358,7 @@
       <c r="AM490" s="28"/>
       <c r="AN490" s="37"/>
     </row>
-    <row r="491" spans="1:40">
+    <row r="491" hidden="1" spans="1:40">
       <c r="A491" s="2" t="s">
         <v>1020</v>
       </c>
@@ -32404,7 +32412,7 @@
       <c r="AM491" s="28"/>
       <c r="AN491" s="37"/>
     </row>
-    <row r="492" spans="1:40">
+    <row r="492" hidden="1" spans="1:40">
       <c r="A492" s="2" t="s">
         <v>1022</v>
       </c>
@@ -32458,7 +32466,7 @@
       <c r="AM492" s="28"/>
       <c r="AN492" s="37"/>
     </row>
-    <row r="493" spans="1:40">
+    <row r="493" hidden="1" spans="1:40">
       <c r="A493" s="2" t="s">
         <v>1024</v>
       </c>
@@ -32512,7 +32520,7 @@
       <c r="AM493" s="28"/>
       <c r="AN493" s="37"/>
     </row>
-    <row r="494" spans="1:40">
+    <row r="494" hidden="1" spans="1:40">
       <c r="A494" s="2" t="s">
         <v>1026</v>
       </c>
@@ -32566,7 +32574,7 @@
       <c r="AM494" s="28"/>
       <c r="AN494" s="37"/>
     </row>
-    <row r="495" spans="1:40">
+    <row r="495" hidden="1" spans="1:40">
       <c r="A495" s="2" t="s">
         <v>1028</v>
       </c>
@@ -32620,7 +32628,7 @@
       <c r="AM495" s="28"/>
       <c r="AN495" s="37"/>
     </row>
-    <row r="496" spans="1:40">
+    <row r="496" hidden="1" spans="1:40">
       <c r="A496" s="2" t="s">
         <v>1030</v>
       </c>
@@ -32674,7 +32682,7 @@
       <c r="AM496" s="28"/>
       <c r="AN496" s="37"/>
     </row>
-    <row r="497" spans="1:40">
+    <row r="497" hidden="1" spans="1:40">
       <c r="A497" s="2" t="s">
         <v>1032</v>
       </c>
@@ -32728,7 +32736,7 @@
       <c r="AM497" s="28"/>
       <c r="AN497" s="37"/>
     </row>
-    <row r="498" spans="1:40">
+    <row r="498" hidden="1" spans="1:40">
       <c r="A498" s="2" t="s">
         <v>1034</v>
       </c>
@@ -32782,7 +32790,7 @@
       <c r="AM498" s="28"/>
       <c r="AN498" s="37"/>
     </row>
-    <row r="499" spans="1:40">
+    <row r="499" hidden="1" spans="1:40">
       <c r="A499" s="2" t="s">
         <v>1036</v>
       </c>
@@ -32836,7 +32844,7 @@
       <c r="AM499" s="28"/>
       <c r="AN499" s="37"/>
     </row>
-    <row r="500" spans="1:40">
+    <row r="500" hidden="1" spans="1:40">
       <c r="A500" s="2" t="s">
         <v>1038</v>
       </c>
@@ -32890,7 +32898,7 @@
       <c r="AM500" s="28"/>
       <c r="AN500" s="37"/>
     </row>
-    <row r="501" spans="1:40">
+    <row r="501" hidden="1" spans="1:40">
       <c r="A501" s="2" t="s">
         <v>1040</v>
       </c>
@@ -32944,7 +32952,7 @@
       <c r="AM501" s="28"/>
       <c r="AN501" s="37"/>
     </row>
-    <row r="502" spans="1:40">
+    <row r="502" hidden="1" spans="1:40">
       <c r="A502" s="2" t="s">
         <v>1042</v>
       </c>
@@ -32998,7 +33006,7 @@
       <c r="AM502" s="28"/>
       <c r="AN502" s="37"/>
     </row>
-    <row r="503" spans="1:40">
+    <row r="503" hidden="1" spans="1:40">
       <c r="A503" s="2" t="s">
         <v>1044</v>
       </c>
@@ -33052,7 +33060,7 @@
       <c r="AM503" s="28"/>
       <c r="AN503" s="37"/>
     </row>
-    <row r="504" spans="1:40">
+    <row r="504" hidden="1" spans="1:40">
       <c r="A504" s="2" t="s">
         <v>1046</v>
       </c>
@@ -33106,7 +33114,7 @@
       <c r="AM504" s="28"/>
       <c r="AN504" s="37"/>
     </row>
-    <row r="505" spans="1:40">
+    <row r="505" hidden="1" spans="1:40">
       <c r="A505" s="2" t="s">
         <v>1048</v>
       </c>
@@ -33160,7 +33168,7 @@
       <c r="AM505" s="28"/>
       <c r="AN505" s="37"/>
     </row>
-    <row r="506" spans="1:40">
+    <row r="506" hidden="1" spans="1:40">
       <c r="A506" s="2" t="s">
         <v>1050</v>
       </c>
@@ -33214,7 +33222,7 @@
       <c r="AM506" s="28"/>
       <c r="AN506" s="37"/>
     </row>
-    <row r="507" spans="1:40">
+    <row r="507" hidden="1" spans="1:40">
       <c r="A507" s="2" t="s">
         <v>1052</v>
       </c>
@@ -33268,7 +33276,7 @@
       <c r="AM507" s="28"/>
       <c r="AN507" s="37"/>
     </row>
-    <row r="508" spans="1:40">
+    <row r="508" hidden="1" spans="1:40">
       <c r="A508" s="2" t="s">
         <v>1054</v>
       </c>
@@ -33322,7 +33330,7 @@
       <c r="AM508" s="28"/>
       <c r="AN508" s="37"/>
     </row>
-    <row r="509" spans="1:40">
+    <row r="509" hidden="1" spans="1:40">
       <c r="A509" s="2" t="s">
         <v>1056</v>
       </c>
@@ -33376,7 +33384,7 @@
       <c r="AM509" s="28"/>
       <c r="AN509" s="37"/>
     </row>
-    <row r="510" spans="1:40">
+    <row r="510" hidden="1" spans="1:40">
       <c r="A510" s="2" t="s">
         <v>1058</v>
       </c>
@@ -33430,7 +33438,7 @@
       <c r="AM510" s="28"/>
       <c r="AN510" s="37"/>
     </row>
-    <row r="511" spans="1:40">
+    <row r="511" hidden="1" spans="1:40">
       <c r="A511" s="2" t="s">
         <v>1060</v>
       </c>
@@ -33484,7 +33492,7 @@
       <c r="AM511" s="28"/>
       <c r="AN511" s="37"/>
     </row>
-    <row r="512" spans="1:40">
+    <row r="512" hidden="1" spans="1:40">
       <c r="A512" s="2" t="s">
         <v>1062</v>
       </c>
@@ -33538,7 +33546,7 @@
       <c r="AM512" s="28"/>
       <c r="AN512" s="37"/>
     </row>
-    <row r="513" spans="1:40">
+    <row r="513" hidden="1" spans="1:40">
       <c r="A513" s="2" t="s">
         <v>1064</v>
       </c>
@@ -33592,7 +33600,7 @@
       <c r="AM513" s="28"/>
       <c r="AN513" s="37"/>
     </row>
-    <row r="514" spans="1:40">
+    <row r="514" hidden="1" spans="1:40">
       <c r="A514" s="2" t="s">
         <v>1066</v>
       </c>
@@ -33646,7 +33654,7 @@
       <c r="AM514" s="28"/>
       <c r="AN514" s="37"/>
     </row>
-    <row r="515" spans="1:40">
+    <row r="515" hidden="1" spans="1:40">
       <c r="A515" s="2" t="s">
         <v>1068</v>
       </c>
@@ -33700,7 +33708,7 @@
       <c r="AM515" s="28"/>
       <c r="AN515" s="37"/>
     </row>
-    <row r="516" spans="1:40">
+    <row r="516" hidden="1" spans="1:40">
       <c r="A516" s="2" t="s">
         <v>1070</v>
       </c>
@@ -33754,7 +33762,7 @@
       <c r="AM516" s="28"/>
       <c r="AN516" s="37"/>
     </row>
-    <row r="517" spans="1:40">
+    <row r="517" hidden="1" spans="1:40">
       <c r="A517" s="2" t="s">
         <v>1072</v>
       </c>
@@ -33891,7 +33899,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="519" spans="1:40">
+    <row r="519" hidden="1" spans="1:40">
       <c r="A519" s="2" t="s">
         <v>1076</v>
       </c>
@@ -33945,7 +33953,7 @@
       <c r="AM519" s="28"/>
       <c r="AN519" s="37"/>
     </row>
-    <row r="520" spans="1:40">
+    <row r="520" hidden="1" spans="1:40">
       <c r="A520" s="2" t="s">
         <v>1078</v>
       </c>
@@ -33999,7 +34007,7 @@
       <c r="AM520" s="28"/>
       <c r="AN520" s="37"/>
     </row>
-    <row r="521" spans="1:40">
+    <row r="521" hidden="1" spans="1:40">
       <c r="A521" s="2" t="s">
         <v>1080</v>
       </c>
@@ -34053,7 +34061,7 @@
       <c r="AM521" s="28"/>
       <c r="AN521" s="37"/>
     </row>
-    <row r="522" spans="1:40">
+    <row r="522" hidden="1" spans="1:40">
       <c r="A522" s="2" t="s">
         <v>1082</v>
       </c>
@@ -34182,7 +34190,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="524" spans="1:40">
+    <row r="524" hidden="1" spans="1:40">
       <c r="A524" s="2" t="s">
         <v>1086</v>
       </c>
@@ -34236,7 +34244,7 @@
       <c r="AM524" s="28"/>
       <c r="AN524" s="37"/>
     </row>
-    <row r="525" spans="1:40">
+    <row r="525" hidden="1" spans="1:40">
       <c r="A525" s="2" t="s">
         <v>1088</v>
       </c>
@@ -34290,7 +34298,7 @@
       <c r="AM525" s="28"/>
       <c r="AN525" s="37"/>
     </row>
-    <row r="526" spans="1:40">
+    <row r="526" hidden="1" spans="1:40">
       <c r="A526" s="2" t="s">
         <v>1090</v>
       </c>
@@ -34344,7 +34352,7 @@
       <c r="AM526" s="28"/>
       <c r="AN526" s="37"/>
     </row>
-    <row r="527" spans="1:40">
+    <row r="527" hidden="1" spans="1:40">
       <c r="A527" s="2" t="s">
         <v>1092</v>
       </c>
@@ -34398,7 +34406,7 @@
       <c r="AM527" s="28"/>
       <c r="AN527" s="37"/>
     </row>
-    <row r="528" spans="1:40">
+    <row r="528" hidden="1" spans="1:40">
       <c r="A528" s="2" t="s">
         <v>1094</v>
       </c>
@@ -34452,7 +34460,7 @@
       <c r="AM528" s="28"/>
       <c r="AN528" s="37"/>
     </row>
-    <row r="529" spans="1:40">
+    <row r="529" hidden="1" spans="1:40">
       <c r="A529" s="2" t="s">
         <v>1096</v>
       </c>
@@ -34582,7 +34590,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="531" spans="1:40">
+    <row r="531" hidden="1" spans="1:40">
       <c r="A531" s="2" t="s">
         <v>1100</v>
       </c>
@@ -34637,6 +34645,11 @@
       <c r="AN531" s="37"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B531">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="26">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="O1:AG1"/>
@@ -34666,10 +34679,10 @@
     <mergeCell ref="AN1:AN3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -39261,10 +39274,10 @@
   </sheetData>
   <autoFilter ref="A1:A571"/>
   <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B528">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
+++ b/我的创作/股票/交易系统/SEAP交易系统/交易分析与计划/2022-04/收盘价大于50日均线,50日均线大于150日均线,... .xlsx
@@ -3693,13 +3693,13 @@
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3747,6 +3747,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3754,17 +3761,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3783,17 +3791,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3807,8 +3860,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3823,58 +3883,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -3883,15 +3891,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3972,6 +3972,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3984,7 +3990,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3996,7 +4020,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4008,37 +4080,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4050,25 +4104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4080,43 +4116,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4128,25 +4146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4178,8 +4178,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4189,6 +4189,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4209,16 +4235,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4240,183 +4266,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4441,13 +4441,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4462,19 +4462,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4492,16 +4492,16 @@
     <xf numFmtId="10" fontId="2" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4516,16 +4516,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4534,7 +4534,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4565,10 +4565,10 @@
     <xf numFmtId="10" fontId="4" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4577,10 +4577,13 @@
     <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4592,10 +4595,10 @@
     <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4610,13 +4613,13 @@
     <xf numFmtId="10" fontId="5" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4625,7 +4628,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4634,32 +4637,32 @@
     <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4668,25 +4671,22 @@
     <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4747,7 +4747,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5101,11 +5101,11 @@
   <dimension ref="A1:AN531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G139" sqref="G139"/>
+      <selection pane="bottomRight" activeCell="AC221" sqref="AC221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -12531,71 +12531,71 @@
       <c r="F136" s="3">
         <v>8.235</v>
       </c>
-      <c r="G136" s="17">
+      <c r="G136" s="19">
         <v>6.64</v>
       </c>
-      <c r="H136" s="17">
+      <c r="H136" s="19">
         <v>11.83</v>
       </c>
-      <c r="I136" s="17">
+      <c r="I136" s="19">
         <v>7.25</v>
       </c>
-      <c r="J136" s="22">
+      <c r="J136" s="24">
         <f>(C136-G136)/G136</f>
         <v>0.59789156626506</v>
       </c>
-      <c r="K136" s="22">
+      <c r="K136" s="24">
         <f>(H136-C136)/H136</f>
         <v>0.10312764158918</v>
       </c>
-      <c r="L136" s="22">
+      <c r="L136" s="24">
         <f>(H136-I136)/I136</f>
         <v>0.631724137931035</v>
       </c>
-      <c r="M136" s="27"/>
-      <c r="N136" s="27"/>
-      <c r="O136" s="17">
+      <c r="M136" s="29"/>
+      <c r="N136" s="29"/>
+      <c r="O136" s="19">
         <v>8.5</v>
       </c>
-      <c r="P136" s="17">
+      <c r="P136" s="19">
         <v>11.39</v>
       </c>
-      <c r="Q136" s="17">
+      <c r="Q136" s="19">
         <v>9.68</v>
       </c>
-      <c r="R136" s="17"/>
-      <c r="S136" s="17"/>
-      <c r="T136" s="17"/>
-      <c r="U136" s="17"/>
-      <c r="V136" s="17"/>
-      <c r="W136" s="17"/>
-      <c r="X136" s="17"/>
-      <c r="Y136" s="17"/>
-      <c r="Z136" s="27"/>
-      <c r="AA136" s="22">
+      <c r="R136" s="19"/>
+      <c r="S136" s="19"/>
+      <c r="T136" s="19"/>
+      <c r="U136" s="19"/>
+      <c r="V136" s="19"/>
+      <c r="W136" s="19"/>
+      <c r="X136" s="19"/>
+      <c r="Y136" s="19"/>
+      <c r="Z136" s="29"/>
+      <c r="AA136" s="24">
         <f>(H136-O136)/H136</f>
         <v>0.281487743026205</v>
       </c>
-      <c r="AB136" s="22">
+      <c r="AB136" s="24">
         <f>(P136-Q136)/P136</f>
         <v>0.150131694468832</v>
       </c>
-      <c r="AC136" s="22" t="e">
+      <c r="AC136" s="24" t="e">
         <f>(R136-S136)/R136</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD136" s="22"/>
-      <c r="AE136" s="22"/>
-      <c r="AF136" s="22"/>
-      <c r="AG136" s="27"/>
-      <c r="AH136" s="27"/>
-      <c r="AI136" s="27"/>
-      <c r="AJ136" s="27"/>
-      <c r="AK136" s="27"/>
-      <c r="AL136" s="27"/>
-      <c r="AM136" s="27"/>
-      <c r="AN136" s="36">
-        <v>44656</v>
+      <c r="AD136" s="24"/>
+      <c r="AE136" s="24"/>
+      <c r="AF136" s="24"/>
+      <c r="AG136" s="29"/>
+      <c r="AH136" s="29"/>
+      <c r="AI136" s="29"/>
+      <c r="AJ136" s="29"/>
+      <c r="AK136" s="29"/>
+      <c r="AL136" s="29"/>
+      <c r="AM136" s="29"/>
+      <c r="AN136" s="38">
+        <v>44668</v>
       </c>
     </row>
     <row r="137" hidden="1" spans="1:40">
@@ -14690,8 +14690,12 @@
       <c r="Q174" s="48">
         <v>11.6</v>
       </c>
-      <c r="R174" s="48"/>
-      <c r="S174" s="48"/>
+      <c r="R174" s="48">
+        <v>13.04</v>
+      </c>
+      <c r="S174" s="48">
+        <v>11.81</v>
+      </c>
       <c r="T174" s="48"/>
       <c r="U174" s="48"/>
       <c r="V174" s="48"/>
@@ -16847,24 +16851,24 @@
       <c r="F214" s="3">
         <v>6.134</v>
       </c>
-      <c r="G214" s="17">
+      <c r="G214" s="19">
         <v>5.1</v>
       </c>
-      <c r="H214" s="17">
+      <c r="H214" s="19">
         <v>8.38</v>
       </c>
-      <c r="I214" s="17">
+      <c r="I214" s="19">
         <v>6.1</v>
       </c>
-      <c r="J214" s="22">
+      <c r="J214" s="24">
         <f>(C214-G214)/G214</f>
         <v>0.405882352941177</v>
       </c>
-      <c r="K214" s="22">
+      <c r="K214" s="24">
         <f>(H214-C214)/H214</f>
         <v>0.144391408114559</v>
       </c>
-      <c r="L214" s="22">
+      <c r="L214" s="24">
         <f>(H214-I214)/I214</f>
         <v>0.373770491803279</v>
       </c>
@@ -16872,41 +16876,41 @@
         <v>1</v>
       </c>
       <c r="N214" s="56"/>
-      <c r="O214" s="17">
+      <c r="O214" s="19">
         <v>7.09</v>
       </c>
-      <c r="P214" s="17"/>
-      <c r="Q214" s="17"/>
-      <c r="R214" s="17"/>
-      <c r="S214" s="17"/>
-      <c r="T214" s="17"/>
-      <c r="U214" s="17"/>
-      <c r="V214" s="17"/>
-      <c r="W214" s="17"/>
-      <c r="X214" s="17"/>
-      <c r="Y214" s="17"/>
+      <c r="P214" s="19"/>
+      <c r="Q214" s="19"/>
+      <c r="R214" s="19"/>
+      <c r="S214" s="19"/>
+      <c r="T214" s="19"/>
+      <c r="U214" s="19"/>
+      <c r="V214" s="19"/>
+      <c r="W214" s="19"/>
+      <c r="X214" s="19"/>
+      <c r="Y214" s="19"/>
       <c r="Z214" s="56"/>
-      <c r="AA214" s="22">
+      <c r="AA214" s="24">
         <f>(H214-O214)/H214</f>
         <v>0.153937947494034</v>
       </c>
-      <c r="AB214" s="22" t="e">
+      <c r="AB214" s="24" t="e">
         <f>(P214-Q214)/P214</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC214" s="22" t="e">
+      <c r="AC214" s="24" t="e">
         <f>(R214-S214)/R214</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD214" s="22" t="e">
+      <c r="AD214" s="24" t="e">
         <f>(T214-U214)/T214</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE214" s="22" t="e">
+      <c r="AE214" s="24" t="e">
         <f>(V214-W214)/V214</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF214" s="22"/>
+      <c r="AF214" s="24"/>
       <c r="AG214" s="56"/>
       <c r="AH214" s="56"/>
       <c r="AI214" s="56"/>
@@ -16914,7 +16918,7 @@
       <c r="AK214" s="56"/>
       <c r="AL214" s="56"/>
       <c r="AM214" s="56"/>
-      <c r="AN214" s="36">
+      <c r="AN214" s="38">
         <v>44656</v>
       </c>
     </row>
@@ -17295,14 +17299,14 @@
       <c r="Q221" s="53">
         <v>8.66</v>
       </c>
-      <c r="R221" s="61"/>
-      <c r="S221" s="61"/>
-      <c r="T221" s="61"/>
-      <c r="U221" s="61"/>
-      <c r="V221" s="61"/>
-      <c r="W221" s="61"/>
-      <c r="X221" s="61"/>
-      <c r="Y221" s="61"/>
+      <c r="R221" s="62"/>
+      <c r="S221" s="62"/>
+      <c r="T221" s="62"/>
+      <c r="U221" s="62"/>
+      <c r="V221" s="62"/>
+      <c r="W221" s="62"/>
+      <c r="X221" s="62"/>
+      <c r="Y221" s="62"/>
       <c r="Z221" s="57"/>
       <c r="AA221" s="43">
         <f>(H221-O221)/H221</f>
@@ -17324,7 +17328,7 @@
         <f>(V221-W221)/V221</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF221" s="65"/>
+      <c r="AF221" s="66"/>
       <c r="AG221" s="57"/>
       <c r="AH221" s="57"/>
       <c r="AI221" s="57"/>
@@ -17332,7 +17336,7 @@
       <c r="AK221" s="57"/>
       <c r="AL221" s="57"/>
       <c r="AM221" s="57"/>
-      <c r="AN221" s="67"/>
+      <c r="AN221" s="68"/>
     </row>
     <row r="222" hidden="1" spans="1:40">
       <c r="A222" s="2" t="s">
@@ -17644,10 +17648,10 @@
         <f>(H227-I227)/I227</f>
         <v>0.848818897637795</v>
       </c>
-      <c r="M227" s="56">
+      <c r="M227" s="58">
         <v>3</v>
       </c>
-      <c r="N227" s="58"/>
+      <c r="N227" s="59"/>
       <c r="O227" s="17">
         <v>7.83</v>
       </c>
@@ -17657,15 +17661,15 @@
       <c r="Q227" s="17">
         <v>9.26</v>
       </c>
-      <c r="R227" s="62"/>
-      <c r="S227" s="62"/>
-      <c r="T227" s="62"/>
-      <c r="U227" s="62"/>
-      <c r="V227" s="62"/>
-      <c r="W227" s="62"/>
-      <c r="X227" s="62"/>
-      <c r="Y227" s="62"/>
-      <c r="Z227" s="58"/>
+      <c r="R227" s="63"/>
+      <c r="S227" s="63"/>
+      <c r="T227" s="63"/>
+      <c r="U227" s="63"/>
+      <c r="V227" s="63"/>
+      <c r="W227" s="63"/>
+      <c r="X227" s="63"/>
+      <c r="Y227" s="63"/>
+      <c r="Z227" s="59"/>
       <c r="AA227" s="22">
         <f>(H227-O227)/H227</f>
         <v>0.333049403747871</v>
@@ -17686,15 +17690,15 @@
         <f>(V227-W227)/V227</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF227" s="66"/>
-      <c r="AG227" s="58"/>
-      <c r="AH227" s="58"/>
-      <c r="AI227" s="58"/>
-      <c r="AJ227" s="58"/>
-      <c r="AK227" s="58"/>
-      <c r="AL227" s="58"/>
-      <c r="AM227" s="58"/>
-      <c r="AN227" s="68">
+      <c r="AF227" s="67"/>
+      <c r="AG227" s="59"/>
+      <c r="AH227" s="59"/>
+      <c r="AI227" s="59"/>
+      <c r="AJ227" s="59"/>
+      <c r="AK227" s="59"/>
+      <c r="AL227" s="59"/>
+      <c r="AM227" s="59"/>
+      <c r="AN227" s="69">
         <v>44649</v>
       </c>
     </row>
@@ -18764,43 +18768,43 @@
         <f>(H247-I247)/I247</f>
         <v>0.742718446601942</v>
       </c>
-      <c r="M247" s="59">
+      <c r="M247" s="60">
         <v>1</v>
       </c>
-      <c r="N247" s="59" t="s">
+      <c r="N247" s="60" t="s">
         <v>387</v>
       </c>
       <c r="O247" s="54">
         <v>2.49</v>
       </c>
-      <c r="P247" s="60"/>
-      <c r="Q247" s="60"/>
-      <c r="R247" s="60"/>
-      <c r="S247" s="60"/>
-      <c r="T247" s="60"/>
-      <c r="U247" s="60"/>
-      <c r="V247" s="60"/>
-      <c r="W247" s="60"/>
-      <c r="X247" s="60"/>
-      <c r="Y247" s="60"/>
-      <c r="Z247" s="63"/>
+      <c r="P247" s="61"/>
+      <c r="Q247" s="61"/>
+      <c r="R247" s="61"/>
+      <c r="S247" s="61"/>
+      <c r="T247" s="61"/>
+      <c r="U247" s="61"/>
+      <c r="V247" s="61"/>
+      <c r="W247" s="61"/>
+      <c r="X247" s="61"/>
+      <c r="Y247" s="61"/>
+      <c r="Z247" s="64"/>
       <c r="AA247" s="55">
         <f>(H247-O247)/H247</f>
         <v>0.306406685236769</v>
       </c>
-      <c r="AB247" s="64"/>
-      <c r="AC247" s="64"/>
-      <c r="AD247" s="64"/>
-      <c r="AE247" s="64"/>
-      <c r="AF247" s="64"/>
-      <c r="AG247" s="63"/>
-      <c r="AH247" s="63"/>
-      <c r="AI247" s="63"/>
-      <c r="AJ247" s="63"/>
-      <c r="AK247" s="63"/>
-      <c r="AL247" s="63"/>
-      <c r="AM247" s="63"/>
-      <c r="AN247" s="69">
+      <c r="AB247" s="65"/>
+      <c r="AC247" s="65"/>
+      <c r="AD247" s="65"/>
+      <c r="AE247" s="65"/>
+      <c r="AF247" s="65"/>
+      <c r="AG247" s="64"/>
+      <c r="AH247" s="64"/>
+      <c r="AI247" s="64"/>
+      <c r="AJ247" s="64"/>
+      <c r="AK247" s="64"/>
+      <c r="AL247" s="64"/>
+      <c r="AM247" s="64"/>
+      <c r="AN247" s="70">
         <v>44643</v>
       </c>
     </row>
@@ -18898,10 +18902,10 @@
         <f>(H249-I249)/I249</f>
         <v>0.360215053763441</v>
       </c>
-      <c r="M249" s="56">
+      <c r="M249" s="58">
         <v>4</v>
       </c>
-      <c r="N249" s="58"/>
+      <c r="N249" s="59"/>
       <c r="O249" s="17">
         <v>9.8</v>
       </c>
@@ -18909,24 +18913,24 @@
         <v>12.39</v>
       </c>
       <c r="Q249" s="17">
-        <v>11.3</v>
-      </c>
-      <c r="R249" s="62"/>
-      <c r="S249" s="62"/>
-      <c r="T249" s="62"/>
-      <c r="U249" s="62"/>
-      <c r="V249" s="62"/>
-      <c r="W249" s="62"/>
-      <c r="X249" s="62"/>
-      <c r="Y249" s="62"/>
-      <c r="Z249" s="58"/>
+        <v>11.07</v>
+      </c>
+      <c r="R249" s="63"/>
+      <c r="S249" s="63"/>
+      <c r="T249" s="63"/>
+      <c r="U249" s="63"/>
+      <c r="V249" s="63"/>
+      <c r="W249" s="63"/>
+      <c r="X249" s="63"/>
+      <c r="Y249" s="63"/>
+      <c r="Z249" s="59"/>
       <c r="AA249" s="22">
         <f>(H249-O249)/H249</f>
         <v>0.225296442687747</v>
       </c>
       <c r="AB249" s="22">
         <f>(P249-Q249)/P249</f>
-        <v>0.0879741727199354</v>
+        <v>0.106537530266344</v>
       </c>
       <c r="AC249" s="22" t="e">
         <f>(R249-S249)/R249</f>
@@ -18940,14 +18944,14 @@
         <f>(V249-W249)/V249</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF249" s="66"/>
-      <c r="AG249" s="58"/>
-      <c r="AH249" s="58"/>
-      <c r="AI249" s="58"/>
-      <c r="AJ249" s="58"/>
-      <c r="AK249" s="58"/>
-      <c r="AL249" s="58"/>
-      <c r="AM249" s="58"/>
+      <c r="AF249" s="67"/>
+      <c r="AG249" s="59"/>
+      <c r="AH249" s="59"/>
+      <c r="AI249" s="59"/>
+      <c r="AJ249" s="59"/>
+      <c r="AK249" s="59"/>
+      <c r="AL249" s="59"/>
+      <c r="AM249" s="59"/>
       <c r="AN249" s="36">
         <v>44650</v>
       </c>
@@ -21980,7 +21984,7 @@
         <f>(H305-C305)/H305</f>
         <v>0.271645021645022</v>
       </c>
-      <c r="L305" s="70">
+      <c r="L305" s="71">
         <f>(H305-I305)/I305</f>
         <v>1.47721179624665</v>
       </c>
@@ -21997,14 +22001,14 @@
       <c r="Q305" s="53">
         <v>6.69</v>
       </c>
-      <c r="R305" s="61"/>
-      <c r="S305" s="61"/>
-      <c r="T305" s="61"/>
-      <c r="U305" s="61"/>
-      <c r="V305" s="61"/>
-      <c r="W305" s="61"/>
-      <c r="X305" s="61"/>
-      <c r="Y305" s="61"/>
+      <c r="R305" s="62"/>
+      <c r="S305" s="62"/>
+      <c r="T305" s="62"/>
+      <c r="U305" s="62"/>
+      <c r="V305" s="62"/>
+      <c r="W305" s="62"/>
+      <c r="X305" s="62"/>
+      <c r="Y305" s="62"/>
       <c r="Z305" s="57"/>
       <c r="AA305" s="43">
         <f>(H305-O305)/H305</f>
@@ -22026,7 +22030,7 @@
         <f>(V305-W305)/V305</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF305" s="65"/>
+      <c r="AF305" s="66"/>
       <c r="AG305" s="57"/>
       <c r="AH305" s="57"/>
       <c r="AI305" s="57"/>
@@ -23137,23 +23141,23 @@
         <v>3</v>
       </c>
       <c r="N325" s="50"/>
-      <c r="O325" s="75">
+      <c r="O325" s="76">
         <v>4.48</v>
       </c>
-      <c r="P325" s="75">
+      <c r="P325" s="76">
         <v>6</v>
       </c>
-      <c r="Q325" s="75">
+      <c r="Q325" s="76">
         <v>4.64</v>
       </c>
-      <c r="R325" s="75">
+      <c r="R325" s="76">
         <v>5.82</v>
       </c>
-      <c r="S325" s="75">
+      <c r="S325" s="76">
         <v>5.03</v>
       </c>
-      <c r="T325" s="81"/>
-      <c r="U325" s="81"/>
+      <c r="T325" s="82"/>
+      <c r="U325" s="82"/>
       <c r="V325" s="50"/>
       <c r="W325" s="50"/>
       <c r="X325" s="50"/>
@@ -23181,7 +23185,7 @@
       <c r="AK325" s="50"/>
       <c r="AL325" s="50"/>
       <c r="AM325" s="50"/>
-      <c r="AN325" s="68">
+      <c r="AN325" s="69">
         <v>44650</v>
       </c>
     </row>
@@ -23204,13 +23208,13 @@
       <c r="F326" s="3">
         <v>4.305</v>
       </c>
-      <c r="G326" s="71">
+      <c r="G326" s="72">
         <v>3.28</v>
       </c>
-      <c r="H326" s="71">
+      <c r="H326" s="72">
         <v>7.4</v>
       </c>
-      <c r="I326" s="71">
+      <c r="I326" s="72">
         <v>4.16</v>
       </c>
       <c r="J326" s="24">
@@ -23225,24 +23229,24 @@
         <f>(H326-I326)/I326</f>
         <v>0.778846153846154</v>
       </c>
-      <c r="M326" s="71">
+      <c r="M326" s="72">
         <v>3</v>
       </c>
-      <c r="N326" s="76"/>
-      <c r="O326" s="77">
+      <c r="N326" s="77"/>
+      <c r="O326" s="78">
         <v>4.82</v>
       </c>
-      <c r="P326" s="78"/>
-      <c r="Q326" s="78"/>
-      <c r="R326" s="78"/>
-      <c r="S326" s="78"/>
-      <c r="T326" s="78"/>
-      <c r="U326" s="78"/>
-      <c r="V326" s="76"/>
-      <c r="W326" s="76"/>
-      <c r="X326" s="76"/>
-      <c r="Y326" s="76"/>
-      <c r="Z326" s="76"/>
+      <c r="P326" s="79"/>
+      <c r="Q326" s="79"/>
+      <c r="R326" s="79"/>
+      <c r="S326" s="79"/>
+      <c r="T326" s="79"/>
+      <c r="U326" s="79"/>
+      <c r="V326" s="77"/>
+      <c r="W326" s="77"/>
+      <c r="X326" s="77"/>
+      <c r="Y326" s="77"/>
+      <c r="Z326" s="77"/>
       <c r="AA326" s="24">
         <f>(H326-O326)/H326</f>
         <v>0.348648648648649</v>
@@ -23251,18 +23255,18 @@
         <f>(P326-Q326)/P326</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC326" s="76"/>
-      <c r="AD326" s="76"/>
-      <c r="AE326" s="76"/>
-      <c r="AF326" s="76"/>
-      <c r="AG326" s="76"/>
-      <c r="AH326" s="76"/>
-      <c r="AI326" s="76"/>
-      <c r="AJ326" s="76"/>
-      <c r="AK326" s="76"/>
-      <c r="AL326" s="76"/>
-      <c r="AM326" s="76"/>
-      <c r="AN326" s="83">
+      <c r="AC326" s="77"/>
+      <c r="AD326" s="77"/>
+      <c r="AE326" s="77"/>
+      <c r="AF326" s="77"/>
+      <c r="AG326" s="77"/>
+      <c r="AH326" s="77"/>
+      <c r="AI326" s="77"/>
+      <c r="AJ326" s="77"/>
+      <c r="AK326" s="77"/>
+      <c r="AL326" s="77"/>
+      <c r="AM326" s="77"/>
+      <c r="AN326" s="84">
         <v>44645</v>
       </c>
     </row>
@@ -24635,13 +24639,13 @@
       <c r="F352" s="3">
         <v>10.325</v>
       </c>
-      <c r="G352" s="72">
+      <c r="G352" s="73">
         <v>7.81</v>
       </c>
-      <c r="H352" s="72">
+      <c r="H352" s="73">
         <v>12.44</v>
       </c>
-      <c r="I352" s="72">
+      <c r="I352" s="73">
         <v>11.06</v>
       </c>
       <c r="J352" s="44">
@@ -24656,30 +24660,30 @@
         <f>(H352-I352)/I352</f>
         <v>0.124773960216998</v>
       </c>
-      <c r="M352" s="79"/>
-      <c r="N352" s="79"/>
-      <c r="O352" s="72">
+      <c r="M352" s="80"/>
+      <c r="N352" s="80"/>
+      <c r="O352" s="73">
         <v>9.93</v>
       </c>
-      <c r="P352" s="72">
+      <c r="P352" s="73">
         <v>12.29</v>
       </c>
-      <c r="Q352" s="72">
+      <c r="Q352" s="73">
         <v>10.27</v>
       </c>
-      <c r="R352" s="72">
+      <c r="R352" s="73">
         <v>11.75</v>
       </c>
-      <c r="S352" s="72">
+      <c r="S352" s="73">
         <v>10.8</v>
       </c>
-      <c r="T352" s="72"/>
-      <c r="U352" s="72"/>
-      <c r="V352" s="72"/>
-      <c r="W352" s="72"/>
-      <c r="X352" s="72"/>
-      <c r="Y352" s="72"/>
-      <c r="Z352" s="79"/>
+      <c r="T352" s="73"/>
+      <c r="U352" s="73"/>
+      <c r="V352" s="73"/>
+      <c r="W352" s="73"/>
+      <c r="X352" s="73"/>
+      <c r="Y352" s="73"/>
+      <c r="Z352" s="80"/>
       <c r="AA352" s="44">
         <f>(H352-O352)/H352</f>
         <v>0.201768488745981</v>
@@ -24695,14 +24699,14 @@
       <c r="AD352" s="44"/>
       <c r="AE352" s="44"/>
       <c r="AF352" s="44"/>
-      <c r="AG352" s="79"/>
-      <c r="AH352" s="79"/>
-      <c r="AI352" s="79"/>
-      <c r="AJ352" s="79"/>
-      <c r="AK352" s="79"/>
-      <c r="AL352" s="79"/>
-      <c r="AM352" s="79"/>
-      <c r="AN352" s="84">
+      <c r="AG352" s="80"/>
+      <c r="AH352" s="80"/>
+      <c r="AI352" s="80"/>
+      <c r="AJ352" s="80"/>
+      <c r="AK352" s="80"/>
+      <c r="AL352" s="80"/>
+      <c r="AM352" s="80"/>
+      <c r="AN352" s="85">
         <v>44656</v>
       </c>
     </row>
@@ -24858,19 +24862,19 @@
         <v>5</v>
       </c>
       <c r="N355" s="50"/>
-      <c r="O355" s="75">
+      <c r="O355" s="76">
         <v>4.06</v>
       </c>
-      <c r="P355" s="75">
+      <c r="P355" s="76">
         <v>4.8</v>
       </c>
-      <c r="Q355" s="75">
+      <c r="Q355" s="76">
         <v>4.08</v>
       </c>
-      <c r="R355" s="81"/>
-      <c r="S355" s="81"/>
-      <c r="T355" s="81"/>
-      <c r="U355" s="81"/>
+      <c r="R355" s="82"/>
+      <c r="S355" s="82"/>
+      <c r="T355" s="82"/>
+      <c r="U355" s="82"/>
       <c r="V355" s="50"/>
       <c r="W355" s="50"/>
       <c r="X355" s="50"/>
@@ -24895,7 +24899,7 @@
       <c r="AK355" s="50"/>
       <c r="AL355" s="50"/>
       <c r="AM355" s="50"/>
-      <c r="AN355" s="68">
+      <c r="AN355" s="69">
         <v>44649</v>
       </c>
     </row>
@@ -26106,55 +26110,55 @@
       <c r="F378" s="3">
         <v>3.893</v>
       </c>
-      <c r="G378" s="73">
+      <c r="G378" s="74">
         <v>3.59</v>
       </c>
-      <c r="H378" s="73">
+      <c r="H378" s="74">
         <v>4.24</v>
       </c>
-      <c r="I378" s="73">
+      <c r="I378" s="74">
         <v>3.73</v>
       </c>
-      <c r="J378" s="74">
+      <c r="J378" s="75">
         <f>(C378-G378)/G378</f>
         <v>0.175487465181058</v>
       </c>
-      <c r="K378" s="74">
+      <c r="K378" s="75">
         <f>(H378-C378)/H378</f>
         <v>0.00471698113207558</v>
       </c>
-      <c r="L378" s="74">
+      <c r="L378" s="75">
         <f>(H378-I378)/I378</f>
         <v>0.136729222520107</v>
       </c>
-      <c r="M378" s="76"/>
-      <c r="N378" s="76"/>
-      <c r="O378" s="80"/>
-      <c r="P378" s="80"/>
-      <c r="Q378" s="80"/>
-      <c r="R378" s="80"/>
-      <c r="S378" s="80"/>
-      <c r="T378" s="80"/>
-      <c r="U378" s="80"/>
-      <c r="V378" s="80"/>
-      <c r="W378" s="80"/>
-      <c r="X378" s="80"/>
-      <c r="Y378" s="80"/>
-      <c r="Z378" s="76"/>
-      <c r="AA378" s="82"/>
-      <c r="AB378" s="82"/>
-      <c r="AC378" s="82"/>
-      <c r="AD378" s="82"/>
-      <c r="AE378" s="82"/>
-      <c r="AF378" s="82"/>
-      <c r="AG378" s="76"/>
-      <c r="AH378" s="76"/>
-      <c r="AI378" s="76"/>
-      <c r="AJ378" s="76"/>
-      <c r="AK378" s="76"/>
-      <c r="AL378" s="76"/>
-      <c r="AM378" s="76"/>
-      <c r="AN378" s="83">
+      <c r="M378" s="77"/>
+      <c r="N378" s="77"/>
+      <c r="O378" s="81"/>
+      <c r="P378" s="81"/>
+      <c r="Q378" s="81"/>
+      <c r="R378" s="81"/>
+      <c r="S378" s="81"/>
+      <c r="T378" s="81"/>
+      <c r="U378" s="81"/>
+      <c r="V378" s="81"/>
+      <c r="W378" s="81"/>
+      <c r="X378" s="81"/>
+      <c r="Y378" s="81"/>
+      <c r="Z378" s="77"/>
+      <c r="AA378" s="83"/>
+      <c r="AB378" s="83"/>
+      <c r="AC378" s="83"/>
+      <c r="AD378" s="83"/>
+      <c r="AE378" s="83"/>
+      <c r="AF378" s="83"/>
+      <c r="AG378" s="77"/>
+      <c r="AH378" s="77"/>
+      <c r="AI378" s="77"/>
+      <c r="AJ378" s="77"/>
+      <c r="AK378" s="77"/>
+      <c r="AL378" s="77"/>
+      <c r="AM378" s="77"/>
+      <c r="AN378" s="84">
         <v>44643</v>
       </c>
     </row>
@@ -26663,13 +26667,13 @@
       <c r="F388" s="3">
         <v>8.189</v>
       </c>
-      <c r="G388" s="85">
+      <c r="G388" s="86">
         <v>2.01</v>
       </c>
-      <c r="H388" s="85">
+      <c r="H388" s="86">
         <v>13.54</v>
       </c>
-      <c r="I388" s="85">
+      <c r="I388" s="86">
         <v>6.9</v>
       </c>
       <c r="J388" s="24">
@@ -26684,11 +26688,11 @@
         <f>(H388-I388)/I388</f>
         <v>0.96231884057971</v>
       </c>
-      <c r="M388" s="87">
+      <c r="M388" s="56">
         <v>2</v>
       </c>
       <c r="N388" s="88"/>
-      <c r="O388" s="77">
+      <c r="O388" s="78">
         <v>6.41</v>
       </c>
       <c r="P388" s="19">
@@ -29223,13 +29227,13 @@
       <c r="F434" s="3">
         <v>38.067</v>
       </c>
-      <c r="G434" s="86">
+      <c r="G434" s="87">
         <v>14.74</v>
       </c>
-      <c r="H434" s="86">
+      <c r="H434" s="87">
         <v>55.9</v>
       </c>
-      <c r="I434" s="86">
+      <c r="I434" s="87">
         <v>36.4</v>
       </c>
       <c r="J434" s="43">
@@ -29263,12 +29267,12 @@
       <c r="S434" s="53">
         <v>41</v>
       </c>
-      <c r="T434" s="61"/>
-      <c r="U434" s="61"/>
-      <c r="V434" s="61"/>
-      <c r="W434" s="61"/>
-      <c r="X434" s="61"/>
-      <c r="Y434" s="61"/>
+      <c r="T434" s="62"/>
+      <c r="U434" s="62"/>
+      <c r="V434" s="62"/>
+      <c r="W434" s="62"/>
+      <c r="X434" s="62"/>
+      <c r="Y434" s="62"/>
       <c r="Z434" s="57"/>
       <c r="AA434" s="43">
         <f>(H434-O434)/H434</f>
@@ -29290,7 +29294,7 @@
         <f>(V434-W434)/V434</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF434" s="65"/>
+      <c r="AF434" s="66"/>
       <c r="AG434" s="57"/>
       <c r="AH434" s="57"/>
       <c r="AI434" s="57"/>
@@ -32042,7 +32046,7 @@
         <f>(H485-I485)/I485</f>
         <v>0.177902621722846</v>
       </c>
-      <c r="M485" s="87">
+      <c r="M485" s="56">
         <v>3</v>
       </c>
       <c r="N485" s="88"/>
@@ -34134,59 +34138,59 @@
       <c r="F523" s="3">
         <v>3.13</v>
       </c>
-      <c r="G523" s="73">
+      <c r="G523" s="74">
         <v>2.14</v>
       </c>
-      <c r="H523" s="73">
+      <c r="H523" s="74">
         <v>4.82</v>
       </c>
-      <c r="I523" s="73">
+      <c r="I523" s="74">
         <v>3.4</v>
       </c>
-      <c r="J523" s="74">
+      <c r="J523" s="75">
         <f>(C523-G523)/G523</f>
         <v>0.635514018691589</v>
       </c>
-      <c r="K523" s="74">
+      <c r="K523" s="75">
         <f>(H523-C523)/H523</f>
         <v>0.273858921161826</v>
       </c>
-      <c r="L523" s="74">
+      <c r="L523" s="75">
         <f>(H523-I523)/I523</f>
         <v>0.41764705882353</v>
       </c>
-      <c r="M523" s="71">
+      <c r="M523" s="72">
         <v>1</v>
       </c>
-      <c r="N523" s="71" t="s">
+      <c r="N523" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="O523" s="80"/>
-      <c r="P523" s="80"/>
-      <c r="Q523" s="80"/>
-      <c r="R523" s="80"/>
-      <c r="S523" s="80"/>
-      <c r="T523" s="80"/>
-      <c r="U523" s="80"/>
-      <c r="V523" s="80"/>
-      <c r="W523" s="80"/>
-      <c r="X523" s="80"/>
-      <c r="Y523" s="80"/>
-      <c r="Z523" s="76"/>
-      <c r="AA523" s="82"/>
-      <c r="AB523" s="82"/>
-      <c r="AC523" s="82"/>
-      <c r="AD523" s="82"/>
-      <c r="AE523" s="82"/>
-      <c r="AF523" s="82"/>
-      <c r="AG523" s="76"/>
-      <c r="AH523" s="76"/>
-      <c r="AI523" s="76"/>
-      <c r="AJ523" s="76"/>
-      <c r="AK523" s="76"/>
-      <c r="AL523" s="76"/>
-      <c r="AM523" s="76"/>
-      <c r="AN523" s="83">
+      <c r="O523" s="81"/>
+      <c r="P523" s="81"/>
+      <c r="Q523" s="81"/>
+      <c r="R523" s="81"/>
+      <c r="S523" s="81"/>
+      <c r="T523" s="81"/>
+      <c r="U523" s="81"/>
+      <c r="V523" s="81"/>
+      <c r="W523" s="81"/>
+      <c r="X523" s="81"/>
+      <c r="Y523" s="81"/>
+      <c r="Z523" s="77"/>
+      <c r="AA523" s="83"/>
+      <c r="AB523" s="83"/>
+      <c r="AC523" s="83"/>
+      <c r="AD523" s="83"/>
+      <c r="AE523" s="83"/>
+      <c r="AF523" s="83"/>
+      <c r="AG523" s="77"/>
+      <c r="AH523" s="77"/>
+      <c r="AI523" s="77"/>
+      <c r="AJ523" s="77"/>
+      <c r="AK523" s="77"/>
+      <c r="AL523" s="77"/>
+      <c r="AM523" s="77"/>
+      <c r="AN523" s="84">
         <v>44643</v>
       </c>
     </row>
